--- a/dev_doc/konnekting_codelock.xlsx
+++ b/dev_doc/konnekting_codelock.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E4C827-F813-498C-AB28-5070E36E1C8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keypad" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Funktionen" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>*</t>
   </si>
@@ -31,12 +39,162 @@
   </si>
   <si>
     <t>Arduino Pin</t>
+  </si>
+  <si>
+    <t>Funktionen:</t>
+  </si>
+  <si>
+    <t>Eingabe eines Codes: Tür öffnen</t>
+  </si>
+  <si>
+    <t>Magnetkontakt erkennt geschlossene Tür =&gt; Verriegeln</t>
+  </si>
+  <si>
+    <t>Sende Status über KNX</t>
+  </si>
+  <si>
+    <t>Tür öffnen</t>
+  </si>
+  <si>
+    <t>Befehle:</t>
+  </si>
+  <si>
+    <t>KNX Kommando 0-9</t>
+  </si>
+  <si>
+    <t>[0-9]#[0-9][0-9][0-9][0-9][0-9][0-9]</t>
+  </si>
+  <si>
+    <t>[0-9][0-9][0-9][0-9][0-9][0-9]</t>
+  </si>
+  <si>
+    <t>ComObj</t>
+  </si>
+  <si>
+    <t>Codeschloss</t>
+  </si>
+  <si>
+    <t>CFA1000</t>
+  </si>
+  <si>
+    <t>Kommando 0</t>
+  </si>
+  <si>
+    <t>Kommando 1</t>
+  </si>
+  <si>
+    <t>Kommando 2</t>
+  </si>
+  <si>
+    <t>Kommando 3</t>
+  </si>
+  <si>
+    <t>Kommando 4</t>
+  </si>
+  <si>
+    <t>Kommando 5</t>
+  </si>
+  <si>
+    <t>Kommando 6</t>
+  </si>
+  <si>
+    <t>Kommando 7</t>
+  </si>
+  <si>
+    <t>Kommando 8</t>
+  </si>
+  <si>
+    <t>Kommando 9</t>
+  </si>
+  <si>
+    <t>Senden</t>
+  </si>
+  <si>
+    <t>Falscher Code</t>
+  </si>
+  <si>
+    <t>Magnetkontakt</t>
+  </si>
+  <si>
+    <t>Empfangen</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>Automatisch Verriegeln</t>
+  </si>
+  <si>
+    <t>Default Kommando</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>0-255</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Lock/Unlock</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Kommando Mode</t>
+  </si>
+  <si>
+    <t>Toggle/Ein/Aus</t>
+  </si>
+  <si>
+    <t>Probleme:</t>
+  </si>
+  <si>
+    <t>Status Schloss unbekannt</t>
+  </si>
+  <si>
+    <t>Fremdeingriff möglich</t>
+  </si>
+  <si>
+    <t>Lock-cmd</t>
+  </si>
+  <si>
+    <t>Unlock-cmd</t>
+  </si>
+  <si>
+    <t>Open-cmd</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Code/Lock/Both</t>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+  </si>
+  <si>
+    <t>[0-9]{6}</t>
+  </si>
+  <si>
+    <t>class codelock</t>
+  </si>
+  <si>
+    <t>ExecuteCmd(int cmd_no)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -254,14 +413,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,9 +461,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,9 +496,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,9 +548,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,10 +740,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -664,19 +860,333 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C3:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="O13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>40</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>38</v>
+      </c>
+      <c r="P37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" t="s">
+        <v>46</v>
+      </c>
+      <c r="S38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/dev_doc/konnekting_codelock.xlsx
+++ b/dev_doc/konnekting_codelock.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E4C827-F813-498C-AB28-5070E36E1C8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F07F6D-EEF3-487E-AE0C-BB3D2549D28E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>*</t>
   </si>
@@ -182,13 +182,19 @@
     <t>ErrorCode</t>
   </si>
   <si>
-    <t>[0-9]{6}</t>
-  </si>
-  <si>
     <t>class codelock</t>
   </si>
   <si>
     <t>ExecuteCmd(int cmd_no)</t>
+  </si>
+  <si>
+    <t>Code Nr</t>
+  </si>
+  <si>
+    <t>Key Pressed</t>
+  </si>
+  <si>
+    <t>0-999999</t>
   </si>
 </sst>
 </file>
@@ -863,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,11 +1110,25 @@
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
       <c r="R30" t="s">
         <v>39</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
@@ -1171,12 +1191,12 @@
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/dev_doc/konnekting_codelock.xlsx
+++ b/dev_doc/konnekting_codelock.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F07F6D-EEF3-487E-AE0C-BB3D2549D28E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D855E7-4847-4619-825E-7A7491C4EDAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,12 +218,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -373,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +415,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -869,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,13 +954,13 @@
       <c r="N19" t="s">
         <v>15</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="P19" t="s">
         <v>27</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="13" t="s">
         <v>40</v>
       </c>
       <c r="S19" t="s">
@@ -961,13 +968,13 @@
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O20" t="s">
+      <c r="O20" s="13" t="s">
         <v>18</v>
       </c>
       <c r="P20" t="s">
         <v>27</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="13" t="s">
         <v>40</v>
       </c>
       <c r="S20" t="s">
@@ -975,13 +982,13 @@
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O21" t="s">
+      <c r="O21" s="13" t="s">
         <v>19</v>
       </c>
       <c r="P21" t="s">
         <v>27</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="13" t="s">
         <v>40</v>
       </c>
       <c r="S21" t="s">
@@ -989,13 +996,13 @@
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O22" t="s">
+      <c r="O22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="P22" t="s">
         <v>27</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="13" t="s">
         <v>40</v>
       </c>
       <c r="S22" t="s">
@@ -1003,13 +1010,13 @@
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O23" t="s">
+      <c r="O23" s="13" t="s">
         <v>21</v>
       </c>
       <c r="P23" t="s">
         <v>27</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="13" t="s">
         <v>40</v>
       </c>
       <c r="S23" t="s">
@@ -1017,13 +1024,13 @@
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O24" t="s">
+      <c r="O24" s="13" t="s">
         <v>22</v>
       </c>
       <c r="P24" t="s">
         <v>27</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="13" t="s">
         <v>40</v>
       </c>
       <c r="S24" t="s">
@@ -1031,13 +1038,13 @@
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O25" t="s">
+      <c r="O25" s="13" t="s">
         <v>23</v>
       </c>
       <c r="P25" t="s">
         <v>27</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="13" t="s">
         <v>40</v>
       </c>
       <c r="S25" t="s">
@@ -1045,13 +1052,13 @@
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O26" t="s">
+      <c r="O26" s="13" t="s">
         <v>24</v>
       </c>
       <c r="P26" t="s">
         <v>27</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="13" t="s">
         <v>40</v>
       </c>
       <c r="S26" t="s">
@@ -1062,13 +1069,13 @@
       <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="13" t="s">
         <v>25</v>
       </c>
       <c r="P27" t="s">
         <v>27</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="13" t="s">
         <v>40</v>
       </c>
       <c r="S27" t="s">
@@ -1079,13 +1086,13 @@
       <c r="C28" t="s">
         <v>43</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="13" t="s">
         <v>26</v>
       </c>
       <c r="P28" t="s">
         <v>27</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="13" t="s">
         <v>40</v>
       </c>
       <c r="S28" t="s">
@@ -1096,13 +1103,13 @@
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="P29" t="s">
         <v>27</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="13" t="s">
         <v>33</v>
       </c>
       <c r="S29" t="s">
@@ -1110,13 +1117,13 @@
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O30" t="s">
+      <c r="O30" s="13" t="s">
         <v>54</v>
       </c>
       <c r="P30" t="s">
         <v>27</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="13" t="s">
         <v>39</v>
       </c>
       <c r="S30" t="s">
@@ -1124,7 +1131,7 @@
       </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="O31" t="s">
+      <c r="O31" s="13" t="s">
         <v>55</v>
       </c>
       <c r="P31" t="s">
@@ -1140,13 +1147,13 @@
       <c r="N36" t="s">
         <v>16</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="13" t="s">
         <v>29</v>
       </c>
       <c r="P36" t="s">
         <v>30</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="13" t="s">
         <v>32</v>
       </c>
       <c r="S36" t="s">
@@ -1154,13 +1161,13 @@
       </c>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="O37" t="s">
+      <c r="O37" s="13" t="s">
         <v>38</v>
       </c>
       <c r="P37" t="s">
         <v>30</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="13" t="s">
         <v>45</v>
       </c>
       <c r="S37" t="s">
@@ -1168,13 +1175,13 @@
       </c>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="O38" t="s">
+      <c r="O38" s="13" t="s">
         <v>37</v>
       </c>
       <c r="P38" t="s">
         <v>30</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="13" t="s">
         <v>46</v>
       </c>
       <c r="S38" t="s">
@@ -1182,7 +1189,7 @@
       </c>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="R39" t="s">
+      <c r="R39" s="13" t="s">
         <v>47</v>
       </c>
       <c r="S39" t="s">

--- a/dev_doc/konnekting_codelock.xlsx
+++ b/dev_doc/konnekting_codelock.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D855E7-4847-4619-825E-7A7491C4EDAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14DD4F2-A349-4D6B-AE8D-9B7E1B633B07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keypad" sheetId="1" r:id="rId1"/>
-    <sheet name="Funktionen" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="4ch  - 2ch" sheetId="4" r:id="rId1"/>
+    <sheet name="Keypad" sheetId="1" r:id="rId2"/>
+    <sheet name="Funktionen" sheetId="2" r:id="rId3"/>
+    <sheet name="PCB Layout" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="119">
   <si>
     <t>*</t>
   </si>
@@ -195,13 +196,202 @@
   </si>
   <si>
     <t>0-999999</t>
+  </si>
+  <si>
+    <t>Teileliste</t>
+  </si>
+  <si>
+    <t>Stückzahl</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>SCK</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>KNX</t>
+  </si>
+  <si>
+    <t>Pro Mini</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>5V0</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>3V</t>
+  </si>
+  <si>
+    <t>Aref</t>
+  </si>
+  <si>
+    <t>Vhi</t>
+  </si>
+  <si>
+    <t>AREF</t>
+  </si>
+  <si>
+    <t>ItsyBitsy M0</t>
+  </si>
+  <si>
+    <t>ProMicro</t>
+  </si>
+  <si>
+    <t>ProMini</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>3 / SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>2 / SDA</t>
+  </si>
+  <si>
+    <t>1 / TX</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>2 / RX</t>
+  </si>
+  <si>
+    <t>Gehäuse Hammond 1551 80x40x20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TX</t>
+  </si>
+  <si>
+    <t>Keypad + Piezo</t>
+  </si>
+  <si>
+    <t>AKL</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>1591MBK</t>
+  </si>
+  <si>
+    <t>Pfostenstecker 2x5</t>
+  </si>
+  <si>
+    <t>Wannenstecker 2x5 gewinkelt</t>
+  </si>
+  <si>
+    <t>Flachband 10adrig 1,27</t>
+  </si>
+  <si>
+    <t>Wannenstecker 2x4 gewinkelt</t>
+  </si>
+  <si>
+    <t>Pfostenstecker 2x4</t>
+  </si>
+  <si>
+    <t>Buchsenleiste 1x7 gewinkelt</t>
+  </si>
+  <si>
+    <t>Stiftleiste 1x7 gewinkelt</t>
+  </si>
+  <si>
+    <t>BL 1X20W8 2,54</t>
+  </si>
+  <si>
+    <t>BL 1X20G 2,54</t>
+  </si>
+  <si>
+    <t>niedrige Buchsenleiste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +407,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +433,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -375,11 +589,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,9 +786,204 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{5F6B0D40-7F0D-49CD-8849-5675455C9FD8}"/>
+    <cellStyle name="Währung 2" xfId="2" xr:uid="{A8C636B3-3D85-4953-8FE2-A7439D3911E4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -753,6 +1318,4191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1452ABA-8CFD-42EA-A4FF-ADABF08E8A69}">
+  <sheetPr codeName="Tabelle12"/>
+  <dimension ref="B1:BS89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="BB22" sqref="BB22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="15"/>
+    <col min="3" max="65" width="2.85546875" style="15" customWidth="1"/>
+    <col min="66" max="66" width="11.42578125" style="15"/>
+    <col min="67" max="67" width="31" style="15" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.5703125" style="15" customWidth="1"/>
+    <col min="69" max="16384" width="11.42578125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="14"/>
+    </row>
+    <row r="2" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="14"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="BP2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="BQ2" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ3" s="17"/>
+      <c r="BR3" s="17">
+        <f>BP3*BQ3</f>
+        <v>0</v>
+      </c>
+      <c r="BS3" s="17">
+        <f>BQ3*BR3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+    </row>
+    <row r="5" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="16"/>
+      <c r="BN5" s="16"/>
+      <c r="BO5" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ5" s="17"/>
+      <c r="BR5" s="17"/>
+      <c r="BS5" s="17"/>
+    </row>
+    <row r="6" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
+      <c r="BL6" s="16"/>
+      <c r="BM6" s="16"/>
+      <c r="BN6" s="16"/>
+      <c r="BQ6" s="17"/>
+      <c r="BR6" s="17"/>
+      <c r="BS6" s="17"/>
+    </row>
+    <row r="7" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
+      <c r="BL7" s="14"/>
+      <c r="BM7" s="14"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ7" s="17"/>
+      <c r="BR7" s="17"/>
+      <c r="BS7" s="17"/>
+    </row>
+    <row r="8" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2</v>
+      </c>
+      <c r="I8" s="14">
+        <v>3</v>
+      </c>
+      <c r="J8" s="14">
+        <v>4</v>
+      </c>
+      <c r="K8" s="14">
+        <v>5</v>
+      </c>
+      <c r="L8" s="14">
+        <v>6</v>
+      </c>
+      <c r="M8" s="14">
+        <v>7</v>
+      </c>
+      <c r="N8" s="14">
+        <v>8</v>
+      </c>
+      <c r="O8" s="14">
+        <v>9</v>
+      </c>
+      <c r="P8" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>11</v>
+      </c>
+      <c r="R8" s="14">
+        <v>12</v>
+      </c>
+      <c r="S8" s="14">
+        <v>13</v>
+      </c>
+      <c r="T8" s="14">
+        <v>14</v>
+      </c>
+      <c r="U8" s="14">
+        <v>15</v>
+      </c>
+      <c r="V8" s="14">
+        <v>16</v>
+      </c>
+      <c r="W8" s="14">
+        <v>17</v>
+      </c>
+      <c r="X8" s="14">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>23</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>24</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>25</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>26</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>27</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>28</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>29</v>
+      </c>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ8" s="17"/>
+      <c r="BR8" s="17"/>
+      <c r="BS8" s="17"/>
+    </row>
+    <row r="9" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14"/>
+      <c r="BQ9" s="17"/>
+      <c r="BR9" s="17"/>
+      <c r="BS9" s="17"/>
+    </row>
+    <row r="10" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15">
+        <v>2</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" s="86">
+        <v>2</v>
+      </c>
+      <c r="V10" s="22"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="25"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="25"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="25"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ10" s="17"/>
+      <c r="BR10" s="17"/>
+      <c r="BS10" s="17"/>
+    </row>
+    <row r="11" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15">
+        <v>3</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="V11" s="22"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="14"/>
+      <c r="BK11" s="14"/>
+      <c r="BL11" s="14"/>
+      <c r="BM11" s="14"/>
+      <c r="BN11" s="14"/>
+      <c r="BQ11" s="17"/>
+      <c r="BR11" s="17"/>
+      <c r="BS11" s="17"/>
+    </row>
+    <row r="12" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15">
+        <v>4</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14"/>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="14"/>
+      <c r="BL12" s="14"/>
+      <c r="BM12" s="14"/>
+      <c r="BN12" s="14"/>
+      <c r="BO12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ12" s="17"/>
+      <c r="BR12" s="17"/>
+      <c r="BS12" s="17"/>
+    </row>
+    <row r="13" spans="2:71" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15">
+        <v>5</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="14"/>
+      <c r="BK13" s="14"/>
+      <c r="BL13" s="14"/>
+      <c r="BM13" s="14"/>
+      <c r="BN13" s="14"/>
+      <c r="BO13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="BQ13" s="17"/>
+      <c r="BR13" s="17"/>
+      <c r="BS13" s="17"/>
+    </row>
+    <row r="14" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15">
+        <v>6</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="95">
+        <v>3</v>
+      </c>
+      <c r="V14" s="22"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="100"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="14"/>
+      <c r="BL14" s="14"/>
+      <c r="BM14" s="14"/>
+      <c r="BN14" s="14"/>
+      <c r="BQ14" s="17"/>
+      <c r="BR14" s="17"/>
+      <c r="BS14" s="17"/>
+    </row>
+    <row r="15" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15">
+        <v>7</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="88">
+        <v>4</v>
+      </c>
+      <c r="V15" s="22"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="23"/>
+      <c r="AV15" s="23"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14"/>
+      <c r="BL15" s="14"/>
+      <c r="BM15" s="14"/>
+      <c r="BN15" s="14"/>
+      <c r="BO15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ15" s="17"/>
+      <c r="BR15" s="17"/>
+      <c r="BS15" s="17"/>
+    </row>
+    <row r="16" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15">
+        <v>8</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="66">
+        <v>13</v>
+      </c>
+      <c r="L16" s="66">
+        <v>12</v>
+      </c>
+      <c r="M16" s="66">
+        <v>11</v>
+      </c>
+      <c r="N16" s="66">
+        <v>10</v>
+      </c>
+      <c r="O16" s="66">
+        <v>9</v>
+      </c>
+      <c r="P16" s="66">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="66">
+        <v>5</v>
+      </c>
+      <c r="R16" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="U16" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="V16" s="22"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="14"/>
+      <c r="BK16" s="14"/>
+      <c r="BL16" s="14"/>
+      <c r="BM16" s="14"/>
+      <c r="BN16" s="14"/>
+      <c r="BO16" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ16" s="17"/>
+      <c r="BR16" s="17"/>
+      <c r="BS16" s="17"/>
+    </row>
+    <row r="17" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15">
+        <v>9</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="14"/>
+      <c r="BK17" s="14"/>
+      <c r="BL17" s="14"/>
+      <c r="BM17" s="14"/>
+      <c r="BN17" s="14"/>
+      <c r="BQ17" s="17"/>
+      <c r="BR17" s="17"/>
+      <c r="BS17" s="17"/>
+    </row>
+    <row r="18" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15">
+        <v>10</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="14"/>
+      <c r="BJ18" s="14"/>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="14"/>
+      <c r="BM18" s="14"/>
+      <c r="BN18" s="14"/>
+      <c r="BO18" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ18" s="17"/>
+      <c r="BR18" s="17"/>
+      <c r="BS18" s="17"/>
+    </row>
+    <row r="19" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15">
+        <v>11</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="34"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="14"/>
+      <c r="BM19" s="14"/>
+      <c r="BN19" s="14"/>
+      <c r="BQ19" s="17"/>
+      <c r="BR19" s="17"/>
+      <c r="BS19" s="17"/>
+    </row>
+    <row r="20" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15">
+        <v>12</v>
+      </c>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="39"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="23"/>
+      <c r="AV20" s="23"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="14"/>
+      <c r="BJ20" s="14"/>
+      <c r="BK20" s="14"/>
+      <c r="BL20" s="14"/>
+      <c r="BM20" s="14"/>
+      <c r="BN20" s="14"/>
+      <c r="BO20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ20" s="17"/>
+      <c r="BR20" s="17"/>
+      <c r="BS20" s="17"/>
+    </row>
+    <row r="21" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15">
+        <v>13</v>
+      </c>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="23"/>
+      <c r="AV21" s="23"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="25"/>
+      <c r="BH21" s="14"/>
+      <c r="BI21" s="14"/>
+      <c r="BJ21" s="14"/>
+      <c r="BK21" s="14"/>
+      <c r="BL21" s="14"/>
+      <c r="BM21" s="14"/>
+      <c r="BN21" s="14"/>
+      <c r="BQ21" s="17"/>
+      <c r="BR21" s="17"/>
+      <c r="BS21" s="17"/>
+    </row>
+    <row r="22" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="23"/>
+      <c r="AV22" s="23"/>
+      <c r="BB22" s="14"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="25"/>
+      <c r="BH22" s="14"/>
+      <c r="BI22" s="14"/>
+      <c r="BJ22" s="14"/>
+      <c r="BK22" s="14"/>
+      <c r="BL22" s="14"/>
+      <c r="BM22" s="14"/>
+      <c r="BN22" s="14"/>
+      <c r="BQ22" s="17"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="17"/>
+    </row>
+    <row r="23" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="23"/>
+      <c r="AV23" s="23"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
+      <c r="BG23" s="25"/>
+      <c r="BH23" s="14"/>
+      <c r="BI23" s="14"/>
+      <c r="BJ23" s="14"/>
+      <c r="BK23" s="14"/>
+      <c r="BL23" s="14"/>
+      <c r="BM23" s="14"/>
+      <c r="BN23" s="14"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="17"/>
+      <c r="BS23" s="17"/>
+    </row>
+    <row r="24" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+      <c r="BJ24" s="14"/>
+      <c r="BK24" s="14"/>
+      <c r="BL24" s="14"/>
+      <c r="BM24" s="14"/>
+      <c r="BN24" s="14"/>
+      <c r="BQ24" s="17"/>
+      <c r="BR24" s="17"/>
+      <c r="BS24" s="17"/>
+    </row>
+    <row r="25" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="14"/>
+      <c r="BF25" s="14"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="14"/>
+      <c r="BI25" s="14"/>
+      <c r="BJ25" s="14"/>
+      <c r="BK25" s="14"/>
+      <c r="BL25" s="14"/>
+      <c r="BM25" s="14"/>
+      <c r="BN25" s="14"/>
+      <c r="BQ25" s="17"/>
+      <c r="BR25" s="17"/>
+      <c r="BS25" s="17"/>
+    </row>
+    <row r="26" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="14"/>
+      <c r="BB26" s="14"/>
+      <c r="BC26" s="14"/>
+      <c r="BD26" s="14"/>
+      <c r="BE26" s="14"/>
+      <c r="BF26" s="14"/>
+      <c r="BG26" s="14"/>
+      <c r="BH26" s="14"/>
+      <c r="BI26" s="14"/>
+      <c r="BJ26" s="14"/>
+      <c r="BK26" s="14"/>
+      <c r="BL26" s="14"/>
+      <c r="BM26" s="14"/>
+      <c r="BN26" s="14"/>
+    </row>
+    <row r="27" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="14"/>
+      <c r="BA27" s="14"/>
+      <c r="BB27" s="14"/>
+      <c r="BC27" s="14"/>
+      <c r="BD27" s="14"/>
+      <c r="BE27" s="25"/>
+      <c r="BF27" s="14"/>
+      <c r="BG27" s="14"/>
+      <c r="BH27" s="14"/>
+      <c r="BI27" s="14"/>
+      <c r="BJ27" s="14"/>
+      <c r="BK27" s="14"/>
+      <c r="BL27" s="14"/>
+      <c r="BM27" s="14"/>
+      <c r="BN27" s="14"/>
+    </row>
+    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+      <c r="BA28" s="14"/>
+      <c r="BB28" s="14"/>
+      <c r="BC28" s="14"/>
+      <c r="BD28" s="14"/>
+      <c r="BE28" s="25"/>
+      <c r="BF28" s="14"/>
+      <c r="BG28" s="14"/>
+      <c r="BH28" s="14"/>
+      <c r="BI28" s="14"/>
+      <c r="BJ28" s="14"/>
+      <c r="BK28" s="14"/>
+      <c r="BL28" s="14"/>
+      <c r="BM28" s="14"/>
+      <c r="BN28" s="14"/>
+    </row>
+    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="14"/>
+      <c r="AR29" s="14"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="14"/>
+      <c r="AV29" s="14"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="14"/>
+      <c r="AY29" s="14"/>
+      <c r="AZ29" s="14"/>
+      <c r="BA29" s="14"/>
+      <c r="BB29" s="14"/>
+      <c r="BC29" s="14"/>
+      <c r="BD29" s="14"/>
+      <c r="BE29" s="25"/>
+      <c r="BF29" s="14"/>
+      <c r="BG29" s="14"/>
+      <c r="BH29" s="14"/>
+      <c r="BI29" s="14"/>
+      <c r="BJ29" s="14"/>
+      <c r="BK29" s="14"/>
+      <c r="BL29" s="14"/>
+      <c r="BM29" s="14"/>
+      <c r="BN29" s="14"/>
+    </row>
+    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="14"/>
+      <c r="BA30" s="14"/>
+      <c r="BB30" s="14"/>
+      <c r="BC30" s="14"/>
+      <c r="BD30" s="14"/>
+      <c r="BE30" s="14"/>
+      <c r="BF30" s="14"/>
+      <c r="BG30" s="14"/>
+      <c r="BH30" s="14"/>
+      <c r="BI30" s="14"/>
+      <c r="BJ30" s="14"/>
+      <c r="BK30" s="14"/>
+      <c r="BL30" s="14"/>
+      <c r="BM30" s="14"/>
+      <c r="BN30" s="14"/>
+    </row>
+    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="14"/>
+      <c r="AS31" s="14"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="14"/>
+      <c r="AZ31" s="14"/>
+      <c r="BA31" s="14"/>
+      <c r="BB31" s="14"/>
+      <c r="BC31" s="14"/>
+      <c r="BD31" s="14"/>
+      <c r="BE31" s="14"/>
+      <c r="BF31" s="14"/>
+      <c r="BG31" s="14"/>
+      <c r="BH31" s="14"/>
+      <c r="BI31" s="14"/>
+      <c r="BJ31" s="14"/>
+      <c r="BK31" s="14"/>
+      <c r="BL31" s="14"/>
+      <c r="BM31" s="14"/>
+      <c r="BN31" s="14"/>
+    </row>
+    <row r="35" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI36" s="54"/>
+      <c r="BA36" s="52"/>
+      <c r="BB36" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC36" s="54"/>
+    </row>
+    <row r="37" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="M37" s="51"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="U37" s="46">
+        <v>10</v>
+      </c>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="47">
+        <v>9</v>
+      </c>
+      <c r="AE37" s="55"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="59"/>
+      <c r="AO37" s="55"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
+      <c r="AR37" s="51"/>
+      <c r="AS37" s="51"/>
+      <c r="AT37" s="51"/>
+      <c r="AU37" s="59"/>
+      <c r="AY37" s="55"/>
+      <c r="AZ37" s="51"/>
+      <c r="BA37" s="51"/>
+      <c r="BB37" s="51"/>
+      <c r="BC37" s="51"/>
+      <c r="BD37" s="51"/>
+      <c r="BE37" s="59"/>
+    </row>
+    <row r="38" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L38" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="U38" s="22">
+        <v>11</v>
+      </c>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="48">
+        <v>8</v>
+      </c>
+      <c r="AE38" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="40"/>
+      <c r="AI38" s="40"/>
+      <c r="AJ38" s="40"/>
+      <c r="AK38" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO38" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="40"/>
+      <c r="AT38" s="40"/>
+      <c r="AU38" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY38" s="60">
+        <v>13</v>
+      </c>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="40"/>
+      <c r="BB38" s="40"/>
+      <c r="BC38" s="40"/>
+      <c r="BD38" s="40"/>
+      <c r="BE38" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L39" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="U39" s="22">
+        <v>12</v>
+      </c>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="48">
+        <v>7</v>
+      </c>
+      <c r="AE39" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="40"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="40"/>
+      <c r="AK39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO39" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP39" s="40"/>
+      <c r="AQ39" s="40"/>
+      <c r="AR39" s="40"/>
+      <c r="AS39" s="40"/>
+      <c r="AT39" s="40"/>
+      <c r="AU39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY39" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ39" s="40"/>
+      <c r="BA39" s="40"/>
+      <c r="BB39" s="40"/>
+      <c r="BC39" s="40"/>
+      <c r="BD39" s="40"/>
+      <c r="BE39" s="41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L40" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="41">
+        <v>13</v>
+      </c>
+      <c r="U40" s="22">
+        <v>13</v>
+      </c>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="48">
+        <v>6</v>
+      </c>
+      <c r="AE40" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF40" s="40"/>
+      <c r="AG40" s="40"/>
+      <c r="AH40" s="40"/>
+      <c r="AI40" s="40"/>
+      <c r="AJ40" s="40"/>
+      <c r="AK40" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO40" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP40" s="40"/>
+      <c r="AQ40" s="40"/>
+      <c r="AR40" s="40"/>
+      <c r="AS40" s="40"/>
+      <c r="AT40" s="40"/>
+      <c r="AU40" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY40" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ40" s="40"/>
+      <c r="BA40" s="40"/>
+      <c r="BB40" s="40"/>
+      <c r="BC40" s="40"/>
+      <c r="BD40" s="40"/>
+      <c r="BE40" s="41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L41" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="41">
+        <v>12</v>
+      </c>
+      <c r="U41" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="50">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF41" s="40"/>
+      <c r="AG41" s="40"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="40"/>
+      <c r="AJ41" s="40"/>
+      <c r="AK41" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO41" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP41" s="40"/>
+      <c r="AQ41" s="40"/>
+      <c r="AR41" s="61"/>
+      <c r="AS41" s="40"/>
+      <c r="AT41" s="40"/>
+      <c r="AU41" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY41" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ41" s="40"/>
+      <c r="BA41" s="40"/>
+      <c r="BB41" s="62"/>
+      <c r="BC41" s="40"/>
+      <c r="BD41" s="40"/>
+      <c r="BE41" s="41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L42" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="M42" s="40"/>
+      <c r="O42" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41">
+        <v>11</v>
+      </c>
+      <c r="U42" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="48">
+        <v>4</v>
+      </c>
+      <c r="AE42" s="60">
+        <v>2</v>
+      </c>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI42" s="40"/>
+      <c r="AJ42" s="40"/>
+      <c r="AK42" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO42" s="60">
+        <v>2</v>
+      </c>
+      <c r="AP42" s="40"/>
+      <c r="AR42" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS42" s="40"/>
+      <c r="AT42" s="40"/>
+      <c r="AU42" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY42" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ42" s="40"/>
+      <c r="BA42" s="40"/>
+      <c r="BB42" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC42" s="40"/>
+      <c r="BD42" s="40"/>
+      <c r="BE42" s="41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L43" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="41">
+        <v>10</v>
+      </c>
+      <c r="U43" s="22"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="48">
+        <v>3</v>
+      </c>
+      <c r="AE43" s="60">
+        <v>3</v>
+      </c>
+      <c r="AF43" s="40"/>
+      <c r="AG43" s="40"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="40"/>
+      <c r="AJ43" s="40"/>
+      <c r="AK43" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO43" s="60">
+        <v>3</v>
+      </c>
+      <c r="AP43" s="40"/>
+      <c r="AQ43" s="40"/>
+      <c r="AR43" s="61"/>
+      <c r="AS43" s="40"/>
+      <c r="AT43" s="40"/>
+      <c r="AU43" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY43" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ43" s="40"/>
+      <c r="BA43" s="40"/>
+      <c r="BB43" s="62"/>
+      <c r="BC43" s="40"/>
+      <c r="BD43" s="40"/>
+      <c r="BE43" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L44" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41">
+        <v>9</v>
+      </c>
+      <c r="U44" s="22"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="48">
+        <v>2</v>
+      </c>
+      <c r="AE44" s="60">
+        <v>4</v>
+      </c>
+      <c r="AF44" s="40"/>
+      <c r="AG44" s="40"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="40"/>
+      <c r="AJ44" s="40"/>
+      <c r="AK44" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO44" s="60">
+        <v>4</v>
+      </c>
+      <c r="AP44" s="40"/>
+      <c r="AQ44" s="40"/>
+      <c r="AR44" s="61"/>
+      <c r="AS44" s="40"/>
+      <c r="AT44" s="40"/>
+      <c r="AU44" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY44" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ44" s="40"/>
+      <c r="BA44" s="40"/>
+      <c r="BB44" s="62"/>
+      <c r="BC44" s="40"/>
+      <c r="BD44" s="40"/>
+      <c r="BE44" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L45" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="41">
+        <v>7</v>
+      </c>
+      <c r="U45" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE45" s="60">
+        <v>5</v>
+      </c>
+      <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="40"/>
+      <c r="AK45" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO45" s="60">
+        <v>5</v>
+      </c>
+      <c r="AP45" s="40"/>
+      <c r="AQ45" s="40"/>
+      <c r="AR45" s="40"/>
+      <c r="AS45" s="40"/>
+      <c r="AT45" s="40"/>
+      <c r="AU45" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY45" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ45" s="40"/>
+      <c r="BA45" s="40"/>
+      <c r="BB45" s="40"/>
+      <c r="BC45" s="40"/>
+      <c r="BD45" s="40"/>
+      <c r="BE45" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L46" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="41">
+        <v>5</v>
+      </c>
+      <c r="U46" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE46" s="60">
+        <v>6</v>
+      </c>
+      <c r="AF46" s="40"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="40"/>
+      <c r="AI46" s="40"/>
+      <c r="AJ46" s="40"/>
+      <c r="AK46" s="41">
+        <v>15</v>
+      </c>
+      <c r="AO46" s="60">
+        <v>6</v>
+      </c>
+      <c r="AP46" s="40"/>
+      <c r="AQ46" s="40"/>
+      <c r="AR46" s="40"/>
+      <c r="AS46" s="40"/>
+      <c r="AT46" s="40"/>
+      <c r="AU46" s="41">
+        <v>13</v>
+      </c>
+      <c r="AY46" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ46" s="40"/>
+      <c r="BA46" s="40"/>
+      <c r="BB46" s="40"/>
+      <c r="BC46" s="40"/>
+      <c r="BD46" s="40"/>
+      <c r="BE46" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L47" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="U47" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE47" s="60">
+        <v>7</v>
+      </c>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="40"/>
+      <c r="AI47" s="40"/>
+      <c r="AJ47" s="40"/>
+      <c r="AK47" s="41">
+        <v>14</v>
+      </c>
+      <c r="AO47" s="60">
+        <v>7</v>
+      </c>
+      <c r="AP47" s="40"/>
+      <c r="AQ47" s="40"/>
+      <c r="AR47" s="40"/>
+      <c r="AS47" s="40"/>
+      <c r="AT47" s="40"/>
+      <c r="AU47" s="41">
+        <v>12</v>
+      </c>
+      <c r="AY47" s="60"/>
+      <c r="AZ47" s="40"/>
+      <c r="BA47" s="40"/>
+      <c r="BB47" s="40"/>
+      <c r="BC47" s="40"/>
+      <c r="BD47" s="40"/>
+      <c r="BE47" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L48" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="U48" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE48" s="60">
+        <v>8</v>
+      </c>
+      <c r="AF48" s="40"/>
+      <c r="AG48" s="40"/>
+      <c r="AH48" s="40"/>
+      <c r="AI48" s="40"/>
+      <c r="AJ48" s="40"/>
+      <c r="AK48" s="41">
+        <v>16</v>
+      </c>
+      <c r="AO48" s="60">
+        <v>8</v>
+      </c>
+      <c r="AP48" s="40"/>
+      <c r="AQ48" s="40"/>
+      <c r="AR48" s="40"/>
+      <c r="AS48" s="40"/>
+      <c r="AT48" s="40"/>
+      <c r="AU48" s="41">
+        <v>11</v>
+      </c>
+      <c r="AY48" s="60"/>
+      <c r="AZ48" s="40"/>
+      <c r="BA48" s="40"/>
+      <c r="BB48" s="40"/>
+      <c r="BC48" s="40"/>
+      <c r="BD48" s="40"/>
+      <c r="BE48" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="U49" s="27"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="32"/>
+      <c r="AE49" s="63">
+        <v>9</v>
+      </c>
+      <c r="AF49" s="64"/>
+      <c r="AG49" s="64"/>
+      <c r="AH49" s="64"/>
+      <c r="AI49" s="64"/>
+      <c r="AJ49" s="64"/>
+      <c r="AK49" s="65">
+        <v>10</v>
+      </c>
+      <c r="AO49" s="63">
+        <v>9</v>
+      </c>
+      <c r="AP49" s="64"/>
+      <c r="AQ49" s="64"/>
+      <c r="AR49" s="64"/>
+      <c r="AS49" s="64"/>
+      <c r="AT49" s="64"/>
+      <c r="AU49" s="65">
+        <v>10</v>
+      </c>
+      <c r="AY49" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ49" s="40"/>
+      <c r="BA49" s="40"/>
+      <c r="BB49" s="40"/>
+      <c r="BC49" s="40"/>
+      <c r="BD49" s="40"/>
+      <c r="BE49" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="63">
+        <v>2</v>
+      </c>
+      <c r="M50" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="66">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="66">
+        <v>4</v>
+      </c>
+      <c r="R50" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE50" s="67"/>
+      <c r="AF50" s="62"/>
+      <c r="AG50" s="62"/>
+      <c r="AH50" s="62"/>
+      <c r="AI50" s="62"/>
+      <c r="AJ50" s="62"/>
+      <c r="AK50" s="68"/>
+      <c r="AY50" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ50" s="40"/>
+      <c r="BA50" s="40"/>
+      <c r="BB50" s="40"/>
+      <c r="BC50" s="40"/>
+      <c r="BD50" s="40"/>
+      <c r="BE50" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY51" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ51" s="40"/>
+      <c r="BA51" s="40"/>
+      <c r="BB51" s="40"/>
+      <c r="BC51" s="40"/>
+      <c r="BD51" s="40"/>
+      <c r="BE51" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY52" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ52" s="40"/>
+      <c r="BA52" s="40"/>
+      <c r="BB52" s="40"/>
+      <c r="BC52" s="40"/>
+      <c r="BD52" s="40"/>
+      <c r="BE52" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY53" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ53" s="40"/>
+      <c r="BA53" s="40"/>
+      <c r="BB53" s="40"/>
+      <c r="BC53" s="40"/>
+      <c r="BD53" s="40"/>
+      <c r="BE53" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY54" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ54" s="40"/>
+      <c r="BA54" s="40"/>
+      <c r="BB54" s="40"/>
+      <c r="BC54" s="40"/>
+      <c r="BD54" s="40"/>
+      <c r="BE54" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AY55" s="70"/>
+      <c r="AZ55" s="64"/>
+      <c r="BA55" s="64"/>
+      <c r="BB55" s="64"/>
+      <c r="BC55" s="64"/>
+      <c r="BD55" s="64"/>
+      <c r="BE55" s="65"/>
+    </row>
+    <row r="56" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L57" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M57" s="51">
+        <v>1</v>
+      </c>
+      <c r="N57" s="51">
+        <v>3</v>
+      </c>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="R57" s="59">
+        <v>2</v>
+      </c>
+      <c r="AE57" s="55">
+        <v>10</v>
+      </c>
+      <c r="AF57" s="51"/>
+      <c r="AG57" s="51"/>
+      <c r="AH57" s="51"/>
+      <c r="AI57" s="51"/>
+      <c r="AJ57" s="51"/>
+      <c r="AK57" s="59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L58" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE58" s="60">
+        <v>16</v>
+      </c>
+      <c r="AF58" s="40"/>
+      <c r="AG58" s="40"/>
+      <c r="AH58" s="40"/>
+      <c r="AI58" s="40"/>
+      <c r="AJ58" s="40"/>
+      <c r="AK58" s="41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L59" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE59" s="60">
+        <v>14</v>
+      </c>
+      <c r="AF59" s="40"/>
+      <c r="AG59" s="40"/>
+      <c r="AH59" s="40"/>
+      <c r="AI59" s="40"/>
+      <c r="AJ59" s="40"/>
+      <c r="AK59" s="41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L60" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE60" s="60">
+        <v>15</v>
+      </c>
+      <c r="AF60" s="40"/>
+      <c r="AG60" s="40"/>
+      <c r="AH60" s="40"/>
+      <c r="AI60" s="40"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L61" s="60">
+        <v>5</v>
+      </c>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE61" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF61" s="40"/>
+      <c r="AG61" s="40"/>
+      <c r="AH61" s="61"/>
+      <c r="AI61" s="40"/>
+      <c r="AJ61" s="40"/>
+      <c r="AK61" s="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L62" s="60">
+        <v>7</v>
+      </c>
+      <c r="M62" s="40"/>
+      <c r="O62" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE62" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF62" s="40"/>
+      <c r="AG62" s="23"/>
+      <c r="AH62" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI62" s="40"/>
+      <c r="AJ62" s="40"/>
+      <c r="AK62" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L63" s="60">
+        <v>9</v>
+      </c>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE63" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF63" s="40"/>
+      <c r="AG63" s="40"/>
+      <c r="AH63" s="61"/>
+      <c r="AI63" s="40"/>
+      <c r="AJ63" s="40"/>
+      <c r="AK63" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L64" s="60">
+        <v>10</v>
+      </c>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE64" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF64" s="40"/>
+      <c r="AG64" s="40"/>
+      <c r="AH64" s="61"/>
+      <c r="AI64" s="40"/>
+      <c r="AJ64" s="40"/>
+      <c r="AK64" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L65" s="60">
+        <v>11</v>
+      </c>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE65" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF65" s="40"/>
+      <c r="AG65" s="40"/>
+      <c r="AH65" s="40"/>
+      <c r="AI65" s="40"/>
+      <c r="AJ65" s="40"/>
+      <c r="AK65" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="60">
+        <v>12</v>
+      </c>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE66" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF66" s="40"/>
+      <c r="AG66" s="40"/>
+      <c r="AH66" s="40"/>
+      <c r="AI66" s="40"/>
+      <c r="AJ66" s="40"/>
+      <c r="AK66" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L67" s="60">
+        <v>13</v>
+      </c>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE67" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF67" s="40"/>
+      <c r="AG67" s="40"/>
+      <c r="AH67" s="40"/>
+      <c r="AI67" s="40"/>
+      <c r="AJ67" s="40"/>
+      <c r="AK67" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA67" s="18"/>
+      <c r="BB67" s="19"/>
+      <c r="BC67" s="19"/>
+      <c r="BD67" s="19"/>
+      <c r="BE67" s="19"/>
+      <c r="BF67" s="19"/>
+      <c r="BG67" s="19"/>
+      <c r="BH67" s="21"/>
+    </row>
+    <row r="68" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L68" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE68" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF68" s="40"/>
+      <c r="AG68" s="40"/>
+      <c r="AH68" s="40"/>
+      <c r="AI68" s="40"/>
+      <c r="AJ68" s="40"/>
+      <c r="AK68" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA68" s="22"/>
+      <c r="BB68" s="23"/>
+      <c r="BC68" s="23"/>
+      <c r="BD68" s="23"/>
+      <c r="BE68" s="23"/>
+      <c r="BF68" s="23"/>
+      <c r="BG68" s="40"/>
+      <c r="BH68" s="41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE69" s="63"/>
+      <c r="AF69" s="64"/>
+      <c r="AG69" s="64"/>
+      <c r="AH69" s="64"/>
+      <c r="AI69" s="64"/>
+      <c r="AJ69" s="64"/>
+      <c r="AK69" s="65"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="23"/>
+      <c r="BC69" s="23"/>
+      <c r="BD69" s="23"/>
+      <c r="BE69" s="23"/>
+      <c r="BF69" s="23"/>
+      <c r="BG69" s="40"/>
+      <c r="BH69" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="M70" s="66"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="P70" s="58"/>
+      <c r="Q70" s="66"/>
+      <c r="R70" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG70" s="56"/>
+      <c r="AH70" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI70" s="58"/>
+      <c r="BA70" s="22"/>
+      <c r="BB70" s="23"/>
+      <c r="BC70" s="23"/>
+      <c r="BD70" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE70" s="23"/>
+      <c r="BF70" s="23"/>
+      <c r="BG70" s="40"/>
+      <c r="BH70" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="BA71" s="22"/>
+      <c r="BB71" s="23"/>
+      <c r="BC71" s="23"/>
+      <c r="BD71" s="23"/>
+      <c r="BE71" s="23"/>
+      <c r="BF71" s="23"/>
+      <c r="BG71" s="40"/>
+      <c r="BH71" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BA72" s="22"/>
+      <c r="BB72" s="23"/>
+      <c r="BC72" s="23"/>
+      <c r="BD72" s="23"/>
+      <c r="BE72" s="23"/>
+      <c r="BF72" s="23"/>
+      <c r="BG72" s="40"/>
+      <c r="BH72" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="H73" s="84">
+        <v>2</v>
+      </c>
+      <c r="I73" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="J73" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="L73" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="M73" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="N73" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="O73" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q73" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="R73" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="S73" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="T73" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="U73" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA73" s="22"/>
+      <c r="BB73" s="23"/>
+      <c r="BC73" s="23"/>
+      <c r="BD73" s="23"/>
+      <c r="BE73" s="23"/>
+      <c r="BF73" s="23"/>
+      <c r="BG73" s="40"/>
+      <c r="BH73" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="62"/>
+      <c r="O74" s="62"/>
+      <c r="P74" s="62"/>
+      <c r="Q74" s="62"/>
+      <c r="R74" s="62"/>
+      <c r="S74" s="62"/>
+      <c r="T74" s="62"/>
+      <c r="U74" s="88"/>
+      <c r="BA74" s="22"/>
+      <c r="BB74" s="23"/>
+      <c r="BC74" s="23"/>
+      <c r="BD74" s="23"/>
+      <c r="BE74" s="23"/>
+      <c r="BF74" s="23"/>
+      <c r="BG74" s="40"/>
+      <c r="BH74" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="87"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="62"/>
+      <c r="S75" s="62"/>
+      <c r="T75" s="62"/>
+      <c r="U75" s="89"/>
+      <c r="BA75" s="27"/>
+      <c r="BB75" s="28"/>
+      <c r="BC75" s="28"/>
+      <c r="BD75" s="28"/>
+      <c r="BE75" s="28"/>
+      <c r="BF75" s="28"/>
+      <c r="BG75" s="28"/>
+      <c r="BH75" s="42"/>
+    </row>
+    <row r="76" spans="8:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="87"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="N76" s="62"/>
+      <c r="O76" s="62"/>
+      <c r="P76" s="62"/>
+      <c r="Q76" s="62"/>
+      <c r="R76" s="62"/>
+      <c r="S76" s="62"/>
+      <c r="T76" s="62"/>
+      <c r="U76" s="90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="87">
+        <v>3</v>
+      </c>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="62"/>
+      <c r="O77" s="62"/>
+      <c r="P77" s="62"/>
+      <c r="Q77" s="62"/>
+      <c r="R77" s="62"/>
+      <c r="S77" s="62"/>
+      <c r="T77" s="62"/>
+      <c r="U77" s="91"/>
+    </row>
+    <row r="78" spans="8:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="87">
+        <v>1</v>
+      </c>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="62"/>
+      <c r="O78" s="62"/>
+      <c r="P78" s="62"/>
+      <c r="Q78" s="62"/>
+      <c r="R78" s="62"/>
+      <c r="S78" s="62"/>
+      <c r="T78" s="62"/>
+      <c r="U78" s="88"/>
+      <c r="AY78" s="18"/>
+      <c r="AZ78" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA78" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB78" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC78" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD78" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE78" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF78" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG78" s="21"/>
+    </row>
+    <row r="79" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J79" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="K79" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="L79" s="66">
+        <v>5</v>
+      </c>
+      <c r="M79" s="66">
+        <v>7</v>
+      </c>
+      <c r="N79" s="66">
+        <v>9</v>
+      </c>
+      <c r="O79" s="66">
+        <v>10</v>
+      </c>
+      <c r="P79" s="66">
+        <v>11</v>
+      </c>
+      <c r="Q79" s="66">
+        <v>12</v>
+      </c>
+      <c r="R79" s="66">
+        <v>13</v>
+      </c>
+      <c r="S79" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="T79" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="U79" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC79" s="14"/>
+      <c r="AD79" s="14"/>
+      <c r="AE79" s="14"/>
+      <c r="AF79" s="14"/>
+      <c r="AG79" s="14"/>
+      <c r="AH79" s="14"/>
+      <c r="AI79" s="14"/>
+      <c r="AJ79" s="14"/>
+      <c r="AK79" s="14"/>
+      <c r="AL79" s="14"/>
+      <c r="AM79" s="14"/>
+      <c r="AN79" s="14"/>
+      <c r="AO79" s="14"/>
+      <c r="AP79" s="14"/>
+      <c r="AQ79" s="14"/>
+      <c r="AR79" s="14"/>
+      <c r="AY79" s="22"/>
+      <c r="AZ79" s="23"/>
+      <c r="BA79" s="23"/>
+      <c r="BB79" s="23"/>
+      <c r="BC79" s="23"/>
+      <c r="BD79" s="23"/>
+      <c r="BE79" s="23"/>
+      <c r="BF79" s="23"/>
+      <c r="BG79" s="26"/>
+    </row>
+    <row r="80" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="AC80" s="14"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="97"/>
+      <c r="AF80" s="97"/>
+      <c r="AG80" s="97"/>
+      <c r="AH80" s="97"/>
+      <c r="AI80" s="97"/>
+      <c r="AJ80" s="97"/>
+      <c r="AK80" s="97"/>
+      <c r="AL80" s="97"/>
+      <c r="AM80" s="97"/>
+      <c r="AN80" s="97"/>
+      <c r="AO80" s="97"/>
+      <c r="AP80" s="97"/>
+      <c r="AQ80" s="97"/>
+      <c r="AR80" s="97"/>
+      <c r="AY80" s="22"/>
+      <c r="AZ80" s="23"/>
+      <c r="BA80" s="23"/>
+      <c r="BB80" s="23"/>
+      <c r="BC80" s="23"/>
+      <c r="BD80" s="23"/>
+      <c r="BE80" s="23"/>
+      <c r="BF80" s="23"/>
+      <c r="BG80" s="26"/>
+    </row>
+    <row r="81" spans="8:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AC81" s="14"/>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="49"/>
+      <c r="AF81" s="49"/>
+      <c r="AG81" s="49"/>
+      <c r="AH81" s="49"/>
+      <c r="AI81" s="49"/>
+      <c r="AJ81" s="49"/>
+      <c r="AK81" s="49"/>
+      <c r="AL81" s="49"/>
+      <c r="AM81" s="49"/>
+      <c r="AN81" s="49"/>
+      <c r="AO81" s="49"/>
+      <c r="AP81" s="49"/>
+      <c r="AQ81" s="49"/>
+      <c r="AR81" s="94"/>
+      <c r="AY81" s="22"/>
+      <c r="AZ81" s="23"/>
+      <c r="BA81" s="23"/>
+      <c r="BB81" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC81" s="23"/>
+      <c r="BD81" s="23"/>
+      <c r="BE81" s="23"/>
+      <c r="BF81" s="23"/>
+      <c r="BG81" s="26"/>
+    </row>
+    <row r="82" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="H82" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I82" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="J82" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="K82" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="L82" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="M82" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="N82" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="O82" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="P82" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q82" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="R82" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="S82" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="T82" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="U82" s="86">
+        <v>2</v>
+      </c>
+      <c r="AC82" s="14"/>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="49"/>
+      <c r="AG82" s="49"/>
+      <c r="AH82" s="49"/>
+      <c r="AI82" s="49"/>
+      <c r="AJ82" s="14"/>
+      <c r="AK82" s="49"/>
+      <c r="AL82" s="49"/>
+      <c r="AM82" s="49"/>
+      <c r="AN82" s="49"/>
+      <c r="AO82" s="49"/>
+      <c r="AP82" s="49"/>
+      <c r="AQ82" s="49"/>
+      <c r="AR82" s="94"/>
+      <c r="AY82" s="22"/>
+      <c r="AZ82" s="23"/>
+      <c r="BA82" s="23"/>
+      <c r="BB82" s="23"/>
+      <c r="BC82" s="23"/>
+      <c r="BD82" s="23"/>
+      <c r="BE82" s="23"/>
+      <c r="BF82" s="23"/>
+      <c r="BG82" s="26"/>
+    </row>
+    <row r="83" spans="8:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="87"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="62"/>
+      <c r="S83" s="62"/>
+      <c r="T83" s="62"/>
+      <c r="U83" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="23"/>
+      <c r="Z83" s="23"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="23"/>
+      <c r="AC83" s="14"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="30"/>
+      <c r="AF83" s="49"/>
+      <c r="AG83" s="49"/>
+      <c r="AH83" s="49"/>
+      <c r="AI83" s="49"/>
+      <c r="AJ83" s="98"/>
+      <c r="AK83" s="49"/>
+      <c r="AL83" s="49"/>
+      <c r="AM83" s="49"/>
+      <c r="AN83" s="49"/>
+      <c r="AO83" s="49"/>
+      <c r="AP83" s="49"/>
+      <c r="AQ83" s="49"/>
+      <c r="AR83" s="94"/>
+      <c r="AY83" s="22"/>
+      <c r="AZ83" s="23"/>
+      <c r="BA83" s="23"/>
+      <c r="BB83" s="23"/>
+      <c r="BC83" s="23"/>
+      <c r="BD83" s="23"/>
+      <c r="BE83" s="23"/>
+      <c r="BF83" s="23"/>
+      <c r="BG83" s="26"/>
+    </row>
+    <row r="84" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="H84" s="89"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
+      <c r="N84" s="62"/>
+      <c r="O84" s="62"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="62"/>
+      <c r="S84" s="62"/>
+      <c r="T84" s="62"/>
+      <c r="U84" s="95"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="67"/>
+      <c r="X84" s="67"/>
+      <c r="Y84" s="67"/>
+      <c r="Z84" s="67"/>
+      <c r="AA84" s="67"/>
+      <c r="AB84" s="67"/>
+      <c r="AC84" s="97"/>
+      <c r="AD84" s="97"/>
+      <c r="AE84" s="14"/>
+      <c r="AF84" s="49"/>
+      <c r="AG84" s="49"/>
+      <c r="AH84" s="49"/>
+      <c r="AI84" s="49"/>
+      <c r="AJ84" s="49"/>
+      <c r="AK84" s="49"/>
+      <c r="AL84" s="49"/>
+      <c r="AM84" s="49"/>
+      <c r="AN84" s="49"/>
+      <c r="AO84" s="49"/>
+      <c r="AP84" s="49"/>
+      <c r="AQ84" s="49"/>
+      <c r="AR84" s="94"/>
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="23"/>
+      <c r="BA84" s="23"/>
+      <c r="BB84" s="23"/>
+      <c r="BC84" s="23"/>
+      <c r="BD84" s="23"/>
+      <c r="BE84" s="23"/>
+      <c r="BF84" s="23"/>
+      <c r="BG84" s="26"/>
+    </row>
+    <row r="85" spans="8:59" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="I85" s="62"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="62"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="N85" s="62"/>
+      <c r="O85" s="62"/>
+      <c r="P85" s="62"/>
+      <c r="Q85" s="62"/>
+      <c r="R85" s="62"/>
+      <c r="S85" s="62"/>
+      <c r="T85" s="62"/>
+      <c r="U85" s="96"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="23"/>
+      <c r="Y85" s="23"/>
+      <c r="Z85" s="23"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="14"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="49"/>
+      <c r="AF85" s="49"/>
+      <c r="AG85" s="49"/>
+      <c r="AH85" s="49"/>
+      <c r="AI85" s="49"/>
+      <c r="AJ85" s="49"/>
+      <c r="AK85" s="49"/>
+      <c r="AL85" s="49"/>
+      <c r="AM85" s="49"/>
+      <c r="AN85" s="49"/>
+      <c r="AO85" s="49"/>
+      <c r="AP85" s="49"/>
+      <c r="AQ85" s="49"/>
+      <c r="AR85" s="94"/>
+      <c r="AY85" s="27"/>
+      <c r="AZ85" s="28"/>
+      <c r="BA85" s="28"/>
+      <c r="BB85" s="28"/>
+      <c r="BC85" s="28"/>
+      <c r="BD85" s="28"/>
+      <c r="BE85" s="28"/>
+      <c r="BF85" s="28"/>
+      <c r="BG85" s="32"/>
+    </row>
+    <row r="86" spans="8:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="91"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="62"/>
+      <c r="N86" s="62"/>
+      <c r="O86" s="62"/>
+      <c r="P86" s="62"/>
+      <c r="Q86" s="62"/>
+      <c r="R86" s="62"/>
+      <c r="S86" s="62"/>
+      <c r="T86" s="62"/>
+      <c r="U86" s="95">
+        <v>3</v>
+      </c>
+      <c r="V86" s="23"/>
+      <c r="W86" s="23"/>
+      <c r="X86" s="23"/>
+      <c r="Y86" s="23"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="14"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="72"/>
+      <c r="AF86" s="72"/>
+      <c r="AG86" s="72"/>
+      <c r="AH86" s="72"/>
+      <c r="AI86" s="72"/>
+      <c r="AJ86" s="72"/>
+      <c r="AK86" s="72"/>
+      <c r="AL86" s="72"/>
+      <c r="AM86" s="72"/>
+      <c r="AN86" s="72"/>
+      <c r="AO86" s="72"/>
+      <c r="AP86" s="72"/>
+      <c r="AQ86" s="72"/>
+      <c r="AR86" s="72"/>
+    </row>
+    <row r="87" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="H87" s="87"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="62"/>
+      <c r="O87" s="62"/>
+      <c r="P87" s="62"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="62"/>
+      <c r="S87" s="62"/>
+      <c r="T87" s="62"/>
+      <c r="U87" s="88">
+        <v>4</v>
+      </c>
+      <c r="V87" s="23"/>
+      <c r="W87" s="23"/>
+      <c r="X87" s="23"/>
+      <c r="Y87" s="23"/>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="14"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="14"/>
+      <c r="AF87" s="14"/>
+      <c r="AG87" s="14"/>
+      <c r="AH87" s="14"/>
+      <c r="AI87" s="14"/>
+      <c r="AJ87" s="14"/>
+      <c r="AK87" s="14"/>
+      <c r="AL87" s="14"/>
+      <c r="AM87" s="14"/>
+      <c r="AN87" s="14"/>
+      <c r="AO87" s="14"/>
+      <c r="AP87" s="14"/>
+      <c r="AQ87" s="14"/>
+      <c r="AR87" s="14"/>
+    </row>
+    <row r="88" spans="8:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="I88" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J88" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="K88" s="66">
+        <v>13</v>
+      </c>
+      <c r="L88" s="66">
+        <v>12</v>
+      </c>
+      <c r="M88" s="66">
+        <v>11</v>
+      </c>
+      <c r="N88" s="66">
+        <v>10</v>
+      </c>
+      <c r="O88" s="66">
+        <v>9</v>
+      </c>
+      <c r="P88" s="66">
+        <v>7</v>
+      </c>
+      <c r="Q88" s="66">
+        <v>5</v>
+      </c>
+      <c r="R88" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="S88" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="T88" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="U88" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="V88" s="23"/>
+      <c r="W88" s="23"/>
+      <c r="X88" s="23"/>
+      <c r="Y88" s="23"/>
+      <c r="Z88" s="23"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="23"/>
+      <c r="AD88" s="23"/>
+      <c r="AE88" s="23"/>
+      <c r="AF88" s="23"/>
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="23"/>
+      <c r="AI88" s="23"/>
+      <c r="AJ88" s="23"/>
+      <c r="AK88" s="23"/>
+      <c r="AL88" s="23"/>
+    </row>
+    <row r="89" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="V89" s="23"/>
+      <c r="W89" s="68"/>
+      <c r="X89" s="68"/>
+      <c r="Y89" s="68"/>
+      <c r="Z89" s="68"/>
+      <c r="AA89" s="68"/>
+      <c r="AB89" s="68"/>
+      <c r="AC89" s="68"/>
+      <c r="AD89" s="68"/>
+      <c r="AE89" s="68"/>
+      <c r="AF89" s="68"/>
+      <c r="AG89" s="68"/>
+      <c r="AH89" s="68"/>
+      <c r="AI89" s="68"/>
+      <c r="AJ89" s="68"/>
+      <c r="AK89" s="23"/>
+      <c r="AL89" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:H8"/>
   <sheetViews>
@@ -872,11 +5622,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -1212,13 +5962,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:BA1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="53" width="2.7109375" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dev_doc/konnekting_codelock.xlsx
+++ b/dev_doc/konnekting_codelock.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14DD4F2-A349-4D6B-AE8D-9B7E1B633B07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56753867-6852-4371-A2B9-D451599470E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Funktionen" sheetId="2" r:id="rId3"/>
     <sheet name="PCB Layout" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -420,7 +420,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +445,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -749,7 +755,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,6 +983,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1323,7 +1335,7 @@
   <dimension ref="B1:BS89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BB22" sqref="BB22"/>
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1972,7 +1984,7 @@
       <c r="BR8" s="17"/>
       <c r="BS8" s="17"/>
     </row>
-    <row r="9" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:71" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1980,20 +1992,48 @@
       <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
+      <c r="G9" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="85">
+        <v>13</v>
+      </c>
+      <c r="K9" s="85">
+        <v>12</v>
+      </c>
+      <c r="L9" s="85">
+        <v>11</v>
+      </c>
+      <c r="M9" s="85">
+        <v>10</v>
+      </c>
+      <c r="N9" s="85">
+        <v>9</v>
+      </c>
+      <c r="O9" s="85">
+        <v>7</v>
+      </c>
+      <c r="P9" s="85">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" s="86" t="s">
+        <v>74</v>
+      </c>
       <c r="U9" s="34"/>
       <c r="V9" s="18"/>
       <c r="W9" s="19"/>
@@ -2044,7 +2084,7 @@
       <c r="BR9" s="17"/>
       <c r="BS9" s="17"/>
     </row>
-    <row r="10" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -2052,48 +2092,21 @@
       <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="S10" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="T10" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="U10" s="86">
-        <v>2</v>
+      <c r="G10" s="87"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="88">
+        <v>4</v>
       </c>
       <c r="V10" s="22"/>
       <c r="W10" s="23"/>
@@ -2149,7 +2162,7 @@
       <c r="BR10" s="17"/>
       <c r="BS10" s="17"/>
     </row>
-    <row r="11" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:71" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -2157,8 +2170,8 @@
       <c r="F11" s="15">
         <v>3</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="87"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
@@ -2170,9 +2183,8 @@
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
       <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="88" t="s">
-        <v>100</v>
+      <c r="T11" s="95">
+        <v>3</v>
       </c>
       <c r="V11" s="22"/>
       <c r="W11" s="23"/>
@@ -2218,7 +2230,7 @@
       <c r="BR11" s="17"/>
       <c r="BS11" s="17"/>
     </row>
-    <row r="12" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:71" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -2226,12 +2238,16 @@
       <c r="F12" s="15">
         <v>4</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="89"/>
+      <c r="G12" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="62"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61" t="s">
+        <v>92</v>
+      </c>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
@@ -2239,8 +2255,7 @@
       <c r="Q12" s="62"/>
       <c r="R12" s="62"/>
       <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="95"/>
+      <c r="T12" s="96"/>
       <c r="V12" s="22"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
@@ -2290,7 +2305,7 @@
       <c r="BR12" s="17"/>
       <c r="BS12" s="17"/>
     </row>
-    <row r="13" spans="2:71" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -2298,25 +2313,20 @@
       <c r="F13" s="15">
         <v>5</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="90" t="s">
-        <v>86</v>
-      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61" t="s">
-        <v>92</v>
-      </c>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="62"/>
       <c r="R13" s="62"/>
       <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="96"/>
+      <c r="T13" s="95"/>
       <c r="V13" s="22"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
@@ -2364,7 +2374,7 @@
       <c r="BR13" s="17"/>
       <c r="BS13" s="17"/>
     </row>
-    <row r="14" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:71" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -2372,8 +2382,8 @@
       <c r="F14" s="15">
         <v>6</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="91"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
@@ -2385,9 +2395,8 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
       <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="95">
-        <v>3</v>
+      <c r="T14" s="88" t="s">
+        <v>100</v>
       </c>
       <c r="V14" s="22"/>
       <c r="W14" s="23"/>
@@ -2435,7 +2444,7 @@
       <c r="BR14" s="17"/>
       <c r="BS14" s="17"/>
     </row>
-    <row r="15" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -2443,22 +2452,47 @@
       <c r="F15" s="15">
         <v>7</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="88">
-        <v>4</v>
+      <c r="G15" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="T15" s="93">
+        <v>2</v>
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="23"/>
@@ -2514,7 +2548,7 @@
       <c r="BR15" s="17"/>
       <c r="BS15" s="17"/>
     </row>
-    <row r="16" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:71" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -2523,48 +2557,6 @@
         <v>8</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="66">
-        <v>13</v>
-      </c>
-      <c r="L16" s="66">
-        <v>12</v>
-      </c>
-      <c r="M16" s="66">
-        <v>11</v>
-      </c>
-      <c r="N16" s="66">
-        <v>10</v>
-      </c>
-      <c r="O16" s="66">
-        <v>9</v>
-      </c>
-      <c r="P16" s="66">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="66">
-        <v>5</v>
-      </c>
-      <c r="R16" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="S16" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="T16" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="U16" s="93" t="s">
-        <v>74</v>
-      </c>
       <c r="V16" s="22"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
@@ -2695,15 +2687,19 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
+      <c r="K18" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="43"/>
       <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+      <c r="Q18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="34"/>
+      <c r="S18" s="43"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
@@ -2753,7 +2749,7 @@
       <c r="BR18" s="17"/>
       <c r="BS18" s="17"/>
     </row>
-    <row r="19" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2764,21 +2760,17 @@
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="14"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="45"/>
       <c r="P19" s="14"/>
-      <c r="Q19" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="R19" s="34"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="14"/>
+      <c r="Q19" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="39"/>
+      <c r="S19" s="45"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
@@ -2824,7 +2816,7 @@
       <c r="BR19" s="17"/>
       <c r="BS19" s="17"/>
     </row>
-    <row r="20" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:71" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -2835,19 +2827,8 @@
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="45"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
-      <c r="Q20" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="R20" s="39"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="14"/>
       <c r="U20" s="14"/>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
@@ -5117,46 +5098,46 @@
     </row>
     <row r="82" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H82" s="84" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I82" s="85" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J82" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="K82" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="L82" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="M82" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="N82" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="O82" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="P82" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q82" s="85" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="K82" s="85">
+        <v>13</v>
+      </c>
+      <c r="L82" s="85">
+        <v>12</v>
+      </c>
+      <c r="M82" s="85">
+        <v>11</v>
+      </c>
+      <c r="N82" s="85">
+        <v>10</v>
+      </c>
+      <c r="O82" s="85">
+        <v>9</v>
+      </c>
+      <c r="P82" s="85">
+        <v>7</v>
+      </c>
+      <c r="Q82" s="85">
+        <v>5</v>
       </c>
       <c r="R82" s="85" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="S82" s="85" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="T82" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="U82" s="86">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="U82" s="86" t="s">
+        <v>74</v>
       </c>
       <c r="AC82" s="14"/>
       <c r="AD82" s="14"/>
@@ -5198,8 +5179,8 @@
       <c r="R83" s="62"/>
       <c r="S83" s="62"/>
       <c r="T83" s="62"/>
-      <c r="U83" s="88" t="s">
-        <v>100</v>
+      <c r="U83" s="88">
+        <v>4</v>
       </c>
       <c r="V83" s="23"/>
       <c r="W83" s="23"/>
@@ -5248,7 +5229,9 @@
       <c r="R84" s="62"/>
       <c r="S84" s="62"/>
       <c r="T84" s="62"/>
-      <c r="U84" s="95"/>
+      <c r="U84" s="95">
+        <v>3</v>
+      </c>
       <c r="V84" s="23"/>
       <c r="W84" s="67"/>
       <c r="X84" s="67"/>
@@ -5348,9 +5331,7 @@
       <c r="R86" s="62"/>
       <c r="S86" s="62"/>
       <c r="T86" s="62"/>
-      <c r="U86" s="95">
-        <v>3</v>
-      </c>
+      <c r="U86" s="95"/>
       <c r="V86" s="23"/>
       <c r="W86" s="23"/>
       <c r="X86" s="23"/>
@@ -5389,8 +5370,8 @@
       <c r="R87" s="62"/>
       <c r="S87" s="62"/>
       <c r="T87" s="62"/>
-      <c r="U87" s="88">
-        <v>4</v>
+      <c r="U87" s="88" t="s">
+        <v>100</v>
       </c>
       <c r="V87" s="23"/>
       <c r="W87" s="23"/>
@@ -5418,46 +5399,46 @@
     </row>
     <row r="88" spans="8:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H88" s="92" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I88" s="66" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J88" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="K88" s="66">
-        <v>13</v>
-      </c>
-      <c r="L88" s="66">
-        <v>12</v>
-      </c>
-      <c r="M88" s="66">
-        <v>11</v>
-      </c>
-      <c r="N88" s="66">
-        <v>10</v>
-      </c>
-      <c r="O88" s="66">
-        <v>9</v>
-      </c>
-      <c r="P88" s="66">
-        <v>7</v>
-      </c>
-      <c r="Q88" s="66">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="K88" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="L88" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="M88" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="N88" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="O88" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="P88" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q88" s="66" t="s">
+        <v>66</v>
       </c>
       <c r="R88" s="66" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="S88" s="66" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="T88" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="U88" s="93" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="U88" s="93">
+        <v>2</v>
       </c>
       <c r="V88" s="23"/>
       <c r="W88" s="23"/>

--- a/dev_doc/konnekting_codelock.xlsx
+++ b/dev_doc/konnekting_codelock.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56753867-6852-4371-A2B9-D451599470E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4ch  - 2ch" sheetId="4" r:id="rId1"/>
@@ -13,7 +12,10 @@
     <sheet name="Funktionen" sheetId="2" r:id="rId3"/>
     <sheet name="PCB Layout" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4ch  - 2ch'!$F$8:$AI$22</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="158">
   <si>
     <t>*</t>
   </si>
@@ -348,9 +350,6 @@
     <t>AKL</t>
   </si>
   <si>
-    <t>FB</t>
-  </si>
-  <si>
     <t>1591MBK</t>
   </si>
   <si>
@@ -382,12 +381,132 @@
   </si>
   <si>
     <t>niedrige Buchsenleiste</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Sv</t>
+  </si>
+  <si>
+    <t>AKL KNX</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Sicht von unten</t>
+  </si>
+  <si>
+    <t>Stecker Keypad/Piezo</t>
+  </si>
+  <si>
+    <t>schwarz</t>
+  </si>
+  <si>
+    <t>weiß</t>
+  </si>
+  <si>
+    <t>grau</t>
+  </si>
+  <si>
+    <t>violett</t>
+  </si>
+  <si>
+    <t>blau</t>
+  </si>
+  <si>
+    <t>grün</t>
+  </si>
+  <si>
+    <t>gelb</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>braun</t>
+  </si>
+  <si>
+    <t>Aderfarbe Anschlusskabel</t>
+  </si>
+  <si>
+    <t>Pin Stecker</t>
+  </si>
+  <si>
+    <t>Pin Keypad</t>
+  </si>
+  <si>
+    <t>Funktion</t>
+  </si>
+  <si>
+    <t>Piezo</t>
+  </si>
+  <si>
+    <t>keine</t>
+  </si>
+  <si>
+    <t>Spalte 3 "369#"</t>
+  </si>
+  <si>
+    <t>Spalte 2 "2580"</t>
+  </si>
+  <si>
+    <t>Spalte 1 "147*"</t>
+  </si>
+  <si>
+    <t>Reihe 4 "*0#"</t>
+  </si>
+  <si>
+    <t>Reihe 3 "789"</t>
+  </si>
+  <si>
+    <t>Reihe 2 "456"</t>
+  </si>
+  <si>
+    <t>Reihe 1 "123"</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -420,7 +539,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +567,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +892,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -798,9 +935,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
@@ -823,15 +957,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -839,7 +969,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
@@ -991,11 +1120,91 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{5F6B0D40-7F0D-49CD-8849-5675455C9FD8}"/>
-    <cellStyle name="Währung 2" xfId="2" xr:uid="{A8C636B3-3D85-4953-8FE2-A7439D3911E4}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Währung 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1011,9 +1220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1051,9 +1260,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1086,26 +1295,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1138,26 +1330,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1330,12 +1505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1452ABA-8CFD-42EA-A4FF-ADABF08E8A69}">
-  <sheetPr codeName="Tabelle12"/>
-  <dimension ref="B1:BS89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle12">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:BS97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1704,7 +1881,7 @@
       <c r="BM5" s="16"/>
       <c r="BN5" s="16"/>
       <c r="BO5" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BQ5" s="17"/>
       <c r="BR5" s="17"/>
@@ -1847,7 +2024,7 @@
       <c r="BM7" s="14"/>
       <c r="BN7" s="14"/>
       <c r="BO7" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BQ7" s="17"/>
       <c r="BR7" s="17"/>
@@ -1978,13 +2155,13 @@
       <c r="BM8" s="14"/>
       <c r="BN8" s="14"/>
       <c r="BO8" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BQ8" s="17"/>
       <c r="BR8" s="17"/>
       <c r="BS8" s="17"/>
     </row>
-    <row r="9" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1992,74 +2169,74 @@
       <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="121">
         <v>13</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="101">
         <v>12</v>
       </c>
-      <c r="L9" s="85">
+      <c r="L9" s="101">
         <v>11</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="101">
         <v>10</v>
       </c>
-      <c r="N9" s="85">
+      <c r="N9" s="101">
         <v>9</v>
       </c>
-      <c r="O9" s="85">
+      <c r="O9" s="121">
         <v>7</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="81">
         <v>5</v>
       </c>
-      <c r="Q9" s="85" t="s">
+      <c r="Q9" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="R9" s="85" t="s">
+      <c r="R9" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="85" t="s">
+      <c r="S9" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="T9" s="86" t="s">
+      <c r="T9" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="U9" s="34"/>
-      <c r="V9" s="18"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28"/>
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="28"/>
       <c r="AU9" s="14"/>
       <c r="AV9" s="14"/>
       <c r="AW9" s="14"/>
@@ -2092,71 +2269,70 @@
       <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="88">
+      <c r="G10" s="83"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="84">
         <v>4</v>
       </c>
+      <c r="U10" s="22"/>
       <c r="V10" s="22"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
       <c r="AU10" s="14"/>
-      <c r="AV10" s="25"/>
+      <c r="AV10" s="24"/>
       <c r="AW10" s="14"/>
-      <c r="AX10" s="25"/>
+      <c r="AX10" s="24"/>
       <c r="AY10" s="14"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="25"/>
+      <c r="AZ10" s="24"/>
+      <c r="BA10" s="95"/>
+      <c r="BB10" s="96"/>
+      <c r="BC10" s="33"/>
+      <c r="BD10" s="24"/>
       <c r="BE10" s="14"/>
-      <c r="BF10" s="25"/>
+      <c r="BF10" s="24"/>
       <c r="BG10" s="14"/>
-      <c r="BH10" s="25"/>
+      <c r="BH10" s="24"/>
       <c r="BI10" s="14"/>
-      <c r="BJ10" s="25"/>
+      <c r="BJ10" s="24"/>
       <c r="BK10" s="14"/>
       <c r="BL10" s="14"/>
       <c r="BM10" s="14"/>
       <c r="BN10" s="14"/>
       <c r="BO10" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BQ10" s="17"/>
       <c r="BR10" s="17"/>
@@ -2170,55 +2346,58 @@
       <c r="F11" s="15">
         <v>3</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="95">
+      <c r="G11" s="85"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="91">
         <v>3</v>
       </c>
+      <c r="U11" s="22"/>
       <c r="V11" s="22"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="BA11" s="97"/>
+      <c r="BB11" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC11" s="69"/>
       <c r="BD11" s="14"/>
       <c r="BE11" s="14"/>
       <c r="BF11" s="14"/>
-      <c r="BG11" s="14"/>
+      <c r="BG11" s="125" t="s">
+        <v>88</v>
+      </c>
       <c r="BH11" s="14"/>
       <c r="BI11" s="14"/>
       <c r="BJ11" s="14"/>
@@ -2230,7 +2409,7 @@
       <c r="BR11" s="17"/>
       <c r="BS11" s="17"/>
     </row>
-    <row r="12" spans="2:71" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:71" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -2238,59 +2417,60 @@
       <c r="F12" s="15">
         <v>4</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61" t="s">
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="96"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="22"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
-      <c r="AQ12" s="30"/>
-      <c r="AR12" s="30"/>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="30"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="BA12" s="98"/>
+      <c r="BB12" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC12" s="40"/>
       <c r="BD12" s="14"/>
       <c r="BE12" s="14"/>
       <c r="BF12" s="14"/>
-      <c r="BG12" s="14"/>
+      <c r="BG12" s="122" t="s">
+        <v>118</v>
+      </c>
       <c r="BH12" s="14"/>
       <c r="BI12" s="14"/>
       <c r="BJ12" s="14"/>
@@ -2299,7 +2479,7 @@
       <c r="BM12" s="14"/>
       <c r="BN12" s="14"/>
       <c r="BO12" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BQ12" s="17"/>
       <c r="BR12" s="17"/>
@@ -2313,53 +2493,54 @@
       <c r="F13" s="15">
         <v>5</v>
       </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="95"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="22"/>
       <c r="V13" s="22"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="BA13" s="34"/>
       <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
+      <c r="BC13" s="40"/>
       <c r="BD13" s="14"/>
       <c r="BE13" s="14"/>
       <c r="BF13" s="14"/>
-      <c r="BG13" s="14"/>
+      <c r="BG13" s="122" t="s">
+        <v>119</v>
+      </c>
       <c r="BH13" s="14"/>
       <c r="BI13" s="14"/>
       <c r="BJ13" s="14"/>
@@ -2368,13 +2549,13 @@
       <c r="BM13" s="14"/>
       <c r="BN13" s="14"/>
       <c r="BO13" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BQ13" s="17"/>
       <c r="BR13" s="17"/>
       <c r="BS13" s="17"/>
     </row>
-    <row r="14" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -2382,57 +2563,58 @@
       <c r="F14" s="15">
         <v>6</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="88" t="s">
+      <c r="G14" s="83"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="84" t="s">
         <v>100</v>
       </c>
+      <c r="U14" s="22"/>
       <c r="V14" s="22"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="127"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="41"/>
       <c r="BD14" s="14"/>
       <c r="BE14" s="14"/>
       <c r="BF14" s="14"/>
-      <c r="BG14" s="14"/>
+      <c r="BG14" s="122" t="s">
+        <v>120</v>
+      </c>
       <c r="BH14" s="14"/>
       <c r="BI14" s="14"/>
       <c r="BJ14" s="14"/>
@@ -2452,103 +2634,101 @@
       <c r="F15" s="15">
         <v>7</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="103" t="s">
+      <c r="H15" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="66" t="s">
+      <c r="I15" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="66" t="s">
+      <c r="M15" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="66" t="s">
+      <c r="N15" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="66" t="s">
+      <c r="O15" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="66" t="s">
+      <c r="P15" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="66" t="s">
+      <c r="Q15" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="66" t="s">
+      <c r="R15" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="S15" s="66" t="s">
+      <c r="S15" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="T15" s="93">
+      <c r="T15" s="119">
         <v>2</v>
       </c>
+      <c r="U15" s="22"/>
       <c r="V15" s="22"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="127"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="30"/>
+      <c r="AT15" s="30"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
       <c r="BD15" s="14"/>
       <c r="BE15" s="14"/>
       <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
+      <c r="BG15" s="124" t="s">
+        <v>78</v>
+      </c>
       <c r="BH15" s="14"/>
-      <c r="BI15" s="25"/>
+      <c r="BI15" s="24"/>
       <c r="BJ15" s="14"/>
       <c r="BK15" s="14"/>
       <c r="BL15" s="14"/>
       <c r="BM15" s="14"/>
       <c r="BN15" s="14"/>
       <c r="BO15" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BP15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BQ15" s="17"/>
       <c r="BR15" s="17"/>
       <c r="BS15" s="17"/>
     </row>
-    <row r="16" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -2556,25 +2736,34 @@
       <c r="F16" s="15">
         <v>8</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
       <c r="V16" s="22"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI16" s="44"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="127"/>
       <c r="AJ16" s="14"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -2586,23 +2775,25 @@
       <c r="AR16" s="14"/>
       <c r="AS16" s="14"/>
       <c r="AT16" s="14"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
       <c r="BD16" s="14"/>
       <c r="BE16" s="14"/>
       <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
+      <c r="BG16" s="123" t="s">
+        <v>81</v>
+      </c>
       <c r="BH16" s="14"/>
-      <c r="BI16" s="25"/>
+      <c r="BI16" s="24"/>
       <c r="BJ16" s="14"/>
       <c r="BK16" s="14"/>
       <c r="BL16" s="14"/>
       <c r="BM16" s="14"/>
       <c r="BN16" s="14"/>
       <c r="BO16" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BQ16" s="17"/>
       <c r="BR16" s="17"/>
@@ -2616,37 +2807,37 @@
       <c r="F17" s="15">
         <v>9</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="44"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="127"/>
       <c r="AJ17" s="14"/>
-      <c r="AK17" s="30"/>
+      <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
       <c r="AM17" s="14"/>
       <c r="AN17" s="14"/>
@@ -2656,8 +2847,8 @@
       <c r="AR17" s="14"/>
       <c r="AS17" s="14"/>
       <c r="AT17" s="14"/>
-      <c r="AU17" s="23"/>
-      <c r="AV17" s="23"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
       <c r="BD17" s="14"/>
@@ -2665,7 +2856,7 @@
       <c r="BF17" s="14"/>
       <c r="BG17" s="14"/>
       <c r="BH17" s="14"/>
-      <c r="BI17" s="25"/>
+      <c r="BI17" s="24"/>
       <c r="BJ17" s="14"/>
       <c r="BK17" s="14"/>
       <c r="BL17" s="14"/>
@@ -2683,41 +2874,26 @@
       <c r="F18" s="15">
         <v>10</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="34"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="45"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="128"/>
+      <c r="AF18" s="129"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="126"/>
+      <c r="AI18" s="130"/>
       <c r="AJ18" s="14"/>
-      <c r="AK18" s="30"/>
+      <c r="AK18" s="29"/>
       <c r="AL18" s="14"/>
       <c r="AM18" s="14"/>
       <c r="AN18" s="14"/>
@@ -2727,8 +2903,8 @@
       <c r="AR18" s="14"/>
       <c r="AS18" s="14"/>
       <c r="AT18" s="14"/>
-      <c r="AU18" s="23"/>
-      <c r="AV18" s="23"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
       <c r="BB18" s="14"/>
       <c r="BC18" s="14"/>
       <c r="BD18" s="14"/>
@@ -2736,15 +2912,12 @@
       <c r="BF18" s="14"/>
       <c r="BG18" s="14"/>
       <c r="BH18" s="14"/>
-      <c r="BI18" s="14"/>
+      <c r="BI18" s="24"/>
       <c r="BJ18" s="14"/>
       <c r="BK18" s="14"/>
       <c r="BL18" s="14"/>
       <c r="BM18" s="14"/>
       <c r="BN18" s="14"/>
-      <c r="BO18" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="BQ18" s="17"/>
       <c r="BR18" s="17"/>
       <c r="BS18" s="17"/>
@@ -2757,37 +2930,64 @@
       <c r="F19" s="15">
         <v>11</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="45"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="117" t="s">
+        <v>157</v>
+      </c>
       <c r="P19" s="14"/>
-      <c r="Q19" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="R19" s="39"/>
-      <c r="S19" s="45"/>
-      <c r="U19" s="14"/>
+      <c r="S19" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="T19" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="U19" s="103" t="s">
+        <v>80</v>
+      </c>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="44"/>
+      <c r="Y19" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA19" s="131" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB19" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC19" s="134" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD19" s="132" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="25"/>
       <c r="AJ19" s="14"/>
-      <c r="AK19" s="30"/>
+      <c r="AK19" s="29"/>
       <c r="AL19" s="14"/>
       <c r="AM19" s="14"/>
       <c r="AN19" s="14"/>
@@ -2797,8 +2997,8 @@
       <c r="AR19" s="14"/>
       <c r="AS19" s="14"/>
       <c r="AT19" s="14"/>
-      <c r="AU19" s="23"/>
-      <c r="AV19" s="23"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
       <c r="BB19" s="14"/>
       <c r="BC19" s="14"/>
       <c r="BD19" s="14"/>
@@ -2812,11 +3012,14 @@
       <c r="BL19" s="14"/>
       <c r="BM19" s="14"/>
       <c r="BN19" s="14"/>
+      <c r="BO19" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="BQ19" s="17"/>
       <c r="BR19" s="17"/>
       <c r="BS19" s="17"/>
     </row>
-    <row r="20" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -2824,12 +3027,35 @@
       <c r="F20" s="15">
         <v>12</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="23"/>
-      <c r="O20" s="14"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="118" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" s="120" t="s">
+        <v>78</v>
+      </c>
       <c r="P20" s="14"/>
-      <c r="U20" s="14"/>
+      <c r="S20" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="T20" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="U20" s="105" t="s">
+        <v>122</v>
+      </c>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
@@ -2839,13 +3065,15 @@
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="AH20" s="14"/>
-      <c r="AI20" s="44"/>
+      <c r="AI20" s="40"/>
       <c r="AJ20" s="14"/>
-      <c r="AK20" s="30"/>
+      <c r="AK20" s="29"/>
       <c r="AL20" s="14"/>
       <c r="AM20" s="14"/>
       <c r="AN20" s="14"/>
@@ -2853,10 +3081,7 @@
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
       <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="23"/>
-      <c r="AV20" s="23"/>
+      <c r="AV20" s="22"/>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
       <c r="BD20" s="14"/>
@@ -2870,17 +3095,11 @@
       <c r="BL20" s="14"/>
       <c r="BM20" s="14"/>
       <c r="BN20" s="14"/>
-      <c r="BO20" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>117</v>
-      </c>
       <c r="BQ20" s="17"/>
       <c r="BR20" s="17"/>
       <c r="BS20" s="17"/>
     </row>
-    <row r="21" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:71" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -2888,37 +3107,43 @@
       <c r="F21" s="15">
         <v>13</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="45"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="22"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="40"/>
       <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
+      <c r="AK21" s="29"/>
       <c r="AL21" s="14"/>
       <c r="AM21" s="14"/>
       <c r="AN21" s="14"/>
@@ -2926,16 +3151,13 @@
       <c r="AP21" s="14"/>
       <c r="AQ21" s="14"/>
       <c r="AR21" s="14"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="14"/>
-      <c r="AU21" s="23"/>
-      <c r="AV21" s="23"/>
+      <c r="AV21" s="22"/>
       <c r="BB21" s="14"/>
       <c r="BC21" s="14"/>
       <c r="BD21" s="14"/>
       <c r="BE21" s="14"/>
       <c r="BF21" s="14"/>
-      <c r="BG21" s="25"/>
+      <c r="BG21" s="14"/>
       <c r="BH21" s="14"/>
       <c r="BI21" s="14"/>
       <c r="BJ21" s="14"/>
@@ -2943,39 +3165,53 @@
       <c r="BL21" s="14"/>
       <c r="BM21" s="14"/>
       <c r="BN21" s="14"/>
+      <c r="BO21" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>116</v>
+      </c>
       <c r="BQ21" s="17"/>
       <c r="BR21" s="17"/>
       <c r="BS21" s="17"/>
     </row>
-    <row r="22" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
+      <c r="F22" s="15">
+        <v>14</v>
+      </c>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="41"/>
       <c r="AJ22" s="14"/>
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
@@ -2987,14 +3223,14 @@
       <c r="AR22" s="14"/>
       <c r="AS22" s="14"/>
       <c r="AT22" s="14"/>
-      <c r="AU22" s="23"/>
-      <c r="AV22" s="23"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
       <c r="BD22" s="14"/>
       <c r="BE22" s="14"/>
       <c r="BF22" s="14"/>
-      <c r="BG22" s="25"/>
+      <c r="BG22" s="24"/>
       <c r="BH22" s="14"/>
       <c r="BI22" s="14"/>
       <c r="BJ22" s="14"/>
@@ -3044,16 +3280,16 @@
       <c r="AP23" s="14"/>
       <c r="AQ23" s="14"/>
       <c r="AR23" s="14"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="23"/>
-      <c r="AV23" s="23"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
       <c r="BB23" s="14"/>
       <c r="BC23" s="14"/>
       <c r="BD23" s="14"/>
       <c r="BE23" s="14"/>
       <c r="BF23" s="14"/>
-      <c r="BG23" s="25"/>
+      <c r="BG23" s="24"/>
       <c r="BH23" s="14"/>
       <c r="BI23" s="14"/>
       <c r="BJ23" s="14"/>
@@ -3103,21 +3339,16 @@
       <c r="AP24" s="14"/>
       <c r="AQ24" s="14"/>
       <c r="AR24" s="14"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="72"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="14"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
+      <c r="AS24" s="45"/>
+      <c r="AT24" s="68"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
       <c r="BB24" s="14"/>
       <c r="BC24" s="14"/>
       <c r="BD24" s="14"/>
       <c r="BE24" s="14"/>
       <c r="BF24" s="14"/>
-      <c r="BG24" s="14"/>
+      <c r="BG24" s="24"/>
       <c r="BH24" s="14"/>
       <c r="BI24" s="14"/>
       <c r="BJ24" s="14"/>
@@ -3167,8 +3398,8 @@
       <c r="AP25" s="14"/>
       <c r="AQ25" s="14"/>
       <c r="AR25" s="14"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="72"/>
+      <c r="AS25" s="45"/>
+      <c r="AT25" s="68"/>
       <c r="AU25" s="14"/>
       <c r="AV25" s="14"/>
       <c r="AW25" s="14"/>
@@ -3193,7 +3424,7 @@
       <c r="BR25" s="17"/>
       <c r="BS25" s="17"/>
     </row>
-    <row r="26" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:71" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -3231,8 +3462,8 @@
       <c r="AP26" s="14"/>
       <c r="AQ26" s="14"/>
       <c r="AR26" s="14"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="72"/>
+      <c r="AS26" s="45"/>
+      <c r="AT26" s="68"/>
       <c r="AU26" s="14"/>
       <c r="AV26" s="14"/>
       <c r="AW26" s="14"/>
@@ -3253,6 +3484,9 @@
       <c r="BL26" s="14"/>
       <c r="BM26" s="14"/>
       <c r="BN26" s="14"/>
+      <c r="BQ26" s="17"/>
+      <c r="BR26" s="17"/>
+      <c r="BS26" s="17"/>
     </row>
     <row r="27" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
@@ -3292,11 +3526,11 @@
       <c r="AP27" s="14"/>
       <c r="AQ27" s="14"/>
       <c r="AR27" s="14"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="72"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="68"/>
       <c r="AU27" s="14"/>
       <c r="AV27" s="14"/>
-      <c r="AW27" s="25"/>
+      <c r="AW27" s="14"/>
       <c r="AX27" s="14"/>
       <c r="AY27" s="14"/>
       <c r="AZ27" s="14"/>
@@ -3304,7 +3538,7 @@
       <c r="BB27" s="14"/>
       <c r="BC27" s="14"/>
       <c r="BD27" s="14"/>
-      <c r="BE27" s="25"/>
+      <c r="BE27" s="14"/>
       <c r="BF27" s="14"/>
       <c r="BG27" s="14"/>
       <c r="BH27" s="14"/>
@@ -3353,11 +3587,11 @@
       <c r="AP28" s="14"/>
       <c r="AQ28" s="14"/>
       <c r="AR28" s="14"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="72"/>
+      <c r="AS28" s="45"/>
+      <c r="AT28" s="68"/>
       <c r="AU28" s="14"/>
       <c r="AV28" s="14"/>
-      <c r="AW28" s="25"/>
+      <c r="AW28" s="24"/>
       <c r="AX28" s="14"/>
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
@@ -3365,7 +3599,7 @@
       <c r="BB28" s="14"/>
       <c r="BC28" s="14"/>
       <c r="BD28" s="14"/>
-      <c r="BE28" s="25"/>
+      <c r="BE28" s="24"/>
       <c r="BF28" s="14"/>
       <c r="BG28" s="14"/>
       <c r="BH28" s="14"/>
@@ -3414,11 +3648,11 @@
       <c r="AP29" s="14"/>
       <c r="AQ29" s="14"/>
       <c r="AR29" s="14"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="72"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="68"/>
       <c r="AU29" s="14"/>
       <c r="AV29" s="14"/>
-      <c r="AW29" s="25"/>
+      <c r="AW29" s="24"/>
       <c r="AX29" s="14"/>
       <c r="AY29" s="14"/>
       <c r="AZ29" s="14"/>
@@ -3426,7 +3660,7 @@
       <c r="BB29" s="14"/>
       <c r="BC29" s="14"/>
       <c r="BD29" s="14"/>
-      <c r="BE29" s="25"/>
+      <c r="BE29" s="24"/>
       <c r="BF29" s="14"/>
       <c r="BG29" s="14"/>
       <c r="BH29" s="14"/>
@@ -3475,11 +3709,11 @@
       <c r="AP30" s="14"/>
       <c r="AQ30" s="14"/>
       <c r="AR30" s="14"/>
-      <c r="AS30" s="14"/>
-      <c r="AT30" s="49"/>
+      <c r="AS30" s="45"/>
+      <c r="AT30" s="68"/>
       <c r="AU30" s="14"/>
       <c r="AV30" s="14"/>
-      <c r="AW30" s="14"/>
+      <c r="AW30" s="24"/>
       <c r="AX30" s="14"/>
       <c r="AY30" s="14"/>
       <c r="AZ30" s="14"/>
@@ -3487,7 +3721,7 @@
       <c r="BB30" s="14"/>
       <c r="BC30" s="14"/>
       <c r="BD30" s="14"/>
-      <c r="BE30" s="14"/>
+      <c r="BE30" s="24"/>
       <c r="BF30" s="14"/>
       <c r="BG30" s="14"/>
       <c r="BH30" s="14"/>
@@ -3503,8 +3737,21 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
@@ -3524,7 +3771,7 @@
       <c r="AQ31" s="14"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="14"/>
-      <c r="AT31" s="14"/>
+      <c r="AT31" s="45"/>
       <c r="AU31" s="14"/>
       <c r="AV31" s="14"/>
       <c r="AW31" s="14"/>
@@ -3546,1958 +3793,2113 @@
       <c r="BM31" s="14"/>
       <c r="BN31" s="14"/>
     </row>
-    <row r="35" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="53" t="s">
+    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="14"/>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="14"/>
+      <c r="AZ32" s="14"/>
+      <c r="BA32" s="14"/>
+      <c r="BB32" s="14"/>
+      <c r="BC32" s="14"/>
+      <c r="BD32" s="14"/>
+      <c r="BE32" s="14"/>
+      <c r="BF32" s="14"/>
+      <c r="BG32" s="14"/>
+      <c r="BH32" s="14"/>
+      <c r="BI32" s="14"/>
+      <c r="BJ32" s="14"/>
+      <c r="BK32" s="14"/>
+      <c r="BL32" s="14"/>
+      <c r="BM32" s="14"/>
+      <c r="BN32" s="14"/>
+    </row>
+    <row r="36" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG37" s="48"/>
+      <c r="AH37" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="AI36" s="54"/>
-      <c r="BA36" s="52"/>
-      <c r="BB36" s="53" t="s">
+      <c r="AI37" s="50"/>
+      <c r="BA37" s="48"/>
+      <c r="BB37" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="BC36" s="54"/>
-    </row>
-    <row r="37" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L37" s="55" t="s">
+      <c r="BC37" s="50"/>
+    </row>
+    <row r="38" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="M37" s="51"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="57" t="s">
+      <c r="M38" s="47"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="59" t="s">
+      <c r="P38" s="54"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="U37" s="46">
+      <c r="U38" s="42">
         <v>10</v>
       </c>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="47">
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="43">
         <v>9</v>
       </c>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="51"/>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="59"/>
-      <c r="AO37" s="55"/>
-      <c r="AP37" s="51"/>
-      <c r="AQ37" s="51"/>
-      <c r="AR37" s="51"/>
-      <c r="AS37" s="51"/>
-      <c r="AT37" s="51"/>
-      <c r="AU37" s="59"/>
-      <c r="AY37" s="55"/>
-      <c r="AZ37" s="51"/>
-      <c r="BA37" s="51"/>
-      <c r="BB37" s="51"/>
-      <c r="BC37" s="51"/>
-      <c r="BD37" s="51"/>
-      <c r="BE37" s="59"/>
-    </row>
-    <row r="38" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L38" s="60" t="s">
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="47"/>
+      <c r="AG38" s="47"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
+      <c r="AJ38" s="47"/>
+      <c r="AK38" s="55"/>
+      <c r="AO38" s="51"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
+      <c r="AS38" s="47"/>
+      <c r="AT38" s="47"/>
+      <c r="AU38" s="55"/>
+      <c r="AY38" s="51"/>
+      <c r="AZ38" s="47"/>
+      <c r="BA38" s="47"/>
+      <c r="BB38" s="47"/>
+      <c r="BC38" s="47"/>
+      <c r="BD38" s="47"/>
+      <c r="BE38" s="55"/>
+    </row>
+    <row r="39" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L39" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41" t="s">
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="U38" s="22">
+      <c r="U39" s="21">
         <v>11</v>
       </c>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="48">
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="44">
         <v>8</v>
       </c>
-      <c r="AE38" s="60" t="s">
+      <c r="AE39" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AF38" s="40"/>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="41" t="s">
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
+      <c r="AK39" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="AO38" s="60" t="s">
+      <c r="AO39" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AP38" s="40"/>
-      <c r="AQ38" s="40"/>
-      <c r="AR38" s="40"/>
-      <c r="AS38" s="40"/>
-      <c r="AT38" s="40"/>
-      <c r="AU38" s="41" t="s">
+      <c r="AP39" s="37"/>
+      <c r="AQ39" s="37"/>
+      <c r="AR39" s="37"/>
+      <c r="AS39" s="37"/>
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="AY38" s="60">
+      <c r="AY39" s="56">
         <v>13</v>
       </c>
-      <c r="AZ38" s="40"/>
-      <c r="BA38" s="40"/>
-      <c r="BB38" s="40"/>
-      <c r="BC38" s="40"/>
-      <c r="BD38" s="40"/>
-      <c r="BE38" s="41">
+      <c r="AZ39" s="37"/>
+      <c r="BA39" s="37"/>
+      <c r="BB39" s="37"/>
+      <c r="BC39" s="37"/>
+      <c r="BD39" s="37"/>
+      <c r="BE39" s="38">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L39" s="60" t="s">
+    <row r="40" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L40" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41" t="s">
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="U39" s="22">
+      <c r="U40" s="21">
         <v>12</v>
       </c>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="48">
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="44">
         <v>7</v>
       </c>
-      <c r="AE39" s="60" t="s">
+      <c r="AE40" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="AF39" s="40"/>
-      <c r="AG39" s="40"/>
-      <c r="AH39" s="40"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="40"/>
-      <c r="AK39" s="41" t="s">
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
+      <c r="AK40" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AO39" s="60" t="s">
+      <c r="AO40" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="AP39" s="40"/>
-      <c r="AQ39" s="40"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="41" t="s">
+      <c r="AP40" s="37"/>
+      <c r="AQ40" s="37"/>
+      <c r="AR40" s="37"/>
+      <c r="AS40" s="37"/>
+      <c r="AT40" s="37"/>
+      <c r="AU40" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AY39" s="60" t="s">
+      <c r="AY40" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="AZ39" s="40"/>
-      <c r="BA39" s="40"/>
-      <c r="BB39" s="40"/>
-      <c r="BC39" s="40"/>
-      <c r="BD39" s="40"/>
-      <c r="BE39" s="41">
+      <c r="AZ40" s="37"/>
+      <c r="BA40" s="37"/>
+      <c r="BB40" s="37"/>
+      <c r="BC40" s="37"/>
+      <c r="BD40" s="37"/>
+      <c r="BE40" s="38">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L40" s="60" t="s">
+    <row r="41" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L41" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="41">
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="38">
         <v>13</v>
       </c>
-      <c r="U40" s="22">
+      <c r="U41" s="21">
         <v>13</v>
       </c>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="48">
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="44">
         <v>6</v>
       </c>
-      <c r="AE40" s="60" t="s">
+      <c r="AE41" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AF40" s="40"/>
-      <c r="AG40" s="40"/>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="41" t="s">
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AO40" s="60" t="s">
+      <c r="AO41" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="AP40" s="40"/>
-      <c r="AQ40" s="40"/>
-      <c r="AR40" s="40"/>
-      <c r="AS40" s="40"/>
-      <c r="AT40" s="40"/>
-      <c r="AU40" s="41" t="s">
+      <c r="AP41" s="37"/>
+      <c r="AQ41" s="37"/>
+      <c r="AR41" s="37"/>
+      <c r="AS41" s="37"/>
+      <c r="AT41" s="37"/>
+      <c r="AU41" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AY40" s="60" t="s">
+      <c r="AY41" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AZ40" s="40"/>
-      <c r="BA40" s="40"/>
-      <c r="BB40" s="40"/>
-      <c r="BC40" s="40"/>
-      <c r="BD40" s="40"/>
-      <c r="BE40" s="41">
+      <c r="AZ41" s="37"/>
+      <c r="BA41" s="37"/>
+      <c r="BB41" s="37"/>
+      <c r="BC41" s="37"/>
+      <c r="BD41" s="37"/>
+      <c r="BE41" s="38">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L41" s="60" t="s">
+    <row r="42" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L42" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="41">
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="38">
         <v>12</v>
       </c>
-      <c r="U41" s="22" t="s">
+      <c r="U42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="50">
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="46">
         <v>5</v>
       </c>
-      <c r="AE41" s="60" t="s">
+      <c r="AE42" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AF41" s="40"/>
-      <c r="AG41" s="40"/>
-      <c r="AH41" s="61"/>
-      <c r="AI41" s="40"/>
-      <c r="AJ41" s="40"/>
-      <c r="AK41" s="41" t="s">
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="57"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="AO41" s="60" t="s">
+      <c r="AO42" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AP41" s="40"/>
-      <c r="AQ41" s="40"/>
-      <c r="AR41" s="61"/>
-      <c r="AS41" s="40"/>
-      <c r="AT41" s="40"/>
-      <c r="AU41" s="41" t="s">
+      <c r="AP42" s="37"/>
+      <c r="AQ42" s="37"/>
+      <c r="AR42" s="57"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="AY41" s="60" t="s">
+      <c r="AY42" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="AZ41" s="40"/>
-      <c r="BA41" s="40"/>
-      <c r="BB41" s="62"/>
-      <c r="BC41" s="40"/>
-      <c r="BD41" s="40"/>
-      <c r="BE41" s="41">
+      <c r="AZ42" s="37"/>
+      <c r="BA42" s="37"/>
+      <c r="BB42" s="58"/>
+      <c r="BC42" s="37"/>
+      <c r="BD42" s="37"/>
+      <c r="BE42" s="38">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L42" s="60" t="s">
+    <row r="43" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L43" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="M42" s="40"/>
-      <c r="O42" s="61" t="s">
+      <c r="M43" s="37"/>
+      <c r="O43" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="41">
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="38">
         <v>11</v>
       </c>
-      <c r="U42" s="22" t="s">
+      <c r="U43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23" t="s">
+      <c r="V43" s="22"/>
+      <c r="W43" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="48">
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="44">
         <v>4</v>
       </c>
-      <c r="AE42" s="60">
+      <c r="AE43" s="56">
         <v>2</v>
       </c>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="23"/>
-      <c r="AH42" s="61" t="s">
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="41" t="s">
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="37"/>
+      <c r="AK43" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AO42" s="60">
+      <c r="AO43" s="56">
         <v>2</v>
       </c>
-      <c r="AP42" s="40"/>
-      <c r="AR42" s="24" t="s">
+      <c r="AP43" s="37"/>
+      <c r="AR43" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="AS42" s="40"/>
-      <c r="AT42" s="40"/>
-      <c r="AU42" s="41" t="s">
+      <c r="AS43" s="37"/>
+      <c r="AT43" s="37"/>
+      <c r="AU43" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AY42" s="60" t="s">
+      <c r="AY43" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AZ42" s="40"/>
-      <c r="BA42" s="40"/>
-      <c r="BB42" s="61" t="s">
+      <c r="AZ43" s="37"/>
+      <c r="BA43" s="37"/>
+      <c r="BB43" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="BC42" s="40"/>
-      <c r="BD42" s="40"/>
-      <c r="BE42" s="41">
+      <c r="BC43" s="37"/>
+      <c r="BD43" s="37"/>
+      <c r="BE43" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L43" s="60" t="s">
+    <row r="44" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L44" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="41">
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="38">
         <v>10</v>
       </c>
-      <c r="U43" s="22"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="48">
+      <c r="U44" s="21"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="44">
         <v>3</v>
       </c>
-      <c r="AE43" s="60">
+      <c r="AE44" s="56">
         <v>3</v>
       </c>
-      <c r="AF43" s="40"/>
-      <c r="AG43" s="40"/>
-      <c r="AH43" s="61"/>
-      <c r="AI43" s="40"/>
-      <c r="AJ43" s="40"/>
-      <c r="AK43" s="41" t="s">
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AO43" s="60">
+      <c r="AO44" s="56">
         <v>3</v>
       </c>
-      <c r="AP43" s="40"/>
-      <c r="AQ43" s="40"/>
-      <c r="AR43" s="61"/>
-      <c r="AS43" s="40"/>
-      <c r="AT43" s="40"/>
-      <c r="AU43" s="41" t="s">
+      <c r="AP44" s="37"/>
+      <c r="AQ44" s="37"/>
+      <c r="AR44" s="57"/>
+      <c r="AS44" s="37"/>
+      <c r="AT44" s="37"/>
+      <c r="AU44" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AY43" s="60" t="s">
+      <c r="AY44" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="AZ43" s="40"/>
-      <c r="BA43" s="40"/>
-      <c r="BB43" s="62"/>
-      <c r="BC43" s="40"/>
-      <c r="BD43" s="40"/>
-      <c r="BE43" s="41">
+      <c r="AZ44" s="37"/>
+      <c r="BA44" s="37"/>
+      <c r="BB44" s="58"/>
+      <c r="BC44" s="37"/>
+      <c r="BD44" s="37"/>
+      <c r="BE44" s="38">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L44" s="60" t="s">
+    <row r="45" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L45" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="41">
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="38">
         <v>9</v>
       </c>
-      <c r="U44" s="22"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="48">
+      <c r="U45" s="21"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="44">
         <v>2</v>
       </c>
-      <c r="AE44" s="60">
+      <c r="AE45" s="56">
         <v>4</v>
       </c>
-      <c r="AF44" s="40"/>
-      <c r="AG44" s="40"/>
-      <c r="AH44" s="61"/>
-      <c r="AI44" s="40"/>
-      <c r="AJ44" s="40"/>
-      <c r="AK44" s="41" t="s">
+      <c r="AF45" s="37"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="57"/>
+      <c r="AI45" s="37"/>
+      <c r="AJ45" s="37"/>
+      <c r="AK45" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AO44" s="60">
+      <c r="AO45" s="56">
         <v>4</v>
       </c>
-      <c r="AP44" s="40"/>
-      <c r="AQ44" s="40"/>
-      <c r="AR44" s="61"/>
-      <c r="AS44" s="40"/>
-      <c r="AT44" s="40"/>
-      <c r="AU44" s="41" t="s">
+      <c r="AP45" s="37"/>
+      <c r="AQ45" s="37"/>
+      <c r="AR45" s="57"/>
+      <c r="AS45" s="37"/>
+      <c r="AT45" s="37"/>
+      <c r="AU45" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AY44" s="60" t="s">
+      <c r="AY45" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="AZ44" s="40"/>
-      <c r="BA44" s="40"/>
-      <c r="BB44" s="62"/>
-      <c r="BC44" s="40"/>
-      <c r="BD44" s="40"/>
-      <c r="BE44" s="41">
+      <c r="AZ45" s="37"/>
+      <c r="BA45" s="37"/>
+      <c r="BB45" s="58"/>
+      <c r="BC45" s="37"/>
+      <c r="BD45" s="37"/>
+      <c r="BE45" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L45" s="60" t="s">
+    <row r="46" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L46" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="41">
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="38">
         <v>7</v>
       </c>
-      <c r="U45" s="22" t="s">
+      <c r="U46" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="23"/>
-      <c r="AA45" s="50" t="s">
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AE45" s="60">
+      <c r="AE46" s="56">
         <v>5</v>
       </c>
-      <c r="AF45" s="40"/>
-      <c r="AG45" s="40"/>
-      <c r="AH45" s="40"/>
-      <c r="AI45" s="40"/>
-      <c r="AJ45" s="40"/>
-      <c r="AK45" s="41" t="s">
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
+      <c r="AK46" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AO45" s="60">
+      <c r="AO46" s="56">
         <v>5</v>
       </c>
-      <c r="AP45" s="40"/>
-      <c r="AQ45" s="40"/>
-      <c r="AR45" s="40"/>
-      <c r="AS45" s="40"/>
-      <c r="AT45" s="40"/>
-      <c r="AU45" s="41" t="s">
+      <c r="AP46" s="37"/>
+      <c r="AQ46" s="37"/>
+      <c r="AR46" s="37"/>
+      <c r="AS46" s="37"/>
+      <c r="AT46" s="37"/>
+      <c r="AU46" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AY45" s="60" t="s">
+      <c r="AY46" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AZ45" s="40"/>
-      <c r="BA45" s="40"/>
-      <c r="BB45" s="40"/>
-      <c r="BC45" s="40"/>
-      <c r="BD45" s="40"/>
-      <c r="BE45" s="41">
+      <c r="AZ46" s="37"/>
+      <c r="BA46" s="37"/>
+      <c r="BB46" s="37"/>
+      <c r="BC46" s="37"/>
+      <c r="BD46" s="37"/>
+      <c r="BE46" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L46" s="60" t="s">
+    <row r="47" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L47" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="41">
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="38">
         <v>5</v>
       </c>
-      <c r="U46" s="22" t="s">
+      <c r="U47" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="48" t="s">
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AE46" s="60">
+      <c r="AE47" s="56">
         <v>6</v>
       </c>
-      <c r="AF46" s="40"/>
-      <c r="AG46" s="40"/>
-      <c r="AH46" s="40"/>
-      <c r="AI46" s="40"/>
-      <c r="AJ46" s="40"/>
-      <c r="AK46" s="41">
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="37"/>
+      <c r="AK47" s="38">
         <v>15</v>
       </c>
-      <c r="AO46" s="60">
+      <c r="AO47" s="56">
         <v>6</v>
       </c>
-      <c r="AP46" s="40"/>
-      <c r="AQ46" s="40"/>
-      <c r="AR46" s="40"/>
-      <c r="AS46" s="40"/>
-      <c r="AT46" s="40"/>
-      <c r="AU46" s="41">
+      <c r="AP47" s="37"/>
+      <c r="AQ47" s="37"/>
+      <c r="AR47" s="37"/>
+      <c r="AS47" s="37"/>
+      <c r="AT47" s="37"/>
+      <c r="AU47" s="38">
         <v>13</v>
       </c>
-      <c r="AY46" s="60" t="s">
+      <c r="AY47" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AZ46" s="40"/>
-      <c r="BA46" s="40"/>
-      <c r="BB46" s="40"/>
-      <c r="BC46" s="40"/>
-      <c r="BD46" s="40"/>
-      <c r="BE46" s="41">
+      <c r="AZ47" s="37"/>
+      <c r="BA47" s="37"/>
+      <c r="BB47" s="37"/>
+      <c r="BC47" s="37"/>
+      <c r="BD47" s="37"/>
+      <c r="BE47" s="38">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L47" s="60" t="s">
+    <row r="48" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L48" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="41" t="s">
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="U47" s="22" t="s">
+      <c r="U48" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="50" t="s">
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AE47" s="60">
+      <c r="AE48" s="56">
         <v>7</v>
       </c>
-      <c r="AF47" s="40"/>
-      <c r="AG47" s="40"/>
-      <c r="AH47" s="40"/>
-      <c r="AI47" s="40"/>
-      <c r="AJ47" s="40"/>
-      <c r="AK47" s="41">
+      <c r="AF48" s="37"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
+      <c r="AK48" s="38">
         <v>14</v>
       </c>
-      <c r="AO47" s="60">
+      <c r="AO48" s="56">
         <v>7</v>
       </c>
-      <c r="AP47" s="40"/>
-      <c r="AQ47" s="40"/>
-      <c r="AR47" s="40"/>
-      <c r="AS47" s="40"/>
-      <c r="AT47" s="40"/>
-      <c r="AU47" s="41">
+      <c r="AP48" s="37"/>
+      <c r="AQ48" s="37"/>
+      <c r="AR48" s="37"/>
+      <c r="AS48" s="37"/>
+      <c r="AT48" s="37"/>
+      <c r="AU48" s="38">
         <v>12</v>
       </c>
-      <c r="AY47" s="60"/>
-      <c r="AZ47" s="40"/>
-      <c r="BA47" s="40"/>
-      <c r="BB47" s="40"/>
-      <c r="BC47" s="40"/>
-      <c r="BD47" s="40"/>
-      <c r="BE47" s="41" t="s">
+      <c r="AY48" s="56"/>
+      <c r="AZ48" s="37"/>
+      <c r="BA48" s="37"/>
+      <c r="BB48" s="37"/>
+      <c r="BC48" s="37"/>
+      <c r="BD48" s="37"/>
+      <c r="BE48" s="38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L48" s="60" t="s">
+    <row r="49" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L49" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="41" t="s">
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="U48" s="22" t="s">
+      <c r="U49" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="50" t="s">
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="AE48" s="60">
+      <c r="AE49" s="56">
         <v>8</v>
       </c>
-      <c r="AF48" s="40"/>
-      <c r="AG48" s="40"/>
-      <c r="AH48" s="40"/>
-      <c r="AI48" s="40"/>
-      <c r="AJ48" s="40"/>
-      <c r="AK48" s="41">
+      <c r="AF49" s="37"/>
+      <c r="AG49" s="37"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" s="37"/>
+      <c r="AJ49" s="37"/>
+      <c r="AK49" s="38">
         <v>16</v>
       </c>
-      <c r="AO48" s="60">
+      <c r="AO49" s="56">
         <v>8</v>
       </c>
-      <c r="AP48" s="40"/>
-      <c r="AQ48" s="40"/>
-      <c r="AR48" s="40"/>
-      <c r="AS48" s="40"/>
-      <c r="AT48" s="40"/>
-      <c r="AU48" s="41">
+      <c r="AP49" s="37"/>
+      <c r="AQ49" s="37"/>
+      <c r="AR49" s="37"/>
+      <c r="AS49" s="37"/>
+      <c r="AT49" s="37"/>
+      <c r="AU49" s="38">
         <v>11</v>
       </c>
-      <c r="AY48" s="60"/>
-      <c r="AZ48" s="40"/>
-      <c r="BA48" s="40"/>
-      <c r="BB48" s="40"/>
-      <c r="BC48" s="40"/>
-      <c r="BD48" s="40"/>
-      <c r="BE48" s="41" t="s">
+      <c r="AY49" s="56"/>
+      <c r="AZ49" s="37"/>
+      <c r="BA49" s="37"/>
+      <c r="BB49" s="37"/>
+      <c r="BC49" s="37"/>
+      <c r="BD49" s="37"/>
+      <c r="BE49" s="38" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L49" s="60" t="s">
+    <row r="50" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="41" t="s">
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="U49" s="27"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="32"/>
-      <c r="AE49" s="63">
+      <c r="U50" s="26"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="31"/>
+      <c r="AE50" s="59">
         <v>9</v>
       </c>
-      <c r="AF49" s="64"/>
-      <c r="AG49" s="64"/>
-      <c r="AH49" s="64"/>
-      <c r="AI49" s="64"/>
-      <c r="AJ49" s="64"/>
-      <c r="AK49" s="65">
+      <c r="AF50" s="60"/>
+      <c r="AG50" s="60"/>
+      <c r="AH50" s="60"/>
+      <c r="AI50" s="60"/>
+      <c r="AJ50" s="60"/>
+      <c r="AK50" s="61">
         <v>10</v>
       </c>
-      <c r="AO49" s="63">
+      <c r="AO50" s="59">
         <v>9</v>
       </c>
-      <c r="AP49" s="64"/>
-      <c r="AQ49" s="64"/>
-      <c r="AR49" s="64"/>
-      <c r="AS49" s="64"/>
-      <c r="AT49" s="64"/>
-      <c r="AU49" s="65">
+      <c r="AP50" s="60"/>
+      <c r="AQ50" s="60"/>
+      <c r="AR50" s="60"/>
+      <c r="AS50" s="60"/>
+      <c r="AT50" s="60"/>
+      <c r="AU50" s="61">
         <v>10</v>
       </c>
-      <c r="AY49" s="60" t="s">
+      <c r="AY50" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="AZ49" s="40"/>
-      <c r="BA49" s="40"/>
-      <c r="BB49" s="40"/>
-      <c r="BC49" s="40"/>
-      <c r="BD49" s="40"/>
-      <c r="BE49" s="41" t="s">
+      <c r="AZ50" s="37"/>
+      <c r="BA50" s="37"/>
+      <c r="BB50" s="37"/>
+      <c r="BC50" s="37"/>
+      <c r="BD50" s="37"/>
+      <c r="BE50" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L50" s="63">
+    <row r="51" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="59">
         <v>2</v>
       </c>
-      <c r="M50" s="66" t="s">
+      <c r="M51" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="66">
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62">
         <v>3</v>
       </c>
-      <c r="Q50" s="66">
+      <c r="Q51" s="62">
         <v>4</v>
       </c>
-      <c r="R50" s="65" t="s">
+      <c r="R51" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="AE50" s="67"/>
-      <c r="AF50" s="62"/>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="62"/>
-      <c r="AI50" s="62"/>
-      <c r="AJ50" s="62"/>
-      <c r="AK50" s="68"/>
-      <c r="AY50" s="69" t="s">
+      <c r="AE51" s="63"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="58"/>
+      <c r="AH51" s="58"/>
+      <c r="AI51" s="58"/>
+      <c r="AJ51" s="58"/>
+      <c r="AK51" s="64"/>
+      <c r="AY51" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AZ50" s="40"/>
-      <c r="BA50" s="40"/>
-      <c r="BB50" s="40"/>
-      <c r="BC50" s="40"/>
-      <c r="BD50" s="40"/>
-      <c r="BE50" s="41" t="s">
+      <c r="AZ51" s="37"/>
+      <c r="BA51" s="37"/>
+      <c r="BB51" s="37"/>
+      <c r="BC51" s="37"/>
+      <c r="BD51" s="37"/>
+      <c r="BE51" s="38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="AY51" s="69" t="s">
+    <row r="52" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY52" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="AZ51" s="40"/>
-      <c r="BA51" s="40"/>
-      <c r="BB51" s="40"/>
-      <c r="BC51" s="40"/>
-      <c r="BD51" s="40"/>
-      <c r="BE51" s="41" t="s">
+      <c r="AZ52" s="37"/>
+      <c r="BA52" s="37"/>
+      <c r="BB52" s="37"/>
+      <c r="BC52" s="37"/>
+      <c r="BD52" s="37"/>
+      <c r="BE52" s="38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="AY52" s="69" t="s">
+    <row r="53" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY53" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="AZ52" s="40"/>
-      <c r="BA52" s="40"/>
-      <c r="BB52" s="40"/>
-      <c r="BC52" s="40"/>
-      <c r="BD52" s="40"/>
-      <c r="BE52" s="41" t="s">
+      <c r="AZ53" s="37"/>
+      <c r="BA53" s="37"/>
+      <c r="BB53" s="37"/>
+      <c r="BC53" s="37"/>
+      <c r="BD53" s="37"/>
+      <c r="BE53" s="38" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="AY53" s="69" t="s">
+    <row r="54" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY54" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="AZ53" s="40"/>
-      <c r="BA53" s="40"/>
-      <c r="BB53" s="40"/>
-      <c r="BC53" s="40"/>
-      <c r="BD53" s="40"/>
-      <c r="BE53" s="41" t="s">
+      <c r="AZ54" s="37"/>
+      <c r="BA54" s="37"/>
+      <c r="BB54" s="37"/>
+      <c r="BC54" s="37"/>
+      <c r="BD54" s="37"/>
+      <c r="BE54" s="38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="AY54" s="69" t="s">
+    <row r="55" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY55" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="AZ54" s="40"/>
-      <c r="BA54" s="40"/>
-      <c r="BB54" s="40"/>
-      <c r="BC54" s="40"/>
-      <c r="BD54" s="40"/>
-      <c r="BE54" s="41" t="s">
+      <c r="AZ55" s="37"/>
+      <c r="BA55" s="37"/>
+      <c r="BB55" s="37"/>
+      <c r="BC55" s="37"/>
+      <c r="BD55" s="37"/>
+      <c r="BE55" s="38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AY55" s="70"/>
-      <c r="AZ55" s="64"/>
-      <c r="BA55" s="64"/>
-      <c r="BB55" s="64"/>
-      <c r="BC55" s="64"/>
-      <c r="BD55" s="64"/>
-      <c r="BE55" s="65"/>
-    </row>
-    <row r="56" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L57" s="55" t="s">
+    <row r="56" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AY56" s="66"/>
+      <c r="AZ56" s="60"/>
+      <c r="BA56" s="60"/>
+      <c r="BB56" s="60"/>
+      <c r="BC56" s="60"/>
+      <c r="BD56" s="60"/>
+      <c r="BE56" s="61"/>
+    </row>
+    <row r="57" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L58" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="M57" s="51">
+      <c r="M58" s="47">
         <v>1</v>
       </c>
-      <c r="N57" s="51">
+      <c r="N58" s="47">
         <v>3</v>
       </c>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="51" t="s">
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="R57" s="59">
+      <c r="R58" s="55">
         <v>2</v>
       </c>
-      <c r="AE57" s="55">
+      <c r="AE58" s="51">
         <v>10</v>
       </c>
-      <c r="AF57" s="51"/>
-      <c r="AG57" s="51"/>
-      <c r="AH57" s="51"/>
-      <c r="AI57" s="51"/>
-      <c r="AJ57" s="51"/>
-      <c r="AK57" s="59">
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="47"/>
+      <c r="AH58" s="47"/>
+      <c r="AI58" s="47"/>
+      <c r="AJ58" s="47"/>
+      <c r="AK58" s="55">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L58" s="60" t="s">
+    <row r="59" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L59" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="41" t="s">
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AE58" s="60">
+      <c r="AE59" s="56">
         <v>16</v>
       </c>
-      <c r="AF58" s="40"/>
-      <c r="AG58" s="40"/>
-      <c r="AH58" s="40"/>
-      <c r="AI58" s="40"/>
-      <c r="AJ58" s="40"/>
-      <c r="AK58" s="41">
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
+      <c r="AK59" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L59" s="60" t="s">
+    <row r="60" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L60" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="41" t="s">
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AE59" s="60">
+      <c r="AE60" s="56">
         <v>14</v>
       </c>
-      <c r="AF59" s="40"/>
-      <c r="AG59" s="40"/>
-      <c r="AH59" s="40"/>
-      <c r="AI59" s="40"/>
-      <c r="AJ59" s="40"/>
-      <c r="AK59" s="41">
+      <c r="AF60" s="37"/>
+      <c r="AG60" s="37"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="37"/>
+      <c r="AJ60" s="37"/>
+      <c r="AK60" s="38">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L60" s="60" t="s">
+    <row r="61" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L61" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="41" t="s">
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AE60" s="60">
+      <c r="AE61" s="56">
         <v>15</v>
       </c>
-      <c r="AF60" s="40"/>
-      <c r="AG60" s="40"/>
-      <c r="AH60" s="40"/>
-      <c r="AI60" s="40"/>
-      <c r="AJ60" s="40"/>
-      <c r="AK60" s="41">
+      <c r="AF61" s="37"/>
+      <c r="AG61" s="37"/>
+      <c r="AH61" s="37"/>
+      <c r="AI61" s="37"/>
+      <c r="AJ61" s="37"/>
+      <c r="AK61" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L61" s="60">
+    <row r="62" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L62" s="56">
         <v>5</v>
       </c>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="41" t="s">
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AE61" s="60" t="s">
+      <c r="AE62" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="AF61" s="40"/>
-      <c r="AG61" s="40"/>
-      <c r="AH61" s="61"/>
-      <c r="AI61" s="40"/>
-      <c r="AJ61" s="40"/>
-      <c r="AK61" s="41">
+      <c r="AF62" s="37"/>
+      <c r="AG62" s="37"/>
+      <c r="AH62" s="57"/>
+      <c r="AI62" s="37"/>
+      <c r="AJ62" s="37"/>
+      <c r="AK62" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L62" s="60">
+    <row r="63" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L63" s="56">
         <v>7</v>
       </c>
-      <c r="M62" s="40"/>
-      <c r="O62" s="61" t="s">
+      <c r="M63" s="37"/>
+      <c r="O63" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="41" t="s">
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AE62" s="60" t="s">
+      <c r="AE63" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AF62" s="40"/>
-      <c r="AG62" s="23"/>
-      <c r="AH62" s="61" t="s">
+      <c r="AF63" s="37"/>
+      <c r="AG63" s="22"/>
+      <c r="AH63" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="AI62" s="40"/>
-      <c r="AJ62" s="40"/>
-      <c r="AK62" s="41">
+      <c r="AI63" s="37"/>
+      <c r="AJ63" s="37"/>
+      <c r="AK63" s="38">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L63" s="60">
+    <row r="64" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L64" s="56">
         <v>9</v>
       </c>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="41" t="s">
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AE63" s="60" t="s">
+      <c r="AE64" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="AF63" s="40"/>
-      <c r="AG63" s="40"/>
-      <c r="AH63" s="61"/>
-      <c r="AI63" s="40"/>
-      <c r="AJ63" s="40"/>
-      <c r="AK63" s="41">
+      <c r="AF64" s="37"/>
+      <c r="AG64" s="37"/>
+      <c r="AH64" s="57"/>
+      <c r="AI64" s="37"/>
+      <c r="AJ64" s="37"/>
+      <c r="AK64" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L64" s="60">
+    <row r="65" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L65" s="56">
         <v>10</v>
       </c>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="41" t="s">
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AE64" s="60" t="s">
+      <c r="AE65" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="AF64" s="40"/>
-      <c r="AG64" s="40"/>
-      <c r="AH64" s="61"/>
-      <c r="AI64" s="40"/>
-      <c r="AJ64" s="40"/>
-      <c r="AK64" s="41">
+      <c r="AF65" s="37"/>
+      <c r="AG65" s="37"/>
+      <c r="AH65" s="57"/>
+      <c r="AI65" s="37"/>
+      <c r="AJ65" s="37"/>
+      <c r="AK65" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="8:60" x14ac:dyDescent="0.2">
-      <c r="L65" s="60">
+    <row r="66" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L66" s="56">
         <v>11</v>
       </c>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="41" t="s">
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AE65" s="60" t="s">
+      <c r="AE66" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="AF65" s="40"/>
-      <c r="AG65" s="40"/>
-      <c r="AH65" s="40"/>
-      <c r="AI65" s="40"/>
-      <c r="AJ65" s="40"/>
-      <c r="AK65" s="41" t="s">
+      <c r="AF66" s="37"/>
+      <c r="AG66" s="37"/>
+      <c r="AH66" s="37"/>
+      <c r="AI66" s="37"/>
+      <c r="AJ66" s="37"/>
+      <c r="AK66" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L66" s="60">
+    <row r="67" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L67" s="56">
         <v>12</v>
       </c>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="41" t="s">
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AE66" s="60" t="s">
+      <c r="AE67" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="AF66" s="40"/>
-      <c r="AG66" s="40"/>
-      <c r="AH66" s="40"/>
-      <c r="AI66" s="40"/>
-      <c r="AJ66" s="40"/>
-      <c r="AK66" s="41" t="s">
+      <c r="AF67" s="37"/>
+      <c r="AG67" s="37"/>
+      <c r="AH67" s="37"/>
+      <c r="AI67" s="37"/>
+      <c r="AJ67" s="37"/>
+      <c r="AK67" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="8:60" x14ac:dyDescent="0.2">
-      <c r="L67" s="60">
+    <row r="68" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L68" s="56">
         <v>13</v>
       </c>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="41" t="s">
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="AE67" s="60" t="s">
+      <c r="AE68" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AF67" s="40"/>
-      <c r="AG67" s="40"/>
-      <c r="AH67" s="40"/>
-      <c r="AI67" s="40"/>
-      <c r="AJ67" s="40"/>
-      <c r="AK67" s="41" t="s">
+      <c r="AF68" s="37"/>
+      <c r="AG68" s="37"/>
+      <c r="AH68" s="37"/>
+      <c r="AI68" s="37"/>
+      <c r="AJ68" s="37"/>
+      <c r="AK68" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="BA67" s="18"/>
-      <c r="BB67" s="19"/>
-      <c r="BC67" s="19"/>
-      <c r="BD67" s="19"/>
-      <c r="BE67" s="19"/>
-      <c r="BF67" s="19"/>
-      <c r="BG67" s="19"/>
-      <c r="BH67" s="21"/>
-    </row>
-    <row r="68" spans="8:60" x14ac:dyDescent="0.2">
-      <c r="L68" s="60" t="s">
+      <c r="BA68" s="18"/>
+      <c r="BB68" s="19"/>
+      <c r="BC68" s="19"/>
+      <c r="BD68" s="19"/>
+      <c r="BE68" s="19"/>
+      <c r="BF68" s="19"/>
+      <c r="BG68" s="19"/>
+      <c r="BH68" s="20"/>
+    </row>
+    <row r="69" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L69" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="41" t="s">
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="AE68" s="60" t="s">
+      <c r="AE69" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="AF68" s="40"/>
-      <c r="AG68" s="40"/>
-      <c r="AH68" s="40"/>
-      <c r="AI68" s="40"/>
-      <c r="AJ68" s="40"/>
-      <c r="AK68" s="41" t="s">
+      <c r="AF69" s="37"/>
+      <c r="AG69" s="37"/>
+      <c r="AH69" s="37"/>
+      <c r="AI69" s="37"/>
+      <c r="AJ69" s="37"/>
+      <c r="AK69" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="BA68" s="22"/>
-      <c r="BB68" s="23"/>
-      <c r="BC68" s="23"/>
-      <c r="BD68" s="23"/>
-      <c r="BE68" s="23"/>
-      <c r="BF68" s="23"/>
-      <c r="BG68" s="40"/>
-      <c r="BH68" s="41" t="s">
+      <c r="BA69" s="21"/>
+      <c r="BB69" s="22"/>
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="22"/>
+      <c r="BG69" s="37"/>
+      <c r="BH69" s="38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L69" s="60" t="s">
+    <row r="70" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="41" t="s">
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="AE69" s="63"/>
-      <c r="AF69" s="64"/>
-      <c r="AG69" s="64"/>
-      <c r="AH69" s="64"/>
-      <c r="AI69" s="64"/>
-      <c r="AJ69" s="64"/>
-      <c r="AK69" s="65"/>
-      <c r="BA69" s="22"/>
-      <c r="BB69" s="23"/>
-      <c r="BC69" s="23"/>
-      <c r="BD69" s="23"/>
-      <c r="BE69" s="23"/>
-      <c r="BF69" s="23"/>
-      <c r="BG69" s="40"/>
-      <c r="BH69" s="41" t="s">
+      <c r="AE70" s="59"/>
+      <c r="AF70" s="60"/>
+      <c r="AG70" s="60"/>
+      <c r="AH70" s="60"/>
+      <c r="AI70" s="60"/>
+      <c r="AJ70" s="60"/>
+      <c r="AK70" s="61"/>
+      <c r="BA70" s="21"/>
+      <c r="BB70" s="22"/>
+      <c r="BC70" s="22"/>
+      <c r="BD70" s="22"/>
+      <c r="BE70" s="22"/>
+      <c r="BF70" s="22"/>
+      <c r="BG70" s="37"/>
+      <c r="BH70" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L70" s="63" t="s">
+    <row r="71" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="M70" s="66"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="57" t="s">
+      <c r="M71" s="62"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="P70" s="58"/>
-      <c r="Q70" s="66"/>
-      <c r="R70" s="65" t="s">
+      <c r="P71" s="54"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AG70" s="56"/>
-      <c r="AH70" s="57" t="s">
+      <c r="AG71" s="52"/>
+      <c r="AH71" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="AI70" s="58"/>
-      <c r="BA70" s="22"/>
-      <c r="BB70" s="23"/>
-      <c r="BC70" s="23"/>
-      <c r="BD70" s="23" t="s">
+      <c r="AI71" s="54"/>
+      <c r="BA71" s="21"/>
+      <c r="BB71" s="22"/>
+      <c r="BC71" s="22"/>
+      <c r="BD71" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="BE70" s="23"/>
-      <c r="BF70" s="23"/>
-      <c r="BG70" s="40"/>
-      <c r="BH70" s="41" t="s">
+      <c r="BE71" s="22"/>
+      <c r="BF71" s="22"/>
+      <c r="BG71" s="37"/>
+      <c r="BH71" s="38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="8:60" x14ac:dyDescent="0.2">
-      <c r="BA71" s="22"/>
-      <c r="BB71" s="23"/>
-      <c r="BC71" s="23"/>
-      <c r="BD71" s="23"/>
-      <c r="BE71" s="23"/>
-      <c r="BF71" s="23"/>
-      <c r="BG71" s="40"/>
-      <c r="BH71" s="41" t="s">
+    <row r="72" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="BA72" s="21"/>
+      <c r="BB72" s="22"/>
+      <c r="BC72" s="22"/>
+      <c r="BD72" s="22"/>
+      <c r="BE72" s="22"/>
+      <c r="BF72" s="22"/>
+      <c r="BG72" s="37"/>
+      <c r="BH72" s="38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="BA72" s="22"/>
-      <c r="BB72" s="23"/>
-      <c r="BC72" s="23"/>
-      <c r="BD72" s="23"/>
-      <c r="BE72" s="23"/>
-      <c r="BF72" s="23"/>
-      <c r="BG72" s="40"/>
-      <c r="BH72" s="41" t="s">
+    <row r="73" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BA73" s="21"/>
+      <c r="BB73" s="22"/>
+      <c r="BC73" s="22"/>
+      <c r="BD73" s="22"/>
+      <c r="BE73" s="22"/>
+      <c r="BF73" s="22"/>
+      <c r="BG73" s="37"/>
+      <c r="BH73" s="38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="8:60" x14ac:dyDescent="0.2">
-      <c r="H73" s="84">
+    <row r="74" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="H74" s="80">
         <v>2</v>
       </c>
-      <c r="I73" s="85" t="s">
+      <c r="I74" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="J73" s="85" t="s">
+      <c r="J74" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K73" s="85" t="s">
+      <c r="K74" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="L73" s="85" t="s">
+      <c r="L74" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="85" t="s">
+      <c r="M74" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="N73" s="85" t="s">
+      <c r="N74" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="O73" s="85" t="s">
+      <c r="O74" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="P73" s="85" t="s">
+      <c r="P74" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="Q73" s="85" t="s">
+      <c r="Q74" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="R73" s="85" t="s">
+      <c r="R74" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="S73" s="85" t="s">
+      <c r="S74" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="T73" s="85" t="s">
+      <c r="T74" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="U73" s="86" t="s">
+      <c r="U74" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="BA73" s="22"/>
-      <c r="BB73" s="23"/>
-      <c r="BC73" s="23"/>
-      <c r="BD73" s="23"/>
-      <c r="BE73" s="23"/>
-      <c r="BF73" s="23"/>
-      <c r="BG73" s="40"/>
-      <c r="BH73" s="41" t="s">
+      <c r="BA74" s="21"/>
+      <c r="BB74" s="22"/>
+      <c r="BC74" s="22"/>
+      <c r="BD74" s="22"/>
+      <c r="BE74" s="22"/>
+      <c r="BF74" s="22"/>
+      <c r="BG74" s="37"/>
+      <c r="BH74" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H74" s="87" t="s">
+    <row r="75" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
-      <c r="O74" s="62"/>
-      <c r="P74" s="62"/>
-      <c r="Q74" s="62"/>
-      <c r="R74" s="62"/>
-      <c r="S74" s="62"/>
-      <c r="T74" s="62"/>
-      <c r="U74" s="88"/>
-      <c r="BA74" s="22"/>
-      <c r="BB74" s="23"/>
-      <c r="BC74" s="23"/>
-      <c r="BD74" s="23"/>
-      <c r="BE74" s="23"/>
-      <c r="BF74" s="23"/>
-      <c r="BG74" s="40"/>
-      <c r="BH74" s="41" t="s">
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="58"/>
+      <c r="P75" s="58"/>
+      <c r="Q75" s="58"/>
+      <c r="R75" s="58"/>
+      <c r="S75" s="58"/>
+      <c r="T75" s="58"/>
+      <c r="U75" s="84"/>
+      <c r="BA75" s="21"/>
+      <c r="BB75" s="22"/>
+      <c r="BC75" s="22"/>
+      <c r="BD75" s="22"/>
+      <c r="BE75" s="22"/>
+      <c r="BF75" s="22"/>
+      <c r="BG75" s="37"/>
+      <c r="BH75" s="38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H75" s="87"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
-      <c r="O75" s="62"/>
-      <c r="P75" s="62"/>
-      <c r="Q75" s="62"/>
-      <c r="R75" s="62"/>
-      <c r="S75" s="62"/>
-      <c r="T75" s="62"/>
-      <c r="U75" s="89"/>
-      <c r="BA75" s="27"/>
-      <c r="BB75" s="28"/>
-      <c r="BC75" s="28"/>
-      <c r="BD75" s="28"/>
-      <c r="BE75" s="28"/>
-      <c r="BF75" s="28"/>
-      <c r="BG75" s="28"/>
-      <c r="BH75" s="42"/>
-    </row>
-    <row r="76" spans="8:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H76" s="87"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="61" t="s">
+    <row r="76" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="83"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+      <c r="O76" s="58"/>
+      <c r="P76" s="58"/>
+      <c r="Q76" s="58"/>
+      <c r="R76" s="58"/>
+      <c r="S76" s="58"/>
+      <c r="T76" s="58"/>
+      <c r="U76" s="85"/>
+      <c r="BA76" s="26"/>
+      <c r="BB76" s="27"/>
+      <c r="BC76" s="27"/>
+      <c r="BD76" s="27"/>
+      <c r="BE76" s="27"/>
+      <c r="BF76" s="27"/>
+      <c r="BG76" s="27"/>
+      <c r="BH76" s="39"/>
+    </row>
+    <row r="77" spans="8:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="83"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="58"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="N76" s="62"/>
-      <c r="O76" s="62"/>
-      <c r="P76" s="62"/>
-      <c r="Q76" s="62"/>
-      <c r="R76" s="62"/>
-      <c r="S76" s="62"/>
-      <c r="T76" s="62"/>
-      <c r="U76" s="90" t="s">
+      <c r="N77" s="58"/>
+      <c r="O77" s="58"/>
+      <c r="P77" s="58"/>
+      <c r="Q77" s="58"/>
+      <c r="R77" s="58"/>
+      <c r="S77" s="58"/>
+      <c r="T77" s="58"/>
+      <c r="U77" s="86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H77" s="87">
+    <row r="78" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="83">
         <v>3</v>
       </c>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="62"/>
-      <c r="N77" s="62"/>
-      <c r="O77" s="62"/>
-      <c r="P77" s="62"/>
-      <c r="Q77" s="62"/>
-      <c r="R77" s="62"/>
-      <c r="S77" s="62"/>
-      <c r="T77" s="62"/>
-      <c r="U77" s="91"/>
-    </row>
-    <row r="78" spans="8:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H78" s="87">
+      <c r="I78" s="58"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="58"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="58"/>
+      <c r="Q78" s="58"/>
+      <c r="R78" s="58"/>
+      <c r="S78" s="58"/>
+      <c r="T78" s="58"/>
+      <c r="U78" s="87"/>
+    </row>
+    <row r="79" spans="8:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H79" s="83">
         <v>1</v>
       </c>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="62"/>
-      <c r="O78" s="62"/>
-      <c r="P78" s="62"/>
-      <c r="Q78" s="62"/>
-      <c r="R78" s="62"/>
-      <c r="S78" s="62"/>
-      <c r="T78" s="62"/>
-      <c r="U78" s="88"/>
-      <c r="AY78" s="18"/>
-      <c r="AZ78" s="51" t="s">
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="58"/>
+      <c r="P79" s="58"/>
+      <c r="Q79" s="58"/>
+      <c r="R79" s="58"/>
+      <c r="S79" s="58"/>
+      <c r="T79" s="58"/>
+      <c r="U79" s="84"/>
+      <c r="AY79" s="18"/>
+      <c r="AZ79" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="BA78" s="51" t="s">
+      <c r="BA79" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="BB78" s="51" t="s">
+      <c r="BB79" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="BC78" s="51" t="s">
+      <c r="BC79" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="BD78" s="51" t="s">
+      <c r="BD79" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="BE78" s="51" t="s">
+      <c r="BE79" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="BF78" s="51" t="s">
+      <c r="BF79" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="BG78" s="21"/>
-    </row>
-    <row r="79" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H79" s="92" t="s">
+      <c r="BG79" s="20"/>
+    </row>
+    <row r="80" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="I79" s="66" t="s">
+      <c r="I80" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J79" s="66" t="s">
+      <c r="J80" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="K79" s="66" t="s">
+      <c r="K80" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="L79" s="66">
+      <c r="L80" s="62">
         <v>5</v>
       </c>
-      <c r="M79" s="66">
+      <c r="M80" s="62">
         <v>7</v>
       </c>
-      <c r="N79" s="66">
+      <c r="N80" s="62">
         <v>9</v>
       </c>
-      <c r="O79" s="66">
+      <c r="O80" s="62">
         <v>10</v>
       </c>
-      <c r="P79" s="66">
+      <c r="P80" s="62">
         <v>11</v>
       </c>
-      <c r="Q79" s="66">
+      <c r="Q80" s="62">
         <v>12</v>
       </c>
-      <c r="R79" s="66">
+      <c r="R80" s="62">
         <v>13</v>
       </c>
-      <c r="S79" s="66" t="s">
+      <c r="S80" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="T79" s="66" t="s">
+      <c r="T80" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="U79" s="93" t="s">
+      <c r="U80" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="AC79" s="14"/>
-      <c r="AD79" s="14"/>
-      <c r="AE79" s="14"/>
-      <c r="AF79" s="14"/>
-      <c r="AG79" s="14"/>
-      <c r="AH79" s="14"/>
-      <c r="AI79" s="14"/>
-      <c r="AJ79" s="14"/>
-      <c r="AK79" s="14"/>
-      <c r="AL79" s="14"/>
-      <c r="AM79" s="14"/>
-      <c r="AN79" s="14"/>
-      <c r="AO79" s="14"/>
-      <c r="AP79" s="14"/>
-      <c r="AQ79" s="14"/>
-      <c r="AR79" s="14"/>
-      <c r="AY79" s="22"/>
-      <c r="AZ79" s="23"/>
-      <c r="BA79" s="23"/>
-      <c r="BB79" s="23"/>
-      <c r="BC79" s="23"/>
-      <c r="BD79" s="23"/>
-      <c r="BE79" s="23"/>
-      <c r="BF79" s="23"/>
-      <c r="BG79" s="26"/>
-    </row>
-    <row r="80" spans="8:60" x14ac:dyDescent="0.2">
       <c r="AC80" s="14"/>
       <c r="AD80" s="14"/>
-      <c r="AE80" s="97"/>
-      <c r="AF80" s="97"/>
-      <c r="AG80" s="97"/>
-      <c r="AH80" s="97"/>
-      <c r="AI80" s="97"/>
-      <c r="AJ80" s="97"/>
-      <c r="AK80" s="97"/>
-      <c r="AL80" s="97"/>
-      <c r="AM80" s="97"/>
-      <c r="AN80" s="97"/>
-      <c r="AO80" s="97"/>
-      <c r="AP80" s="97"/>
-      <c r="AQ80" s="97"/>
-      <c r="AR80" s="97"/>
-      <c r="AY80" s="22"/>
-      <c r="AZ80" s="23"/>
-      <c r="BA80" s="23"/>
-      <c r="BB80" s="23"/>
-      <c r="BC80" s="23"/>
-      <c r="BD80" s="23"/>
-      <c r="BE80" s="23"/>
-      <c r="BF80" s="23"/>
-      <c r="BG80" s="26"/>
-    </row>
-    <row r="81" spans="8:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE80" s="14"/>
+      <c r="AF80" s="14"/>
+      <c r="AG80" s="14"/>
+      <c r="AH80" s="14"/>
+      <c r="AI80" s="14"/>
+      <c r="AJ80" s="14"/>
+      <c r="AK80" s="14"/>
+      <c r="AL80" s="14"/>
+      <c r="AM80" s="14"/>
+      <c r="AN80" s="14"/>
+      <c r="AO80" s="14"/>
+      <c r="AP80" s="14"/>
+      <c r="AQ80" s="14"/>
+      <c r="AR80" s="14"/>
+      <c r="AY80" s="21"/>
+      <c r="AZ80" s="22"/>
+      <c r="BA80" s="22"/>
+      <c r="BB80" s="22"/>
+      <c r="BC80" s="22"/>
+      <c r="BD80" s="22"/>
+      <c r="BE80" s="22"/>
+      <c r="BF80" s="22"/>
+      <c r="BG80" s="25"/>
+    </row>
+    <row r="81" spans="8:61" x14ac:dyDescent="0.2">
       <c r="AC81" s="14"/>
       <c r="AD81" s="14"/>
-      <c r="AE81" s="49"/>
-      <c r="AF81" s="49"/>
-      <c r="AG81" s="49"/>
-      <c r="AH81" s="49"/>
-      <c r="AI81" s="49"/>
-      <c r="AJ81" s="49"/>
-      <c r="AK81" s="49"/>
-      <c r="AL81" s="49"/>
-      <c r="AM81" s="49"/>
-      <c r="AN81" s="49"/>
-      <c r="AO81" s="49"/>
-      <c r="AP81" s="49"/>
-      <c r="AQ81" s="49"/>
-      <c r="AR81" s="94"/>
-      <c r="AY81" s="22"/>
-      <c r="AZ81" s="23"/>
-      <c r="BA81" s="23"/>
-      <c r="BB81" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC81" s="23"/>
-      <c r="BD81" s="23"/>
-      <c r="BE81" s="23"/>
-      <c r="BF81" s="23"/>
-      <c r="BG81" s="26"/>
-    </row>
-    <row r="82" spans="8:59" x14ac:dyDescent="0.2">
-      <c r="H82" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="I82" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="J82" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="K82" s="85">
-        <v>13</v>
-      </c>
-      <c r="L82" s="85">
-        <v>12</v>
-      </c>
-      <c r="M82" s="85">
-        <v>11</v>
-      </c>
-      <c r="N82" s="85">
-        <v>10</v>
-      </c>
-      <c r="O82" s="85">
-        <v>9</v>
-      </c>
-      <c r="P82" s="85">
-        <v>7</v>
-      </c>
-      <c r="Q82" s="85">
-        <v>5</v>
-      </c>
-      <c r="R82" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="S82" s="85" t="s">
-        <v>97</v>
-      </c>
-      <c r="T82" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="U82" s="86" t="s">
-        <v>74</v>
-      </c>
+      <c r="AE81" s="93"/>
+      <c r="AF81" s="93"/>
+      <c r="AG81" s="93"/>
+      <c r="AH81" s="93"/>
+      <c r="AI81" s="93"/>
+      <c r="AJ81" s="93"/>
+      <c r="AK81" s="93"/>
+      <c r="AL81" s="93"/>
+      <c r="AM81" s="93"/>
+      <c r="AN81" s="93"/>
+      <c r="AO81" s="93"/>
+      <c r="AP81" s="93"/>
+      <c r="AQ81" s="93"/>
+      <c r="AR81" s="93"/>
+      <c r="AY81" s="21"/>
+      <c r="AZ81" s="22"/>
+      <c r="BA81" s="22"/>
+      <c r="BB81" s="22"/>
+      <c r="BC81" s="22"/>
+      <c r="BD81" s="22"/>
+      <c r="BE81" s="22"/>
+      <c r="BF81" s="22"/>
+      <c r="BG81" s="25"/>
+    </row>
+    <row r="82" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AC82" s="14"/>
       <c r="AD82" s="14"/>
-      <c r="AE82" s="14"/>
-      <c r="AF82" s="49"/>
-      <c r="AG82" s="49"/>
-      <c r="AH82" s="49"/>
-      <c r="AI82" s="49"/>
-      <c r="AJ82" s="14"/>
-      <c r="AK82" s="49"/>
-      <c r="AL82" s="49"/>
-      <c r="AM82" s="49"/>
-      <c r="AN82" s="49"/>
-      <c r="AO82" s="49"/>
-      <c r="AP82" s="49"/>
-      <c r="AQ82" s="49"/>
-      <c r="AR82" s="94"/>
-      <c r="AY82" s="22"/>
-      <c r="AZ82" s="23"/>
-      <c r="BA82" s="23"/>
-      <c r="BB82" s="23"/>
-      <c r="BC82" s="23"/>
-      <c r="BD82" s="23"/>
-      <c r="BE82" s="23"/>
-      <c r="BF82" s="23"/>
-      <c r="BG82" s="26"/>
-    </row>
-    <row r="83" spans="8:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H83" s="87"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
-      <c r="R83" s="62"/>
-      <c r="S83" s="62"/>
-      <c r="T83" s="62"/>
-      <c r="U83" s="88">
-        <v>4</v>
-      </c>
-      <c r="V83" s="23"/>
-      <c r="W83" s="23"/>
-      <c r="X83" s="23"/>
-      <c r="Y83" s="23"/>
-      <c r="Z83" s="23"/>
-      <c r="AA83" s="23"/>
-      <c r="AB83" s="23"/>
+      <c r="AE82" s="45"/>
+      <c r="AF82" s="45"/>
+      <c r="AG82" s="45"/>
+      <c r="AH82" s="45"/>
+      <c r="AI82" s="45"/>
+      <c r="AJ82" s="45"/>
+      <c r="AK82" s="45"/>
+      <c r="AL82" s="45"/>
+      <c r="AM82" s="45"/>
+      <c r="AN82" s="45"/>
+      <c r="AO82" s="45"/>
+      <c r="AP82" s="45"/>
+      <c r="AQ82" s="45"/>
+      <c r="AR82" s="90"/>
+      <c r="AY82" s="21"/>
+      <c r="AZ82" s="22"/>
+      <c r="BA82" s="22"/>
+      <c r="BB82" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC82" s="22"/>
+      <c r="BD82" s="22"/>
+      <c r="BE82" s="22"/>
+      <c r="BF82" s="22"/>
+      <c r="BG82" s="25"/>
+    </row>
+    <row r="83" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="H83" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="I83" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="J83" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="K83" s="81">
+        <v>13</v>
+      </c>
+      <c r="L83" s="81">
+        <v>12</v>
+      </c>
+      <c r="M83" s="81">
+        <v>11</v>
+      </c>
+      <c r="N83" s="81">
+        <v>10</v>
+      </c>
+      <c r="O83" s="81">
+        <v>9</v>
+      </c>
+      <c r="P83" s="81">
+        <v>7</v>
+      </c>
+      <c r="Q83" s="81">
+        <v>5</v>
+      </c>
+      <c r="R83" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="S83" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="T83" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="U83" s="82" t="s">
+        <v>74</v>
+      </c>
       <c r="AC83" s="14"/>
       <c r="AD83" s="14"/>
-      <c r="AE83" s="30"/>
-      <c r="AF83" s="49"/>
-      <c r="AG83" s="49"/>
-      <c r="AH83" s="49"/>
-      <c r="AI83" s="49"/>
-      <c r="AJ83" s="98"/>
-      <c r="AK83" s="49"/>
-      <c r="AL83" s="49"/>
-      <c r="AM83" s="49"/>
-      <c r="AN83" s="49"/>
-      <c r="AO83" s="49"/>
-      <c r="AP83" s="49"/>
-      <c r="AQ83" s="49"/>
-      <c r="AR83" s="94"/>
-      <c r="AY83" s="22"/>
-      <c r="AZ83" s="23"/>
-      <c r="BA83" s="23"/>
-      <c r="BB83" s="23"/>
-      <c r="BC83" s="23"/>
-      <c r="BD83" s="23"/>
-      <c r="BE83" s="23"/>
-      <c r="BF83" s="23"/>
-      <c r="BG83" s="26"/>
-    </row>
-    <row r="84" spans="8:59" x14ac:dyDescent="0.2">
-      <c r="H84" s="89"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="62"/>
-      <c r="P84" s="62"/>
-      <c r="Q84" s="62"/>
-      <c r="R84" s="62"/>
-      <c r="S84" s="62"/>
-      <c r="T84" s="62"/>
-      <c r="U84" s="95">
+      <c r="AE83" s="14"/>
+      <c r="AF83" s="45"/>
+      <c r="AG83" s="45"/>
+      <c r="AH83" s="45"/>
+      <c r="AI83" s="45"/>
+      <c r="AJ83" s="14"/>
+      <c r="AK83" s="45"/>
+      <c r="AL83" s="45"/>
+      <c r="AM83" s="45"/>
+      <c r="AN83" s="45"/>
+      <c r="AO83" s="45"/>
+      <c r="AP83" s="45"/>
+      <c r="AQ83" s="45"/>
+      <c r="AR83" s="90"/>
+      <c r="AY83" s="21"/>
+      <c r="AZ83" s="22"/>
+      <c r="BA83" s="22"/>
+      <c r="BB83" s="22"/>
+      <c r="BC83" s="22"/>
+      <c r="BD83" s="22"/>
+      <c r="BE83" s="22"/>
+      <c r="BF83" s="22"/>
+      <c r="BG83" s="25"/>
+    </row>
+    <row r="84" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="83"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="58"/>
+      <c r="L84" s="58"/>
+      <c r="M84" s="58"/>
+      <c r="N84" s="58"/>
+      <c r="O84" s="58"/>
+      <c r="P84" s="58"/>
+      <c r="Q84" s="58"/>
+      <c r="R84" s="58"/>
+      <c r="S84" s="58"/>
+      <c r="T84" s="58"/>
+      <c r="U84" s="84">
+        <v>4</v>
+      </c>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="14"/>
+      <c r="AD84" s="14"/>
+      <c r="AE84" s="29"/>
+      <c r="AF84" s="45"/>
+      <c r="AG84" s="45"/>
+      <c r="AH84" s="45"/>
+      <c r="AI84" s="45"/>
+      <c r="AJ84" s="94"/>
+      <c r="AK84" s="45"/>
+      <c r="AL84" s="45"/>
+      <c r="AM84" s="45"/>
+      <c r="AN84" s="45"/>
+      <c r="AO84" s="45"/>
+      <c r="AP84" s="45"/>
+      <c r="AQ84" s="45"/>
+      <c r="AR84" s="90"/>
+      <c r="AY84" s="21"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
+      <c r="BB84" s="22"/>
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
+      <c r="BF84" s="22"/>
+      <c r="BG84" s="25"/>
+    </row>
+    <row r="85" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="H85" s="85"/>
+      <c r="I85" s="58"/>
+      <c r="J85" s="58"/>
+      <c r="K85" s="58"/>
+      <c r="L85" s="58"/>
+      <c r="M85" s="58"/>
+      <c r="N85" s="58"/>
+      <c r="O85" s="58"/>
+      <c r="P85" s="58"/>
+      <c r="Q85" s="58"/>
+      <c r="R85" s="58"/>
+      <c r="S85" s="58"/>
+      <c r="T85" s="58"/>
+      <c r="U85" s="91">
         <v>3</v>
       </c>
-      <c r="V84" s="23"/>
-      <c r="W84" s="67"/>
-      <c r="X84" s="67"/>
-      <c r="Y84" s="67"/>
-      <c r="Z84" s="67"/>
-      <c r="AA84" s="67"/>
-      <c r="AB84" s="67"/>
-      <c r="AC84" s="97"/>
-      <c r="AD84" s="97"/>
-      <c r="AE84" s="14"/>
-      <c r="AF84" s="49"/>
-      <c r="AG84" s="49"/>
-      <c r="AH84" s="49"/>
-      <c r="AI84" s="49"/>
-      <c r="AJ84" s="49"/>
-      <c r="AK84" s="49"/>
-      <c r="AL84" s="49"/>
-      <c r="AM84" s="49"/>
-      <c r="AN84" s="49"/>
-      <c r="AO84" s="49"/>
-      <c r="AP84" s="49"/>
-      <c r="AQ84" s="49"/>
-      <c r="AR84" s="94"/>
-      <c r="AY84" s="22"/>
-      <c r="AZ84" s="23"/>
-      <c r="BA84" s="23"/>
-      <c r="BB84" s="23"/>
-      <c r="BC84" s="23"/>
-      <c r="BD84" s="23"/>
-      <c r="BE84" s="23"/>
-      <c r="BF84" s="23"/>
-      <c r="BG84" s="26"/>
-    </row>
-    <row r="85" spans="8:59" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H85" s="90" t="s">
+      <c r="V85" s="22"/>
+      <c r="W85" s="63"/>
+      <c r="X85" s="63"/>
+      <c r="Y85" s="63"/>
+      <c r="Z85" s="63"/>
+      <c r="AA85" s="63"/>
+      <c r="AB85" s="63"/>
+      <c r="AC85" s="93"/>
+      <c r="AD85" s="93"/>
+      <c r="AE85" s="14"/>
+      <c r="AF85" s="45"/>
+      <c r="AG85" s="45"/>
+      <c r="AH85" s="45"/>
+      <c r="AI85" s="45"/>
+      <c r="AJ85" s="45"/>
+      <c r="AK85" s="45"/>
+      <c r="AL85" s="45"/>
+      <c r="AM85" s="45"/>
+      <c r="AN85" s="45"/>
+      <c r="AO85" s="45"/>
+      <c r="AP85" s="45"/>
+      <c r="AQ85" s="45"/>
+      <c r="AR85" s="90"/>
+      <c r="AY85" s="21"/>
+      <c r="AZ85" s="22"/>
+      <c r="BA85" s="22"/>
+      <c r="BB85" s="22"/>
+      <c r="BC85" s="22"/>
+      <c r="BD85" s="22"/>
+      <c r="BE85" s="22"/>
+      <c r="BF85" s="22"/>
+      <c r="BG85" s="25"/>
+    </row>
+    <row r="86" spans="8:61" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61" t="s">
+      <c r="I86" s="58"/>
+      <c r="J86" s="58"/>
+      <c r="K86" s="58"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="N85" s="62"/>
-      <c r="O85" s="62"/>
-      <c r="P85" s="62"/>
-      <c r="Q85" s="62"/>
-      <c r="R85" s="62"/>
-      <c r="S85" s="62"/>
-      <c r="T85" s="62"/>
-      <c r="U85" s="96"/>
-      <c r="V85" s="23"/>
-      <c r="W85" s="23"/>
-      <c r="X85" s="23"/>
-      <c r="Y85" s="23"/>
-      <c r="Z85" s="23"/>
-      <c r="AA85" s="23"/>
-      <c r="AB85" s="23"/>
-      <c r="AC85" s="14"/>
-      <c r="AD85" s="14"/>
-      <c r="AE85" s="49"/>
-      <c r="AF85" s="49"/>
-      <c r="AG85" s="49"/>
-      <c r="AH85" s="49"/>
-      <c r="AI85" s="49"/>
-      <c r="AJ85" s="49"/>
-      <c r="AK85" s="49"/>
-      <c r="AL85" s="49"/>
-      <c r="AM85" s="49"/>
-      <c r="AN85" s="49"/>
-      <c r="AO85" s="49"/>
-      <c r="AP85" s="49"/>
-      <c r="AQ85" s="49"/>
-      <c r="AR85" s="94"/>
-      <c r="AY85" s="27"/>
-      <c r="AZ85" s="28"/>
-      <c r="BA85" s="28"/>
-      <c r="BB85" s="28"/>
-      <c r="BC85" s="28"/>
-      <c r="BD85" s="28"/>
-      <c r="BE85" s="28"/>
-      <c r="BF85" s="28"/>
-      <c r="BG85" s="32"/>
-    </row>
-    <row r="86" spans="8:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H86" s="91"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
-      <c r="O86" s="62"/>
-      <c r="P86" s="62"/>
-      <c r="Q86" s="62"/>
-      <c r="R86" s="62"/>
-      <c r="S86" s="62"/>
-      <c r="T86" s="62"/>
-      <c r="U86" s="95"/>
-      <c r="V86" s="23"/>
-      <c r="W86" s="23"/>
-      <c r="X86" s="23"/>
-      <c r="Y86" s="23"/>
-      <c r="Z86" s="23"/>
-      <c r="AA86" s="23"/>
-      <c r="AB86" s="23"/>
+      <c r="N86" s="58"/>
+      <c r="O86" s="58"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="58"/>
+      <c r="R86" s="58"/>
+      <c r="S86" s="58"/>
+      <c r="T86" s="58"/>
+      <c r="U86" s="92"/>
+      <c r="V86" s="22"/>
+      <c r="W86" s="22"/>
+      <c r="X86" s="22"/>
+      <c r="Y86" s="22"/>
+      <c r="Z86" s="22"/>
+      <c r="AA86" s="22"/>
+      <c r="AB86" s="22"/>
       <c r="AC86" s="14"/>
       <c r="AD86" s="14"/>
-      <c r="AE86" s="72"/>
-      <c r="AF86" s="72"/>
-      <c r="AG86" s="72"/>
-      <c r="AH86" s="72"/>
-      <c r="AI86" s="72"/>
-      <c r="AJ86" s="72"/>
-      <c r="AK86" s="72"/>
-      <c r="AL86" s="72"/>
-      <c r="AM86" s="72"/>
-      <c r="AN86" s="72"/>
-      <c r="AO86" s="72"/>
-      <c r="AP86" s="72"/>
-      <c r="AQ86" s="72"/>
-      <c r="AR86" s="72"/>
-    </row>
-    <row r="87" spans="8:59" x14ac:dyDescent="0.2">
+      <c r="AE86" s="45"/>
+      <c r="AF86" s="45"/>
+      <c r="AG86" s="45"/>
+      <c r="AH86" s="45"/>
+      <c r="AI86" s="45"/>
+      <c r="AJ86" s="45"/>
+      <c r="AK86" s="45"/>
+      <c r="AL86" s="45"/>
+      <c r="AM86" s="45"/>
+      <c r="AN86" s="45"/>
+      <c r="AO86" s="45"/>
+      <c r="AP86" s="45"/>
+      <c r="AQ86" s="45"/>
+      <c r="AR86" s="90"/>
+      <c r="AY86" s="26"/>
+      <c r="AZ86" s="27"/>
+      <c r="BA86" s="27"/>
+      <c r="BB86" s="27"/>
+      <c r="BC86" s="27"/>
+      <c r="BD86" s="27"/>
+      <c r="BE86" s="27"/>
+      <c r="BF86" s="27"/>
+      <c r="BG86" s="31"/>
+    </row>
+    <row r="87" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H87" s="87"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
-      <c r="M87" s="62"/>
-      <c r="N87" s="62"/>
-      <c r="O87" s="62"/>
-      <c r="P87" s="62"/>
-      <c r="Q87" s="62"/>
-      <c r="R87" s="62"/>
-      <c r="S87" s="62"/>
-      <c r="T87" s="62"/>
-      <c r="U87" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="V87" s="23"/>
-      <c r="W87" s="23"/>
-      <c r="X87" s="23"/>
-      <c r="Y87" s="23"/>
-      <c r="Z87" s="23"/>
-      <c r="AA87" s="23"/>
-      <c r="AB87" s="23"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="58"/>
+      <c r="M87" s="58"/>
+      <c r="N87" s="58"/>
+      <c r="O87" s="58"/>
+      <c r="P87" s="58"/>
+      <c r="Q87" s="58"/>
+      <c r="R87" s="58"/>
+      <c r="S87" s="58"/>
+      <c r="T87" s="58"/>
+      <c r="U87" s="91"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22"/>
+      <c r="X87" s="22"/>
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="22"/>
+      <c r="AA87" s="22"/>
+      <c r="AB87" s="22"/>
       <c r="AC87" s="14"/>
       <c r="AD87" s="14"/>
-      <c r="AE87" s="14"/>
-      <c r="AF87" s="14"/>
-      <c r="AG87" s="14"/>
-      <c r="AH87" s="14"/>
-      <c r="AI87" s="14"/>
-      <c r="AJ87" s="14"/>
-      <c r="AK87" s="14"/>
-      <c r="AL87" s="14"/>
-      <c r="AM87" s="14"/>
-      <c r="AN87" s="14"/>
-      <c r="AO87" s="14"/>
-      <c r="AP87" s="14"/>
-      <c r="AQ87" s="14"/>
-      <c r="AR87" s="14"/>
-    </row>
-    <row r="88" spans="8:59" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H88" s="92" t="s">
+      <c r="AE87" s="68"/>
+      <c r="AF87" s="68"/>
+      <c r="AG87" s="68"/>
+      <c r="AH87" s="68"/>
+      <c r="AI87" s="68"/>
+      <c r="AJ87" s="68"/>
+      <c r="AK87" s="68"/>
+      <c r="AL87" s="68"/>
+      <c r="AM87" s="68"/>
+      <c r="AN87" s="68"/>
+      <c r="AO87" s="68"/>
+      <c r="AP87" s="68"/>
+      <c r="AQ87" s="68"/>
+      <c r="AR87" s="68"/>
+    </row>
+    <row r="88" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="83"/>
+      <c r="I88" s="58"/>
+      <c r="J88" s="58"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="58"/>
+      <c r="O88" s="58"/>
+      <c r="P88" s="58"/>
+      <c r="Q88" s="58"/>
+      <c r="R88" s="58"/>
+      <c r="S88" s="58"/>
+      <c r="T88" s="58"/>
+      <c r="U88" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="22"/>
+      <c r="AA88" s="22"/>
+      <c r="AB88" s="22"/>
+      <c r="AC88" s="14"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="14"/>
+      <c r="AF88" s="14"/>
+      <c r="AG88" s="14"/>
+      <c r="AH88" s="14"/>
+      <c r="AI88" s="14"/>
+      <c r="AJ88" s="14"/>
+      <c r="AK88" s="14"/>
+      <c r="AL88" s="14"/>
+      <c r="AM88" s="14"/>
+      <c r="AN88" s="14"/>
+      <c r="AO88" s="14"/>
+      <c r="AP88" s="14"/>
+      <c r="AQ88" s="14"/>
+      <c r="AR88" s="14"/>
+    </row>
+    <row r="89" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="I88" s="66" t="s">
+      <c r="I89" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="J88" s="66" t="s">
+      <c r="J89" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="K88" s="66" t="s">
+      <c r="K89" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="L88" s="66" t="s">
+      <c r="L89" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="M88" s="66" t="s">
+      <c r="M89" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="N88" s="66" t="s">
+      <c r="N89" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="O88" s="66" t="s">
+      <c r="O89" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="P88" s="66" t="s">
+      <c r="P89" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="Q88" s="66" t="s">
+      <c r="Q89" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="R88" s="66" t="s">
+      <c r="R89" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="S88" s="66" t="s">
+      <c r="S89" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="T88" s="66" t="s">
+      <c r="T89" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="U88" s="93">
+      <c r="U89" s="89">
         <v>2</v>
       </c>
-      <c r="V88" s="23"/>
-      <c r="W88" s="23"/>
-      <c r="X88" s="23"/>
-      <c r="Y88" s="23"/>
-      <c r="Z88" s="23"/>
-      <c r="AA88" s="23"/>
-      <c r="AB88" s="23"/>
-      <c r="AC88" s="23"/>
-      <c r="AD88" s="23"/>
-      <c r="AE88" s="23"/>
-      <c r="AF88" s="23"/>
-      <c r="AG88" s="23"/>
-      <c r="AH88" s="23"/>
-      <c r="AI88" s="23"/>
-      <c r="AJ88" s="23"/>
-      <c r="AK88" s="23"/>
-      <c r="AL88" s="23"/>
-    </row>
-    <row r="89" spans="8:59" x14ac:dyDescent="0.2">
-      <c r="V89" s="23"/>
-      <c r="W89" s="68"/>
-      <c r="X89" s="68"/>
-      <c r="Y89" s="68"/>
-      <c r="Z89" s="68"/>
-      <c r="AA89" s="68"/>
-      <c r="AB89" s="68"/>
-      <c r="AC89" s="68"/>
-      <c r="AD89" s="68"/>
-      <c r="AE89" s="68"/>
-      <c r="AF89" s="68"/>
-      <c r="AG89" s="68"/>
-      <c r="AH89" s="68"/>
-      <c r="AI89" s="68"/>
-      <c r="AJ89" s="68"/>
-      <c r="AK89" s="23"/>
-      <c r="AL89" s="23"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+      <c r="X89" s="22"/>
+      <c r="Y89" s="22"/>
+      <c r="Z89" s="22"/>
+      <c r="AA89" s="22"/>
+      <c r="AB89" s="22"/>
+      <c r="AC89" s="22"/>
+      <c r="AD89" s="22"/>
+      <c r="AE89" s="22"/>
+      <c r="AF89" s="22"/>
+      <c r="AG89" s="22"/>
+      <c r="AH89" s="22"/>
+      <c r="AI89" s="22"/>
+      <c r="AJ89" s="22"/>
+      <c r="AK89" s="22"/>
+      <c r="AL89" s="22"/>
+      <c r="BB89" s="18"/>
+      <c r="BC89" s="19"/>
+      <c r="BD89" s="19"/>
+      <c r="BE89" s="19"/>
+      <c r="BF89" s="19"/>
+      <c r="BG89" s="19"/>
+      <c r="BH89" s="19"/>
+      <c r="BI89" s="20"/>
+    </row>
+    <row r="90" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="V90" s="22"/>
+      <c r="W90" s="64"/>
+      <c r="X90" s="64"/>
+      <c r="Y90" s="64"/>
+      <c r="Z90" s="64"/>
+      <c r="AA90" s="64"/>
+      <c r="AB90" s="64"/>
+      <c r="AC90" s="64"/>
+      <c r="AD90" s="64"/>
+      <c r="AE90" s="64"/>
+      <c r="AF90" s="64"/>
+      <c r="AG90" s="64"/>
+      <c r="AH90" s="64"/>
+      <c r="AI90" s="64"/>
+      <c r="AJ90" s="64"/>
+      <c r="AK90" s="22"/>
+      <c r="AL90" s="22"/>
+      <c r="BB90" s="21"/>
+      <c r="BC90" s="22"/>
+      <c r="BD90" s="22"/>
+      <c r="BE90" s="22"/>
+      <c r="BF90" s="22"/>
+      <c r="BG90" s="22"/>
+      <c r="BH90" s="37"/>
+      <c r="BI90" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="BB91" s="21"/>
+      <c r="BC91" s="22"/>
+      <c r="BD91" s="22"/>
+      <c r="BE91" s="22"/>
+      <c r="BF91" s="22"/>
+      <c r="BG91" s="22"/>
+      <c r="BH91" s="37"/>
+      <c r="BI91" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="BB92" s="21"/>
+      <c r="BC92" s="22"/>
+      <c r="BD92" s="22"/>
+      <c r="BE92" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF92" s="22"/>
+      <c r="BG92" s="22"/>
+      <c r="BH92" s="37"/>
+      <c r="BI92" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="BB93" s="21"/>
+      <c r="BC93" s="22"/>
+      <c r="BD93" s="22"/>
+      <c r="BE93" s="22"/>
+      <c r="BF93" s="22"/>
+      <c r="BG93" s="22"/>
+      <c r="BH93" s="37"/>
+      <c r="BI93" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="BB94" s="21"/>
+      <c r="BC94" s="22"/>
+      <c r="BD94" s="22"/>
+      <c r="BE94" s="22"/>
+      <c r="BF94" s="22"/>
+      <c r="BG94" s="22"/>
+      <c r="BH94" s="37"/>
+      <c r="BI94" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="BB95" s="21"/>
+      <c r="BC95" s="22"/>
+      <c r="BD95" s="22"/>
+      <c r="BE95" s="22"/>
+      <c r="BF95" s="22"/>
+      <c r="BG95" s="22"/>
+      <c r="BH95" s="37"/>
+      <c r="BI95" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="BB96" s="21"/>
+      <c r="BC96" s="22"/>
+      <c r="BD96" s="22"/>
+      <c r="BE96" s="22"/>
+      <c r="BF96" s="22"/>
+      <c r="BG96" s="22"/>
+      <c r="BH96" s="37"/>
+      <c r="BI96" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="54:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB97" s="26"/>
+      <c r="BC97" s="27"/>
+      <c r="BD97" s="27"/>
+      <c r="BE97" s="27"/>
+      <c r="BF97" s="27"/>
+      <c r="BG97" s="27"/>
+      <c r="BH97" s="27"/>
+      <c r="BI97" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="6" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="14" max="18" width="3.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C2" s="11">
         <v>7</v>
       </c>
@@ -5511,7 +5913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C3" s="11">
         <v>3</v>
       </c>
@@ -5528,8 +5930,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -5546,7 +5948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>4</v>
       </c>
@@ -5563,7 +5965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>7</v>
       </c>
@@ -5580,7 +5982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:22" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5595,6 +5997,197 @@
       </c>
       <c r="H8" s="10">
         <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:22" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P12" s="108"/>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="N13" s="109">
+        <v>1</v>
+      </c>
+      <c r="O13" s="110">
+        <v>3</v>
+      </c>
+      <c r="P13" s="110">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="110">
+        <v>7</v>
+      </c>
+      <c r="R13" s="111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="112">
+        <v>2</v>
+      </c>
+      <c r="O14" s="113">
+        <v>4</v>
+      </c>
+      <c r="P14" s="113">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="113">
+        <v>8</v>
+      </c>
+      <c r="R14" s="114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>138</v>
+      </c>
+      <c r="T16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U16" t="s">
+        <v>139</v>
+      </c>
+      <c r="V16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S17" s="115">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>127</v>
+      </c>
+      <c r="V17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S18" s="115">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s">
+        <v>128</v>
+      </c>
+      <c r="V18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S19" s="115">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s">
+        <v>129</v>
+      </c>
+      <c r="V19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S20" s="115">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s">
+        <v>130</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S21" s="115">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S22" s="115">
+        <v>6</v>
+      </c>
+      <c r="T22" t="s">
+        <v>132</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S23" s="115">
+        <v>7</v>
+      </c>
+      <c r="T23" t="s">
+        <v>133</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S24" s="115">
+        <v>8</v>
+      </c>
+      <c r="T24" t="s">
+        <v>134</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S25" s="115">
+        <v>9</v>
+      </c>
+      <c r="T25" t="s">
+        <v>135</v>
+      </c>
+      <c r="U25">
+        <v>6</v>
+      </c>
+      <c r="V25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="S26" s="115">
+        <v>10</v>
+      </c>
+      <c r="T26" t="s">
+        <v>136</v>
+      </c>
+      <c r="U26">
+        <v>7</v>
+      </c>
+      <c r="V26" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5604,7 +6197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5944,11 +6537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:BA1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dev_doc/konnekting_codelock.xlsx
+++ b/dev_doc/konnekting_codelock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="4ch  - 2ch" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="PCB Layout" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4ch  - 2ch'!$F$8:$AI$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4ch  - 2ch'!$F$27:$AI$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="158">
   <si>
     <t>*</t>
   </si>
@@ -539,7 +539,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,19 +572,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +904,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1120,9 +1132,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1166,16 +1175,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1198,6 +1204,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1509,10 +1544,10 @@
   <sheetPr codeName="Tabelle12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BS97"/>
+  <dimension ref="B1:BS116"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:AI22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AQ33" sqref="AQ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2178,22 +2213,22 @@
       <c r="I9" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="121">
+      <c r="J9" s="141">
         <v>13</v>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="115">
         <v>12</v>
       </c>
-      <c r="L9" s="101">
+      <c r="L9" s="115">
         <v>11</v>
       </c>
-      <c r="M9" s="101">
+      <c r="M9" s="115">
         <v>10</v>
       </c>
-      <c r="N9" s="101">
+      <c r="N9" s="136">
         <v>9</v>
       </c>
-      <c r="O9" s="121">
+      <c r="O9" s="115">
         <v>7</v>
       </c>
       <c r="P9" s="81">
@@ -2205,10 +2240,10 @@
       <c r="R9" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="81" t="s">
+      <c r="S9" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="T9" s="82" t="s">
+      <c r="T9" s="142" t="s">
         <v>74</v>
       </c>
       <c r="U9" s="32"/>
@@ -2216,10 +2251,10 @@
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="124"/>
       <c r="AD9" s="76"/>
       <c r="AE9" s="76"/>
       <c r="AF9" s="76"/>
@@ -2395,7 +2430,7 @@
       <c r="BD11" s="14"/>
       <c r="BE11" s="14"/>
       <c r="BF11" s="14"/>
-      <c r="BG11" s="125" t="s">
+      <c r="BG11" s="123" t="s">
         <v>88</v>
       </c>
       <c r="BH11" s="14"/>
@@ -2468,7 +2503,7 @@
       <c r="BD12" s="14"/>
       <c r="BE12" s="14"/>
       <c r="BF12" s="14"/>
-      <c r="BG12" s="122" t="s">
+      <c r="BG12" s="120" t="s">
         <v>118</v>
       </c>
       <c r="BH12" s="14"/>
@@ -2538,7 +2573,7 @@
       <c r="BD13" s="14"/>
       <c r="BE13" s="14"/>
       <c r="BF13" s="14"/>
-      <c r="BG13" s="122" t="s">
+      <c r="BG13" s="120" t="s">
         <v>119</v>
       </c>
       <c r="BH13" s="14"/>
@@ -2592,7 +2627,7 @@
       <c r="AF14" s="78"/>
       <c r="AG14" s="73"/>
       <c r="AH14" s="73"/>
-      <c r="AI14" s="127"/>
+      <c r="AI14" s="125"/>
       <c r="AJ14" s="29"/>
       <c r="AK14" s="29"/>
       <c r="AL14" s="29"/>
@@ -2612,7 +2647,7 @@
       <c r="BD14" s="14"/>
       <c r="BE14" s="14"/>
       <c r="BF14" s="14"/>
-      <c r="BG14" s="122" t="s">
+      <c r="BG14" s="120" t="s">
         <v>120</v>
       </c>
       <c r="BH14" s="14"/>
@@ -2646,34 +2681,34 @@
       <c r="J15" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="118" t="s">
+      <c r="K15" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="118" t="s">
+      <c r="L15" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="118" t="s">
+      <c r="M15" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="118" t="s">
+      <c r="N15" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="118" t="s">
+      <c r="O15" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="118" t="s">
+      <c r="P15" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="118" t="s">
+      <c r="Q15" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="118" t="s">
+      <c r="R15" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="S15" s="118" t="s">
+      <c r="S15" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="T15" s="119">
+      <c r="T15" s="137">
         <v>2</v>
       </c>
       <c r="U15" s="22"/>
@@ -2684,12 +2719,12 @@
       <c r="AA15" s="73"/>
       <c r="AB15" s="73"/>
       <c r="AC15" s="73"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="128"/>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="126"/>
+      <c r="AF15" s="126"/>
       <c r="AG15" s="73"/>
       <c r="AH15" s="73"/>
-      <c r="AI15" s="127"/>
+      <c r="AI15" s="125"/>
       <c r="AJ15" s="30"/>
       <c r="AK15" s="30"/>
       <c r="AL15" s="30"/>
@@ -2708,7 +2743,7 @@
       <c r="BD15" s="14"/>
       <c r="BE15" s="14"/>
       <c r="BF15" s="14"/>
-      <c r="BG15" s="124" t="s">
+      <c r="BG15" s="122" t="s">
         <v>78</v>
       </c>
       <c r="BH15" s="14"/>
@@ -2763,7 +2798,7 @@
       <c r="AF16" s="78"/>
       <c r="AG16" s="73"/>
       <c r="AH16" s="73"/>
-      <c r="AI16" s="127"/>
+      <c r="AI16" s="125"/>
       <c r="AJ16" s="14"/>
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
@@ -2782,7 +2817,7 @@
       <c r="BD16" s="14"/>
       <c r="BE16" s="14"/>
       <c r="BF16" s="14"/>
-      <c r="BG16" s="123" t="s">
+      <c r="BG16" s="121" t="s">
         <v>81</v>
       </c>
       <c r="BH16" s="14"/>
@@ -2835,7 +2870,7 @@
       <c r="AF17" s="78"/>
       <c r="AG17" s="73"/>
       <c r="AH17" s="73"/>
-      <c r="AI17" s="127"/>
+      <c r="AI17" s="125"/>
       <c r="AJ17" s="14"/>
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
@@ -2887,11 +2922,11 @@
       <c r="AB18" s="73"/>
       <c r="AC18" s="73"/>
       <c r="AD18" s="73"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="126"/>
-      <c r="AH18" s="126"/>
-      <c r="AI18" s="130"/>
+      <c r="AE18" s="126"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="124"/>
+      <c r="AH18" s="124"/>
+      <c r="AI18" s="128"/>
       <c r="AJ18" s="14"/>
       <c r="AK18" s="29"/>
       <c r="AL18" s="14"/>
@@ -2940,43 +2975,43 @@
       <c r="L19" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="M19" s="116" t="s">
+      <c r="M19" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="N19" s="116" t="s">
+      <c r="N19" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="117" t="s">
+      <c r="O19" s="116" t="s">
         <v>157</v>
       </c>
       <c r="P19" s="14"/>
-      <c r="S19" s="106" t="s">
+      <c r="S19" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="T19" s="102" t="s">
+      <c r="T19" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="U19" s="103" t="s">
+      <c r="U19" s="102" t="s">
         <v>80</v>
       </c>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
-      <c r="Y19" s="133" t="s">
+      <c r="Y19" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="Z19" s="131" t="s">
+      <c r="Z19" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="AA19" s="131" t="s">
+      <c r="AA19" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="AB19" s="131" t="s">
+      <c r="AB19" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="AC19" s="134" t="s">
+      <c r="AC19" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="AD19" s="132" t="s">
+      <c r="AD19" s="130" t="s">
         <v>81</v>
       </c>
       <c r="AE19" s="30"/>
@@ -3037,23 +3072,23 @@
       <c r="L20" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="M20" s="118" t="s">
+      <c r="M20" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="118" t="s">
+      <c r="N20" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="O20" s="120" t="s">
+      <c r="O20" s="119" t="s">
         <v>78</v>
       </c>
       <c r="P20" s="14"/>
-      <c r="S20" s="107" t="s">
+      <c r="S20" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="T20" s="104" t="s">
+      <c r="T20" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="U20" s="105" t="s">
+      <c r="U20" s="104" t="s">
         <v>122</v>
       </c>
       <c r="V20" s="14"/>
@@ -3429,6 +3464,12 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -3462,8 +3503,8 @@
       <c r="AP26" s="14"/>
       <c r="AQ26" s="14"/>
       <c r="AR26" s="14"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="68"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
       <c r="AU26" s="14"/>
       <c r="AV26" s="14"/>
       <c r="AW26" s="14"/>
@@ -3488,35 +3529,99 @@
       <c r="BR26" s="17"/>
       <c r="BS26" s="17"/>
     </row>
-    <row r="27" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14">
+        <v>2</v>
+      </c>
+      <c r="I27" s="14">
+        <v>3</v>
+      </c>
+      <c r="J27" s="14">
+        <v>4</v>
+      </c>
+      <c r="K27" s="14">
+        <v>5</v>
+      </c>
+      <c r="L27" s="14">
+        <v>6</v>
+      </c>
+      <c r="M27" s="14">
+        <v>7</v>
+      </c>
+      <c r="N27" s="14">
+        <v>8</v>
+      </c>
+      <c r="O27" s="14">
+        <v>9</v>
+      </c>
+      <c r="P27" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>11</v>
+      </c>
+      <c r="R27" s="14">
+        <v>12</v>
+      </c>
+      <c r="S27" s="14">
+        <v>13</v>
+      </c>
+      <c r="T27" s="14">
+        <v>14</v>
+      </c>
+      <c r="U27" s="14">
+        <v>15</v>
+      </c>
+      <c r="V27" s="14">
+        <v>16</v>
+      </c>
+      <c r="W27" s="14">
+        <v>17</v>
+      </c>
+      <c r="X27" s="14">
+        <v>18</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>19</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>20</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>21</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>22</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>23</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>24</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>25</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>26</v>
+      </c>
+      <c r="AG27" s="14">
+        <v>27</v>
+      </c>
+      <c r="AH27" s="14">
+        <v>28</v>
+      </c>
+      <c r="AI27" s="14">
+        <v>29</v>
+      </c>
       <c r="AJ27" s="14"/>
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
@@ -3526,8 +3631,8 @@
       <c r="AP27" s="14"/>
       <c r="AQ27" s="14"/>
       <c r="AR27" s="14"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="68"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
       <c r="AU27" s="14"/>
       <c r="AV27" s="14"/>
       <c r="AW27" s="14"/>
@@ -3548,50 +3653,89 @@
       <c r="BL27" s="14"/>
       <c r="BM27" s="14"/>
       <c r="BN27" s="14"/>
-    </row>
-    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BQ27" s="17"/>
+      <c r="BR27" s="17"/>
+      <c r="BS27" s="17"/>
+    </row>
+    <row r="28" spans="2:71" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="14"/>
-      <c r="AM28" s="14"/>
-      <c r="AN28" s="14"/>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="14"/>
-      <c r="AQ28" s="14"/>
-      <c r="AR28" s="14"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="68"/>
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
+      <c r="G28" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="141">
+        <v>13</v>
+      </c>
+      <c r="K28" s="115">
+        <v>12</v>
+      </c>
+      <c r="L28" s="115">
+        <v>11</v>
+      </c>
+      <c r="M28" s="115">
+        <v>10</v>
+      </c>
+      <c r="N28" s="115">
+        <v>9</v>
+      </c>
+      <c r="O28" s="115">
+        <v>7</v>
+      </c>
+      <c r="P28" s="81">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="R28" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="S28" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="T28" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="U28" s="32"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="124"/>
+      <c r="Z28" s="124"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="28"/>
       <c r="AU28" s="14"/>
       <c r="AV28" s="14"/>
-      <c r="AW28" s="24"/>
+      <c r="AW28" s="14"/>
       <c r="AX28" s="14"/>
       <c r="AY28" s="14"/>
       <c r="AZ28" s="14"/>
@@ -3599,7 +3743,7 @@
       <c r="BB28" s="14"/>
       <c r="BC28" s="14"/>
       <c r="BD28" s="14"/>
-      <c r="BE28" s="24"/>
+      <c r="BE28" s="14"/>
       <c r="BF28" s="14"/>
       <c r="BG28" s="14"/>
       <c r="BH28" s="14"/>
@@ -3609,121 +3753,142 @@
       <c r="BL28" s="14"/>
       <c r="BM28" s="14"/>
       <c r="BN28" s="14"/>
-    </row>
-    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BQ28" s="17"/>
+      <c r="BR28" s="17"/>
+      <c r="BS28" s="17"/>
+    </row>
+    <row r="29" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="14"/>
-      <c r="AM29" s="14"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="14"/>
-      <c r="AP29" s="14"/>
-      <c r="AQ29" s="14"/>
-      <c r="AR29" s="14"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="68"/>
+      <c r="F29" s="15">
+        <v>2</v>
+      </c>
+      <c r="G29" s="83"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="84">
+        <v>4</v>
+      </c>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
+      <c r="AS29" s="29"/>
+      <c r="AT29" s="29"/>
       <c r="AU29" s="14"/>
-      <c r="AV29" s="14"/>
-      <c r="AW29" s="24"/>
-      <c r="AX29" s="14"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="14"/>
+      <c r="AX29" s="24"/>
       <c r="AY29" s="14"/>
-      <c r="AZ29" s="14"/>
-      <c r="BA29" s="14"/>
-      <c r="BB29" s="14"/>
-      <c r="BC29" s="14"/>
-      <c r="BD29" s="14"/>
-      <c r="BE29" s="24"/>
-      <c r="BF29" s="14"/>
+      <c r="AZ29" s="24"/>
+      <c r="BA29" s="29"/>
+      <c r="BB29" s="29"/>
+      <c r="BC29" s="29"/>
+      <c r="BD29" s="24"/>
+      <c r="BE29" s="14"/>
+      <c r="BF29" s="24"/>
       <c r="BG29" s="14"/>
-      <c r="BH29" s="14"/>
+      <c r="BH29" s="24"/>
       <c r="BI29" s="14"/>
-      <c r="BJ29" s="14"/>
+      <c r="BJ29" s="24"/>
       <c r="BK29" s="14"/>
       <c r="BL29" s="14"/>
       <c r="BM29" s="14"/>
       <c r="BN29" s="14"/>
-    </row>
-    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BQ29" s="17"/>
+      <c r="BR29" s="17"/>
+      <c r="BS29" s="17"/>
+    </row>
+    <row r="30" spans="2:71" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="14"/>
-      <c r="AS30" s="45"/>
-      <c r="AT30" s="68"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="14"/>
-      <c r="AW30" s="24"/>
-      <c r="AX30" s="14"/>
+      <c r="F30" s="15">
+        <v>3</v>
+      </c>
+      <c r="G30" s="85"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="91">
+        <v>3</v>
+      </c>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="143"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="78"/>
+      <c r="AH30" s="78"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="29"/>
+      <c r="AT30" s="29"/>
       <c r="AY30" s="14"/>
       <c r="AZ30" s="14"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="14"/>
-      <c r="BC30" s="14"/>
+      <c r="BA30" s="30"/>
+      <c r="BB30" s="28"/>
+      <c r="BC30" s="30"/>
       <c r="BD30" s="14"/>
-      <c r="BE30" s="24"/>
+      <c r="BE30" s="14"/>
       <c r="BF30" s="14"/>
-      <c r="BG30" s="14"/>
+      <c r="BG30" s="90"/>
       <c r="BH30" s="14"/>
       <c r="BI30" s="14"/>
       <c r="BJ30" s="14"/>
@@ -3731,60 +3896,70 @@
       <c r="BL30" s="14"/>
       <c r="BM30" s="14"/>
       <c r="BN30" s="14"/>
-    </row>
-    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BQ30" s="17"/>
+      <c r="BR30" s="17"/>
+      <c r="BS30" s="17"/>
+    </row>
+    <row r="31" spans="2:71" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="14"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="14"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="14"/>
-      <c r="AS31" s="14"/>
-      <c r="AT31" s="45"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="14"/>
-      <c r="AW31" s="14"/>
-      <c r="AX31" s="14"/>
+      <c r="F31" s="15">
+        <v>4</v>
+      </c>
+      <c r="G31" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="143"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="78"/>
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="29"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="29"/>
+      <c r="AR31" s="29"/>
+      <c r="AS31" s="29"/>
+      <c r="AT31" s="29"/>
       <c r="AY31" s="14"/>
       <c r="AZ31" s="14"/>
-      <c r="BA31" s="14"/>
-      <c r="BB31" s="14"/>
+      <c r="BA31" s="29"/>
+      <c r="BB31" s="28"/>
       <c r="BC31" s="14"/>
       <c r="BD31" s="14"/>
       <c r="BE31" s="14"/>
       <c r="BF31" s="14"/>
-      <c r="BG31" s="14"/>
+      <c r="BG31" s="90"/>
       <c r="BH31" s="14"/>
       <c r="BI31" s="14"/>
       <c r="BJ31" s="14"/>
@@ -3792,38 +3967,57 @@
       <c r="BL31" s="14"/>
       <c r="BM31" s="14"/>
       <c r="BN31" s="14"/>
-    </row>
-    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BQ31" s="17"/>
+      <c r="BR31" s="17"/>
+      <c r="BS31" s="17"/>
+    </row>
+    <row r="32" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="F32" s="15">
+        <v>5</v>
+      </c>
+      <c r="G32" s="87"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="14"/>
-      <c r="AM32" s="14"/>
-      <c r="AN32" s="14"/>
-      <c r="AO32" s="14"/>
-      <c r="AP32" s="14"/>
-      <c r="AQ32" s="14"/>
-      <c r="AR32" s="14"/>
-      <c r="AS32" s="14"/>
-      <c r="AT32" s="14"/>
-      <c r="AU32" s="14"/>
-      <c r="AV32" s="14"/>
-      <c r="AW32" s="14"/>
-      <c r="AX32" s="14"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="133"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="29"/>
+      <c r="AR32" s="29"/>
+      <c r="AS32" s="29"/>
+      <c r="AT32" s="29"/>
       <c r="AY32" s="14"/>
       <c r="AZ32" s="14"/>
       <c r="BA32" s="14"/>
@@ -3832,7 +4026,7 @@
       <c r="BD32" s="14"/>
       <c r="BE32" s="14"/>
       <c r="BF32" s="14"/>
-      <c r="BG32" s="14"/>
+      <c r="BG32" s="90"/>
       <c r="BH32" s="14"/>
       <c r="BI32" s="14"/>
       <c r="BJ32" s="14"/>
@@ -3840,879 +4034,1391 @@
       <c r="BL32" s="14"/>
       <c r="BM32" s="14"/>
       <c r="BN32" s="14"/>
-    </row>
-    <row r="36" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="49" t="s">
+      <c r="BQ32" s="17"/>
+      <c r="BR32" s="17"/>
+      <c r="BS32" s="17"/>
+    </row>
+    <row r="33" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15">
+        <v>6</v>
+      </c>
+      <c r="G33" s="83"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="29"/>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="29"/>
+      <c r="AR33" s="29"/>
+      <c r="AS33" s="29"/>
+      <c r="AT33" s="29"/>
+      <c r="AU33" s="22"/>
+      <c r="AV33" s="22"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="14"/>
+      <c r="BB33" s="14"/>
+      <c r="BC33" s="14"/>
+      <c r="BD33" s="14"/>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="14"/>
+      <c r="BG33" s="90"/>
+      <c r="BH33" s="14"/>
+      <c r="BI33" s="14"/>
+      <c r="BJ33" s="14"/>
+      <c r="BK33" s="14"/>
+      <c r="BL33" s="14"/>
+      <c r="BM33" s="14"/>
+      <c r="BN33" s="14"/>
+      <c r="BQ33" s="17"/>
+      <c r="BR33" s="17"/>
+      <c r="BS33" s="17"/>
+    </row>
+    <row r="34" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15">
+        <v>7</v>
+      </c>
+      <c r="G34" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="140" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" s="139" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="139" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q34" s="139" t="s">
+        <v>72</v>
+      </c>
+      <c r="R34" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="S34" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="T34" s="118">
+        <v>2</v>
+      </c>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="40"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="30"/>
+      <c r="AN34" s="30"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="30"/>
+      <c r="AR34" s="30"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="22"/>
+      <c r="AV34" s="22"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="14"/>
+      <c r="BA34" s="14"/>
+      <c r="BB34" s="14"/>
+      <c r="BC34" s="14"/>
+      <c r="BD34" s="14"/>
+      <c r="BE34" s="14"/>
+      <c r="BF34" s="14"/>
+      <c r="BG34" s="90"/>
+      <c r="BH34" s="14"/>
+      <c r="BI34" s="24"/>
+      <c r="BJ34" s="14"/>
+      <c r="BK34" s="14"/>
+      <c r="BL34" s="14"/>
+      <c r="BM34" s="14"/>
+      <c r="BN34" s="14"/>
+      <c r="BP34"/>
+      <c r="BQ34" s="17"/>
+      <c r="BR34" s="17"/>
+      <c r="BS34" s="17"/>
+    </row>
+    <row r="35" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15">
+        <v>8</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="14"/>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="22"/>
+      <c r="AV35" s="22"/>
+      <c r="AY35" s="14"/>
+      <c r="AZ35" s="14"/>
+      <c r="BA35" s="14"/>
+      <c r="BB35" s="14"/>
+      <c r="BC35" s="14"/>
+      <c r="BD35" s="14"/>
+      <c r="BE35" s="14"/>
+      <c r="BF35" s="14"/>
+      <c r="BG35" s="90"/>
+      <c r="BH35" s="14"/>
+      <c r="BI35" s="24"/>
+      <c r="BJ35" s="14"/>
+      <c r="BK35" s="14"/>
+      <c r="BL35" s="14"/>
+      <c r="BM35" s="14"/>
+      <c r="BN35" s="14"/>
+      <c r="BQ35" s="17"/>
+      <c r="BR35" s="17"/>
+      <c r="BS35" s="17"/>
+    </row>
+    <row r="36" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15">
+        <v>9</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="40"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="22"/>
+      <c r="AV36" s="22"/>
+      <c r="AY36" s="14"/>
+      <c r="AZ36" s="14"/>
+      <c r="BA36" s="14"/>
+      <c r="BB36" s="14"/>
+      <c r="BC36" s="14"/>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="14"/>
+      <c r="BF36" s="14"/>
+      <c r="BG36" s="14"/>
+      <c r="BH36" s="14"/>
+      <c r="BI36" s="24"/>
+      <c r="BJ36" s="14"/>
+      <c r="BK36" s="14"/>
+      <c r="BL36" s="14"/>
+      <c r="BM36" s="14"/>
+      <c r="BN36" s="14"/>
+      <c r="BQ36" s="17"/>
+      <c r="BR36" s="17"/>
+      <c r="BS36" s="17"/>
+    </row>
+    <row r="37" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15">
+        <v>10</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="134"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="135"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="22"/>
+      <c r="AV37" s="22"/>
+      <c r="BB37" s="14"/>
+      <c r="BC37" s="14"/>
+      <c r="BD37" s="14"/>
+      <c r="BE37" s="14"/>
+      <c r="BF37" s="14"/>
+      <c r="BG37" s="14"/>
+      <c r="BH37" s="14"/>
+      <c r="BI37" s="24"/>
+      <c r="BJ37" s="14"/>
+      <c r="BK37" s="14"/>
+      <c r="BL37" s="14"/>
+      <c r="BM37" s="14"/>
+      <c r="BN37" s="14"/>
+      <c r="BQ37" s="17"/>
+      <c r="BR37" s="17"/>
+      <c r="BS37" s="17"/>
+    </row>
+    <row r="38" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15">
+        <v>11</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="L38" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="M38" s="115" t="s">
+        <v>151</v>
+      </c>
+      <c r="N38" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="P38" s="14"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="Y38" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z38" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA38" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB38" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC38" s="132" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD38" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+      <c r="AU38" s="22"/>
+      <c r="AV38" s="22"/>
+      <c r="BB38" s="14"/>
+      <c r="BC38" s="14"/>
+      <c r="BD38" s="14"/>
+      <c r="BE38" s="14"/>
+      <c r="BF38" s="14"/>
+      <c r="BG38" s="14"/>
+      <c r="BH38" s="14"/>
+      <c r="BI38" s="14"/>
+      <c r="BJ38" s="14"/>
+      <c r="BK38" s="14"/>
+      <c r="BL38" s="14"/>
+      <c r="BM38" s="14"/>
+      <c r="BN38" s="14"/>
+      <c r="BQ38" s="17"/>
+      <c r="BR38" s="17"/>
+      <c r="BS38" s="17"/>
+    </row>
+    <row r="39" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15">
+        <v>12</v>
+      </c>
+      <c r="G39" s="72"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="L39" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="M39" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="N39" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="O39" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="P39" s="14"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="14"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="14"/>
+      <c r="AR39" s="14"/>
+      <c r="AV39" s="22"/>
+      <c r="BB39" s="14"/>
+      <c r="BC39" s="14"/>
+      <c r="BD39" s="14"/>
+      <c r="BE39" s="14"/>
+      <c r="BF39" s="14"/>
+      <c r="BG39" s="14"/>
+      <c r="BH39" s="14"/>
+      <c r="BI39" s="14"/>
+      <c r="BJ39" s="14"/>
+      <c r="BK39" s="14"/>
+      <c r="BL39" s="14"/>
+      <c r="BM39" s="14"/>
+      <c r="BN39" s="14"/>
+      <c r="BQ39" s="17"/>
+      <c r="BR39" s="17"/>
+      <c r="BS39" s="17"/>
+    </row>
+    <row r="40" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15">
+        <v>13</v>
+      </c>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="40"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="29"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="14"/>
+      <c r="AV40" s="22"/>
+      <c r="BB40" s="14"/>
+      <c r="BC40" s="14"/>
+      <c r="BD40" s="14"/>
+      <c r="BE40" s="14"/>
+      <c r="BF40" s="14"/>
+      <c r="BG40" s="14"/>
+      <c r="BH40" s="14"/>
+      <c r="BI40" s="14"/>
+      <c r="BJ40" s="14"/>
+      <c r="BK40" s="14"/>
+      <c r="BL40" s="14"/>
+      <c r="BM40" s="14"/>
+      <c r="BN40" s="14"/>
+      <c r="BP40"/>
+      <c r="BQ40" s="17"/>
+      <c r="BR40" s="17"/>
+      <c r="BS40" s="17"/>
+    </row>
+    <row r="41" spans="2:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15">
+        <v>14</v>
+      </c>
+      <c r="G41" s="74"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="70"/>
+      <c r="AC41" s="71"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="67"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="41"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="22"/>
+      <c r="AV41" s="22"/>
+      <c r="BB41" s="14"/>
+      <c r="BC41" s="14"/>
+      <c r="BD41" s="14"/>
+      <c r="BE41" s="14"/>
+      <c r="BF41" s="14"/>
+      <c r="BG41" s="24"/>
+      <c r="BH41" s="14"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="14"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="14"/>
+      <c r="BM41" s="14"/>
+      <c r="BN41" s="14"/>
+      <c r="BQ41" s="17"/>
+      <c r="BR41" s="17"/>
+      <c r="BS41" s="17"/>
+    </row>
+    <row r="42" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="22"/>
+      <c r="AV42" s="22"/>
+      <c r="BB42" s="14"/>
+      <c r="BC42" s="14"/>
+      <c r="BD42" s="14"/>
+      <c r="BE42" s="14"/>
+      <c r="BF42" s="14"/>
+      <c r="BG42" s="24"/>
+      <c r="BH42" s="14"/>
+      <c r="BI42" s="14"/>
+      <c r="BJ42" s="14"/>
+      <c r="BK42" s="14"/>
+      <c r="BL42" s="14"/>
+      <c r="BM42" s="14"/>
+      <c r="BN42" s="14"/>
+      <c r="BQ42" s="17"/>
+      <c r="BR42" s="17"/>
+      <c r="BS42" s="17"/>
+    </row>
+    <row r="43" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="14"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="14"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="14"/>
+      <c r="AR43" s="14"/>
+      <c r="AS43" s="45"/>
+      <c r="AT43" s="68"/>
+      <c r="AU43" s="22"/>
+      <c r="AV43" s="22"/>
+      <c r="BB43" s="14"/>
+      <c r="BC43" s="14"/>
+      <c r="BD43" s="14"/>
+      <c r="BE43" s="14"/>
+      <c r="BF43" s="14"/>
+      <c r="BG43" s="24"/>
+      <c r="BH43" s="14"/>
+      <c r="BI43" s="14"/>
+      <c r="BJ43" s="14"/>
+      <c r="BK43" s="14"/>
+      <c r="BL43" s="14"/>
+      <c r="BM43" s="14"/>
+      <c r="BN43" s="14"/>
+      <c r="BQ43" s="17"/>
+      <c r="BR43" s="17"/>
+      <c r="BS43" s="17"/>
+    </row>
+    <row r="44" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="14"/>
+      <c r="AO44" s="14"/>
+      <c r="AP44" s="14"/>
+      <c r="AQ44" s="14"/>
+      <c r="AR44" s="14"/>
+      <c r="AS44" s="45"/>
+      <c r="AT44" s="68"/>
+      <c r="AU44" s="14"/>
+      <c r="AV44" s="14"/>
+      <c r="AW44" s="14"/>
+      <c r="AX44" s="14"/>
+      <c r="AY44" s="14"/>
+      <c r="AZ44" s="14"/>
+      <c r="BA44" s="14"/>
+      <c r="BB44" s="14"/>
+      <c r="BC44" s="14"/>
+      <c r="BD44" s="14"/>
+      <c r="BE44" s="14"/>
+      <c r="BF44" s="14"/>
+      <c r="BG44" s="14"/>
+      <c r="BH44" s="14"/>
+      <c r="BI44" s="14"/>
+      <c r="BJ44" s="14"/>
+      <c r="BK44" s="14"/>
+      <c r="BL44" s="14"/>
+      <c r="BM44" s="14"/>
+      <c r="BN44" s="14"/>
+      <c r="BQ44" s="17"/>
+      <c r="BR44" s="17"/>
+      <c r="BS44" s="17"/>
+    </row>
+    <row r="45" spans="2:71" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="14"/>
+      <c r="AM45" s="14"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="14"/>
+      <c r="AP45" s="14"/>
+      <c r="AQ45" s="14"/>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="45"/>
+      <c r="AT45" s="68"/>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="14"/>
+      <c r="AW45" s="14"/>
+      <c r="AX45" s="14"/>
+      <c r="AY45" s="14"/>
+      <c r="AZ45" s="14"/>
+      <c r="BA45" s="14"/>
+      <c r="BB45" s="14"/>
+      <c r="BC45" s="14"/>
+      <c r="BD45" s="14"/>
+      <c r="BE45" s="14"/>
+      <c r="BF45" s="14"/>
+      <c r="BG45" s="14"/>
+      <c r="BH45" s="14"/>
+      <c r="BI45" s="14"/>
+      <c r="BJ45" s="14"/>
+      <c r="BK45" s="14"/>
+      <c r="BL45" s="14"/>
+      <c r="BM45" s="14"/>
+      <c r="BN45" s="14"/>
+      <c r="BQ45" s="17"/>
+      <c r="BR45" s="17"/>
+      <c r="BS45" s="17"/>
+    </row>
+    <row r="46" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="45"/>
+      <c r="AT46" s="68"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
+      <c r="AY46" s="14"/>
+      <c r="AZ46" s="14"/>
+      <c r="BA46" s="14"/>
+      <c r="BB46" s="14"/>
+      <c r="BC46" s="14"/>
+      <c r="BD46" s="14"/>
+      <c r="BE46" s="14"/>
+      <c r="BF46" s="14"/>
+      <c r="BG46" s="14"/>
+      <c r="BH46" s="14"/>
+      <c r="BI46" s="14"/>
+      <c r="BJ46" s="14"/>
+      <c r="BK46" s="14"/>
+      <c r="BL46" s="14"/>
+      <c r="BM46" s="14"/>
+      <c r="BN46" s="14"/>
+    </row>
+    <row r="47" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="14"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="14"/>
+      <c r="AP47" s="14"/>
+      <c r="AQ47" s="14"/>
+      <c r="AR47" s="14"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="68"/>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="14"/>
+      <c r="AW47" s="24"/>
+      <c r="AX47" s="14"/>
+      <c r="AY47" s="14"/>
+      <c r="AZ47" s="14"/>
+      <c r="BA47" s="14"/>
+      <c r="BB47" s="14"/>
+      <c r="BC47" s="14"/>
+      <c r="BD47" s="14"/>
+      <c r="BE47" s="24"/>
+      <c r="BF47" s="14"/>
+      <c r="BG47" s="14"/>
+      <c r="BH47" s="14"/>
+      <c r="BI47" s="14"/>
+      <c r="BJ47" s="14"/>
+      <c r="BK47" s="14"/>
+      <c r="BL47" s="14"/>
+      <c r="BM47" s="14"/>
+      <c r="BN47" s="14"/>
+    </row>
+    <row r="48" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="14"/>
+      <c r="AL48" s="14"/>
+      <c r="AM48" s="14"/>
+      <c r="AN48" s="14"/>
+      <c r="AO48" s="14"/>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="14"/>
+      <c r="AR48" s="14"/>
+      <c r="AS48" s="45"/>
+      <c r="AT48" s="68"/>
+      <c r="AU48" s="14"/>
+      <c r="AV48" s="14"/>
+      <c r="AW48" s="24"/>
+      <c r="AX48" s="14"/>
+      <c r="AY48" s="14"/>
+      <c r="AZ48" s="14"/>
+      <c r="BA48" s="14"/>
+      <c r="BB48" s="14"/>
+      <c r="BC48" s="14"/>
+      <c r="BD48" s="14"/>
+      <c r="BE48" s="24"/>
+      <c r="BF48" s="14"/>
+      <c r="BG48" s="14"/>
+      <c r="BH48" s="14"/>
+      <c r="BI48" s="14"/>
+      <c r="BJ48" s="14"/>
+      <c r="BK48" s="14"/>
+      <c r="BL48" s="14"/>
+      <c r="BM48" s="14"/>
+      <c r="BN48" s="14"/>
+    </row>
+    <row r="49" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="14"/>
+      <c r="AN49" s="14"/>
+      <c r="AO49" s="14"/>
+      <c r="AP49" s="14"/>
+      <c r="AQ49" s="14"/>
+      <c r="AR49" s="14"/>
+      <c r="AS49" s="45"/>
+      <c r="AT49" s="68"/>
+      <c r="AU49" s="14"/>
+      <c r="AV49" s="14"/>
+      <c r="AW49" s="24"/>
+      <c r="AX49" s="14"/>
+      <c r="AY49" s="14"/>
+      <c r="AZ49" s="14"/>
+      <c r="BA49" s="14"/>
+      <c r="BB49" s="14"/>
+      <c r="BC49" s="14"/>
+      <c r="BD49" s="14"/>
+      <c r="BE49" s="24"/>
+      <c r="BF49" s="14"/>
+      <c r="BG49" s="14"/>
+      <c r="BH49" s="14"/>
+      <c r="BI49" s="14"/>
+      <c r="BJ49" s="14"/>
+      <c r="BK49" s="14"/>
+      <c r="BL49" s="14"/>
+      <c r="BM49" s="14"/>
+      <c r="BN49" s="14"/>
+    </row>
+    <row r="50" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="45"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="14"/>
+      <c r="AX50" s="14"/>
+      <c r="AY50" s="14"/>
+      <c r="AZ50" s="14"/>
+      <c r="BA50" s="14"/>
+      <c r="BB50" s="14"/>
+      <c r="BC50" s="14"/>
+      <c r="BD50" s="14"/>
+      <c r="BE50" s="14"/>
+      <c r="BF50" s="14"/>
+      <c r="BG50" s="14"/>
+      <c r="BH50" s="14"/>
+      <c r="BI50" s="14"/>
+      <c r="BJ50" s="14"/>
+      <c r="BK50" s="14"/>
+      <c r="BL50" s="14"/>
+      <c r="BM50" s="14"/>
+      <c r="BN50" s="14"/>
+    </row>
+    <row r="51" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="14"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="14"/>
+      <c r="AQ51" s="14"/>
+      <c r="AR51" s="14"/>
+      <c r="AS51" s="14"/>
+      <c r="AT51" s="14"/>
+      <c r="AU51" s="14"/>
+      <c r="AV51" s="14"/>
+      <c r="AW51" s="14"/>
+      <c r="AX51" s="14"/>
+      <c r="AY51" s="14"/>
+      <c r="AZ51" s="14"/>
+      <c r="BA51" s="14"/>
+      <c r="BB51" s="14"/>
+      <c r="BC51" s="14"/>
+      <c r="BD51" s="14"/>
+      <c r="BE51" s="14"/>
+      <c r="BF51" s="14"/>
+      <c r="BG51" s="14"/>
+      <c r="BH51" s="14"/>
+      <c r="BI51" s="14"/>
+      <c r="BJ51" s="14"/>
+      <c r="BK51" s="14"/>
+      <c r="BL51" s="14"/>
+      <c r="BM51" s="14"/>
+      <c r="BN51" s="14"/>
+    </row>
+    <row r="55" spans="2:66" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:66" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG56" s="48"/>
+      <c r="AH56" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="AI37" s="50"/>
-      <c r="BA37" s="48"/>
-      <c r="BB37" s="49" t="s">
+      <c r="AI56" s="50"/>
+      <c r="BA56" s="48"/>
+      <c r="BB56" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="BC37" s="50"/>
-    </row>
-    <row r="38" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L38" s="51" t="s">
+      <c r="BC56" s="50"/>
+    </row>
+    <row r="57" spans="2:66" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="M38" s="47"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="53" t="s">
+      <c r="M57" s="47"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="55" t="s">
+      <c r="P57" s="54"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="U38" s="42">
+      <c r="U57" s="42">
         <v>10</v>
       </c>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="43">
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="43">
         <v>9</v>
       </c>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="47"/>
-      <c r="AH38" s="47"/>
-      <c r="AI38" s="47"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="55"/>
-      <c r="AO38" s="51"/>
-      <c r="AP38" s="47"/>
-      <c r="AQ38" s="47"/>
-      <c r="AR38" s="47"/>
-      <c r="AS38" s="47"/>
-      <c r="AT38" s="47"/>
-      <c r="AU38" s="55"/>
-      <c r="AY38" s="51"/>
-      <c r="AZ38" s="47"/>
-      <c r="BA38" s="47"/>
-      <c r="BB38" s="47"/>
-      <c r="BC38" s="47"/>
-      <c r="BD38" s="47"/>
-      <c r="BE38" s="55"/>
-    </row>
-    <row r="39" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L39" s="56" t="s">
+      <c r="AE57" s="51"/>
+      <c r="AF57" s="47"/>
+      <c r="AG57" s="47"/>
+      <c r="AH57" s="47"/>
+      <c r="AI57" s="47"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="55"/>
+      <c r="AO57" s="51"/>
+      <c r="AP57" s="47"/>
+      <c r="AQ57" s="47"/>
+      <c r="AR57" s="47"/>
+      <c r="AS57" s="47"/>
+      <c r="AT57" s="47"/>
+      <c r="AU57" s="55"/>
+      <c r="AY57" s="51"/>
+      <c r="AZ57" s="47"/>
+      <c r="BA57" s="47"/>
+      <c r="BB57" s="47"/>
+      <c r="BC57" s="47"/>
+      <c r="BD57" s="47"/>
+      <c r="BE57" s="55"/>
+    </row>
+    <row r="58" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="L58" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="38" t="s">
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="U39" s="21">
+      <c r="U58" s="21">
         <v>11</v>
       </c>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="44">
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="44">
         <v>8</v>
       </c>
-      <c r="AE39" s="56" t="s">
+      <c r="AE58" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="37"/>
-      <c r="AK39" s="38" t="s">
+      <c r="AF58" s="37"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="37"/>
+      <c r="AI58" s="37"/>
+      <c r="AJ58" s="37"/>
+      <c r="AK58" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="AO39" s="56" t="s">
+      <c r="AO58" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AP39" s="37"/>
-      <c r="AQ39" s="37"/>
-      <c r="AR39" s="37"/>
-      <c r="AS39" s="37"/>
-      <c r="AT39" s="37"/>
-      <c r="AU39" s="38" t="s">
+      <c r="AP58" s="37"/>
+      <c r="AQ58" s="37"/>
+      <c r="AR58" s="37"/>
+      <c r="AS58" s="37"/>
+      <c r="AT58" s="37"/>
+      <c r="AU58" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="AY39" s="56">
+      <c r="AY58" s="56">
         <v>13</v>
       </c>
-      <c r="AZ39" s="37"/>
-      <c r="BA39" s="37"/>
-      <c r="BB39" s="37"/>
-      <c r="BC39" s="37"/>
-      <c r="BD39" s="37"/>
-      <c r="BE39" s="38">
+      <c r="AZ58" s="37"/>
+      <c r="BA58" s="37"/>
+      <c r="BB58" s="37"/>
+      <c r="BC58" s="37"/>
+      <c r="BD58" s="37"/>
+      <c r="BE58" s="38">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L40" s="56" t="s">
+    <row r="59" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="L59" s="56" t="s">
         <v>89</v>
-      </c>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="U40" s="21">
-        <v>12</v>
-      </c>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="44">
-        <v>7</v>
-      </c>
-      <c r="AE40" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
-      <c r="AK40" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO40" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP40" s="37"/>
-      <c r="AQ40" s="37"/>
-      <c r="AR40" s="37"/>
-      <c r="AS40" s="37"/>
-      <c r="AT40" s="37"/>
-      <c r="AU40" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY40" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ40" s="37"/>
-      <c r="BA40" s="37"/>
-      <c r="BB40" s="37"/>
-      <c r="BC40" s="37"/>
-      <c r="BD40" s="37"/>
-      <c r="BE40" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L41" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="38">
-        <v>13</v>
-      </c>
-      <c r="U41" s="21">
-        <v>13</v>
-      </c>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="44">
-        <v>6</v>
-      </c>
-      <c r="AE41" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO41" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP41" s="37"/>
-      <c r="AQ41" s="37"/>
-      <c r="AR41" s="37"/>
-      <c r="AS41" s="37"/>
-      <c r="AT41" s="37"/>
-      <c r="AU41" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY41" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ41" s="37"/>
-      <c r="BA41" s="37"/>
-      <c r="BB41" s="37"/>
-      <c r="BC41" s="37"/>
-      <c r="BD41" s="37"/>
-      <c r="BE41" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L42" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="38">
-        <v>12</v>
-      </c>
-      <c r="U42" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="46">
-        <v>5</v>
-      </c>
-      <c r="AE42" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF42" s="37"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="57"/>
-      <c r="AI42" s="37"/>
-      <c r="AJ42" s="37"/>
-      <c r="AK42" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO42" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP42" s="37"/>
-      <c r="AQ42" s="37"/>
-      <c r="AR42" s="57"/>
-      <c r="AS42" s="37"/>
-      <c r="AT42" s="37"/>
-      <c r="AU42" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY42" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ42" s="37"/>
-      <c r="BA42" s="37"/>
-      <c r="BB42" s="58"/>
-      <c r="BC42" s="37"/>
-      <c r="BD42" s="37"/>
-      <c r="BE42" s="38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L43" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="M43" s="37"/>
-      <c r="O43" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="38">
-        <v>11</v>
-      </c>
-      <c r="U43" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="44">
-        <v>4</v>
-      </c>
-      <c r="AE43" s="56">
-        <v>2</v>
-      </c>
-      <c r="AF43" s="37"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI43" s="37"/>
-      <c r="AJ43" s="37"/>
-      <c r="AK43" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO43" s="56">
-        <v>2</v>
-      </c>
-      <c r="AP43" s="37"/>
-      <c r="AR43" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS43" s="37"/>
-      <c r="AT43" s="37"/>
-      <c r="AU43" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY43" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ43" s="37"/>
-      <c r="BA43" s="37"/>
-      <c r="BB43" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC43" s="37"/>
-      <c r="BD43" s="37"/>
-      <c r="BE43" s="38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L44" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="38">
-        <v>10</v>
-      </c>
-      <c r="U44" s="21"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="44">
-        <v>3</v>
-      </c>
-      <c r="AE44" s="56">
-        <v>3</v>
-      </c>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="57"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
-      <c r="AK44" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO44" s="56">
-        <v>3</v>
-      </c>
-      <c r="AP44" s="37"/>
-      <c r="AQ44" s="37"/>
-      <c r="AR44" s="57"/>
-      <c r="AS44" s="37"/>
-      <c r="AT44" s="37"/>
-      <c r="AU44" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY44" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ44" s="37"/>
-      <c r="BA44" s="37"/>
-      <c r="BB44" s="58"/>
-      <c r="BC44" s="37"/>
-      <c r="BD44" s="37"/>
-      <c r="BE44" s="38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L45" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="38">
-        <v>9</v>
-      </c>
-      <c r="U45" s="21"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="44">
-        <v>2</v>
-      </c>
-      <c r="AE45" s="56">
-        <v>4</v>
-      </c>
-      <c r="AF45" s="37"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="57"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO45" s="56">
-        <v>4</v>
-      </c>
-      <c r="AP45" s="37"/>
-      <c r="AQ45" s="37"/>
-      <c r="AR45" s="57"/>
-      <c r="AS45" s="37"/>
-      <c r="AT45" s="37"/>
-      <c r="AU45" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY45" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ45" s="37"/>
-      <c r="BA45" s="37"/>
-      <c r="BB45" s="58"/>
-      <c r="BC45" s="37"/>
-      <c r="BD45" s="37"/>
-      <c r="BE45" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L46" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="38">
-        <v>7</v>
-      </c>
-      <c r="U46" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE46" s="56">
-        <v>5</v>
-      </c>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
-      <c r="AJ46" s="37"/>
-      <c r="AK46" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO46" s="56">
-        <v>5</v>
-      </c>
-      <c r="AP46" s="37"/>
-      <c r="AQ46" s="37"/>
-      <c r="AR46" s="37"/>
-      <c r="AS46" s="37"/>
-      <c r="AT46" s="37"/>
-      <c r="AU46" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY46" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ46" s="37"/>
-      <c r="BA46" s="37"/>
-      <c r="BB46" s="37"/>
-      <c r="BC46" s="37"/>
-      <c r="BD46" s="37"/>
-      <c r="BE46" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L47" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="38">
-        <v>5</v>
-      </c>
-      <c r="U47" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE47" s="56">
-        <v>6</v>
-      </c>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="38">
-        <v>15</v>
-      </c>
-      <c r="AO47" s="56">
-        <v>6</v>
-      </c>
-      <c r="AP47" s="37"/>
-      <c r="AQ47" s="37"/>
-      <c r="AR47" s="37"/>
-      <c r="AS47" s="37"/>
-      <c r="AT47" s="37"/>
-      <c r="AU47" s="38">
-        <v>13</v>
-      </c>
-      <c r="AY47" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ47" s="37"/>
-      <c r="BA47" s="37"/>
-      <c r="BB47" s="37"/>
-      <c r="BC47" s="37"/>
-      <c r="BD47" s="37"/>
-      <c r="BE47" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L48" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="U48" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE48" s="56">
-        <v>7</v>
-      </c>
-      <c r="AF48" s="37"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="37"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="37"/>
-      <c r="AK48" s="38">
-        <v>14</v>
-      </c>
-      <c r="AO48" s="56">
-        <v>7</v>
-      </c>
-      <c r="AP48" s="37"/>
-      <c r="AQ48" s="37"/>
-      <c r="AR48" s="37"/>
-      <c r="AS48" s="37"/>
-      <c r="AT48" s="37"/>
-      <c r="AU48" s="38">
-        <v>12</v>
-      </c>
-      <c r="AY48" s="56"/>
-      <c r="AZ48" s="37"/>
-      <c r="BA48" s="37"/>
-      <c r="BB48" s="37"/>
-      <c r="BC48" s="37"/>
-      <c r="BD48" s="37"/>
-      <c r="BE48" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L49" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="U49" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE49" s="56">
-        <v>8</v>
-      </c>
-      <c r="AF49" s="37"/>
-      <c r="AG49" s="37"/>
-      <c r="AH49" s="37"/>
-      <c r="AI49" s="37"/>
-      <c r="AJ49" s="37"/>
-      <c r="AK49" s="38">
-        <v>16</v>
-      </c>
-      <c r="AO49" s="56">
-        <v>8</v>
-      </c>
-      <c r="AP49" s="37"/>
-      <c r="AQ49" s="37"/>
-      <c r="AR49" s="37"/>
-      <c r="AS49" s="37"/>
-      <c r="AT49" s="37"/>
-      <c r="AU49" s="38">
-        <v>11</v>
-      </c>
-      <c r="AY49" s="56"/>
-      <c r="AZ49" s="37"/>
-      <c r="BA49" s="37"/>
-      <c r="BB49" s="37"/>
-      <c r="BC49" s="37"/>
-      <c r="BD49" s="37"/>
-      <c r="BE49" s="38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L50" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="U50" s="26"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="31"/>
-      <c r="AE50" s="59">
-        <v>9</v>
-      </c>
-      <c r="AF50" s="60"/>
-      <c r="AG50" s="60"/>
-      <c r="AH50" s="60"/>
-      <c r="AI50" s="60"/>
-      <c r="AJ50" s="60"/>
-      <c r="AK50" s="61">
-        <v>10</v>
-      </c>
-      <c r="AO50" s="59">
-        <v>9</v>
-      </c>
-      <c r="AP50" s="60"/>
-      <c r="AQ50" s="60"/>
-      <c r="AR50" s="60"/>
-      <c r="AS50" s="60"/>
-      <c r="AT50" s="60"/>
-      <c r="AU50" s="61">
-        <v>10</v>
-      </c>
-      <c r="AY50" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ50" s="37"/>
-      <c r="BA50" s="37"/>
-      <c r="BB50" s="37"/>
-      <c r="BC50" s="37"/>
-      <c r="BD50" s="37"/>
-      <c r="BE50" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L51" s="59">
-        <v>2</v>
-      </c>
-      <c r="M51" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62">
-        <v>3</v>
-      </c>
-      <c r="Q51" s="62">
-        <v>4</v>
-      </c>
-      <c r="R51" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE51" s="63"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="58"/>
-      <c r="AI51" s="58"/>
-      <c r="AJ51" s="58"/>
-      <c r="AK51" s="64"/>
-      <c r="AY51" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ51" s="37"/>
-      <c r="BA51" s="37"/>
-      <c r="BB51" s="37"/>
-      <c r="BC51" s="37"/>
-      <c r="BD51" s="37"/>
-      <c r="BE51" s="38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="AY52" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ52" s="37"/>
-      <c r="BA52" s="37"/>
-      <c r="BB52" s="37"/>
-      <c r="BC52" s="37"/>
-      <c r="BD52" s="37"/>
-      <c r="BE52" s="38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="AY53" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ53" s="37"/>
-      <c r="BA53" s="37"/>
-      <c r="BB53" s="37"/>
-      <c r="BC53" s="37"/>
-      <c r="BD53" s="37"/>
-      <c r="BE53" s="38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="AY54" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="AZ54" s="37"/>
-      <c r="BA54" s="37"/>
-      <c r="BB54" s="37"/>
-      <c r="BC54" s="37"/>
-      <c r="BD54" s="37"/>
-      <c r="BE54" s="38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="AY55" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ55" s="37"/>
-      <c r="BA55" s="37"/>
-      <c r="BB55" s="37"/>
-      <c r="BC55" s="37"/>
-      <c r="BD55" s="37"/>
-      <c r="BE55" s="38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AY56" s="66"/>
-      <c r="AZ56" s="60"/>
-      <c r="BA56" s="60"/>
-      <c r="BB56" s="60"/>
-      <c r="BC56" s="60"/>
-      <c r="BD56" s="60"/>
-      <c r="BE56" s="61"/>
-    </row>
-    <row r="57" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L58" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="M58" s="47">
-        <v>1</v>
-      </c>
-      <c r="N58" s="47">
-        <v>3</v>
-      </c>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="R58" s="55">
-        <v>2</v>
-      </c>
-      <c r="AE58" s="51">
-        <v>10</v>
-      </c>
-      <c r="AF58" s="47"/>
-      <c r="AG58" s="47"/>
-      <c r="AH58" s="47"/>
-      <c r="AI58" s="47"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="55">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L59" s="56" t="s">
-        <v>75</v>
       </c>
       <c r="M59" s="37"/>
       <c r="N59" s="37"/>
@@ -4720,194 +5426,459 @@
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
       <c r="R59" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE59" s="56">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="U59" s="21">
+        <v>12</v>
+      </c>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="44">
+        <v>7</v>
+      </c>
+      <c r="AE59" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="AF59" s="37"/>
       <c r="AG59" s="37"/>
       <c r="AH59" s="37"/>
       <c r="AI59" s="37"/>
       <c r="AJ59" s="37"/>
-      <c r="AK59" s="38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AK59" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO59" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP59" s="37"/>
+      <c r="AQ59" s="37"/>
+      <c r="AR59" s="37"/>
+      <c r="AS59" s="37"/>
+      <c r="AT59" s="37"/>
+      <c r="AU59" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY59" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ59" s="37"/>
+      <c r="BA59" s="37"/>
+      <c r="BB59" s="37"/>
+      <c r="BC59" s="37"/>
+      <c r="BD59" s="37"/>
+      <c r="BE59" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:66" x14ac:dyDescent="0.2">
       <c r="L60" s="56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M60" s="37"/>
       <c r="N60" s="37"/>
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
       <c r="Q60" s="37"/>
-      <c r="R60" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE60" s="56">
-        <v>14</v>
+      <c r="R60" s="38">
+        <v>13</v>
+      </c>
+      <c r="U60" s="21">
+        <v>13</v>
+      </c>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="44">
+        <v>6</v>
+      </c>
+      <c r="AE60" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="AF60" s="37"/>
       <c r="AG60" s="37"/>
       <c r="AH60" s="37"/>
       <c r="AI60" s="37"/>
       <c r="AJ60" s="37"/>
-      <c r="AK60" s="38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AK60" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO60" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP60" s="37"/>
+      <c r="AQ60" s="37"/>
+      <c r="AR60" s="37"/>
+      <c r="AS60" s="37"/>
+      <c r="AT60" s="37"/>
+      <c r="AU60" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY60" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ60" s="37"/>
+      <c r="BA60" s="37"/>
+      <c r="BB60" s="37"/>
+      <c r="BC60" s="37"/>
+      <c r="BD60" s="37"/>
+      <c r="BE60" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:66" x14ac:dyDescent="0.2">
       <c r="L61" s="56" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="M61" s="37"/>
       <c r="N61" s="37"/>
       <c r="O61" s="37"/>
       <c r="P61" s="37"/>
       <c r="Q61" s="37"/>
-      <c r="R61" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE61" s="56">
-        <v>15</v>
+      <c r="R61" s="38">
+        <v>12</v>
+      </c>
+      <c r="U61" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="46">
+        <v>5</v>
+      </c>
+      <c r="AE61" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="AF61" s="37"/>
       <c r="AG61" s="37"/>
-      <c r="AH61" s="37"/>
+      <c r="AH61" s="57"/>
       <c r="AI61" s="37"/>
       <c r="AJ61" s="37"/>
-      <c r="AK61" s="38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L62" s="56">
-        <v>5</v>
+      <c r="AK61" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO61" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP61" s="37"/>
+      <c r="AQ61" s="37"/>
+      <c r="AR61" s="57"/>
+      <c r="AS61" s="37"/>
+      <c r="AT61" s="37"/>
+      <c r="AU61" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY61" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ61" s="37"/>
+      <c r="BA61" s="37"/>
+      <c r="BB61" s="58"/>
+      <c r="BC61" s="37"/>
+      <c r="BD61" s="37"/>
+      <c r="BE61" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="L62" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
+      <c r="O62" s="57" t="s">
+        <v>92</v>
+      </c>
       <c r="P62" s="37"/>
       <c r="Q62" s="37"/>
-      <c r="R62" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE62" s="56" t="s">
-        <v>61</v>
+      <c r="R62" s="38">
+        <v>11</v>
+      </c>
+      <c r="U62" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="44">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="56">
+        <v>2</v>
       </c>
       <c r="AF62" s="37"/>
-      <c r="AG62" s="37"/>
-      <c r="AH62" s="57"/>
+      <c r="AG62" s="22"/>
+      <c r="AH62" s="57" t="s">
+        <v>93</v>
+      </c>
       <c r="AI62" s="37"/>
       <c r="AJ62" s="37"/>
-      <c r="AK62" s="38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L63" s="56">
-        <v>7</v>
+      <c r="AK62" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO62" s="56">
+        <v>2</v>
+      </c>
+      <c r="AP62" s="37"/>
+      <c r="AR62" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS62" s="37"/>
+      <c r="AT62" s="37"/>
+      <c r="AU62" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY62" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ62" s="37"/>
+      <c r="BA62" s="37"/>
+      <c r="BB62" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC62" s="37"/>
+      <c r="BD62" s="37"/>
+      <c r="BE62" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="L63" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="M63" s="37"/>
-      <c r="O63" s="57" t="s">
-        <v>92</v>
-      </c>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
       <c r="P63" s="37"/>
       <c r="Q63" s="37"/>
-      <c r="R63" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE63" s="56" t="s">
-        <v>62</v>
+      <c r="R63" s="38">
+        <v>10</v>
+      </c>
+      <c r="U63" s="21"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="44">
+        <v>3</v>
+      </c>
+      <c r="AE63" s="56">
+        <v>3</v>
       </c>
       <c r="AF63" s="37"/>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="57" t="s">
-        <v>93</v>
-      </c>
+      <c r="AG63" s="37"/>
+      <c r="AH63" s="57"/>
       <c r="AI63" s="37"/>
       <c r="AJ63" s="37"/>
-      <c r="AK63" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="12:57" x14ac:dyDescent="0.2">
-      <c r="L64" s="56">
-        <v>9</v>
+      <c r="AK63" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO63" s="56">
+        <v>3</v>
+      </c>
+      <c r="AP63" s="37"/>
+      <c r="AQ63" s="37"/>
+      <c r="AR63" s="57"/>
+      <c r="AS63" s="37"/>
+      <c r="AT63" s="37"/>
+      <c r="AU63" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY63" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ63" s="37"/>
+      <c r="BA63" s="37"/>
+      <c r="BB63" s="58"/>
+      <c r="BC63" s="37"/>
+      <c r="BD63" s="37"/>
+      <c r="BE63" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="L64" s="56" t="s">
+        <v>64</v>
       </c>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
       <c r="O64" s="37"/>
       <c r="P64" s="37"/>
       <c r="Q64" s="37"/>
-      <c r="R64" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE64" s="56" t="s">
-        <v>63</v>
+      <c r="R64" s="38">
+        <v>9</v>
+      </c>
+      <c r="U64" s="21"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="44">
+        <v>2</v>
+      </c>
+      <c r="AE64" s="56">
+        <v>4</v>
       </c>
       <c r="AF64" s="37"/>
       <c r="AG64" s="37"/>
       <c r="AH64" s="57"/>
       <c r="AI64" s="37"/>
       <c r="AJ64" s="37"/>
-      <c r="AK64" s="38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="8:60" x14ac:dyDescent="0.2">
-      <c r="L65" s="56">
-        <v>10</v>
+      <c r="AK64" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO64" s="56">
+        <v>4</v>
+      </c>
+      <c r="AP64" s="37"/>
+      <c r="AQ64" s="37"/>
+      <c r="AR64" s="57"/>
+      <c r="AS64" s="37"/>
+      <c r="AT64" s="37"/>
+      <c r="AU64" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY64" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ64" s="37"/>
+      <c r="BA64" s="37"/>
+      <c r="BB64" s="58"/>
+      <c r="BC64" s="37"/>
+      <c r="BD64" s="37"/>
+      <c r="BE64" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L65" s="56" t="s">
+        <v>65</v>
       </c>
       <c r="M65" s="37"/>
       <c r="N65" s="37"/>
       <c r="O65" s="37"/>
       <c r="P65" s="37"/>
       <c r="Q65" s="37"/>
-      <c r="R65" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE65" s="56" t="s">
-        <v>64</v>
+      <c r="R65" s="38">
+        <v>7</v>
+      </c>
+      <c r="U65" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE65" s="56">
+        <v>5</v>
       </c>
       <c r="AF65" s="37"/>
       <c r="AG65" s="37"/>
-      <c r="AH65" s="57"/>
+      <c r="AH65" s="37"/>
       <c r="AI65" s="37"/>
       <c r="AJ65" s="37"/>
-      <c r="AK65" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="8:60" x14ac:dyDescent="0.2">
-      <c r="L66" s="56">
-        <v>11</v>
+      <c r="AK65" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO65" s="56">
+        <v>5</v>
+      </c>
+      <c r="AP65" s="37"/>
+      <c r="AQ65" s="37"/>
+      <c r="AR65" s="37"/>
+      <c r="AS65" s="37"/>
+      <c r="AT65" s="37"/>
+      <c r="AU65" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY65" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ65" s="37"/>
+      <c r="BA65" s="37"/>
+      <c r="BB65" s="37"/>
+      <c r="BC65" s="37"/>
+      <c r="BD65" s="37"/>
+      <c r="BE65" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L66" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
       <c r="O66" s="37"/>
       <c r="P66" s="37"/>
       <c r="Q66" s="37"/>
-      <c r="R66" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE66" s="56" t="s">
-        <v>83</v>
+      <c r="R66" s="38">
+        <v>5</v>
+      </c>
+      <c r="U66" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE66" s="56">
+        <v>6</v>
       </c>
       <c r="AF66" s="37"/>
       <c r="AG66" s="37"/>
       <c r="AH66" s="37"/>
       <c r="AI66" s="37"/>
       <c r="AJ66" s="37"/>
-      <c r="AK66" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L67" s="56">
-        <v>12</v>
+      <c r="AK66" s="38">
+        <v>15</v>
+      </c>
+      <c r="AO66" s="56">
+        <v>6</v>
+      </c>
+      <c r="AP66" s="37"/>
+      <c r="AQ66" s="37"/>
+      <c r="AR66" s="37"/>
+      <c r="AS66" s="37"/>
+      <c r="AT66" s="37"/>
+      <c r="AU66" s="38">
+        <v>13</v>
+      </c>
+      <c r="AY66" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ66" s="37"/>
+      <c r="BA66" s="37"/>
+      <c r="BB66" s="37"/>
+      <c r="BC66" s="37"/>
+      <c r="BD66" s="37"/>
+      <c r="BE66" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L67" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="M67" s="37"/>
       <c r="N67" s="37"/>
@@ -4915,23 +5886,54 @@
       <c r="P67" s="37"/>
       <c r="Q67" s="37"/>
       <c r="R67" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE67" s="56" t="s">
-        <v>68</v>
+        <v>95</v>
+      </c>
+      <c r="U67" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE67" s="56">
+        <v>7</v>
       </c>
       <c r="AF67" s="37"/>
       <c r="AG67" s="37"/>
       <c r="AH67" s="37"/>
       <c r="AI67" s="37"/>
       <c r="AJ67" s="37"/>
-      <c r="AK67" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="8:60" x14ac:dyDescent="0.2">
-      <c r="L68" s="56">
-        <v>13</v>
+      <c r="AK67" s="38">
+        <v>14</v>
+      </c>
+      <c r="AO67" s="56">
+        <v>7</v>
+      </c>
+      <c r="AP67" s="37"/>
+      <c r="AQ67" s="37"/>
+      <c r="AR67" s="37"/>
+      <c r="AS67" s="37"/>
+      <c r="AT67" s="37"/>
+      <c r="AU67" s="38">
+        <v>12</v>
+      </c>
+      <c r="AY67" s="56"/>
+      <c r="AZ67" s="37"/>
+      <c r="BA67" s="37"/>
+      <c r="BB67" s="37"/>
+      <c r="BC67" s="37"/>
+      <c r="BD67" s="37"/>
+      <c r="BE67" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L68" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="M68" s="37"/>
       <c r="N68" s="37"/>
@@ -4939,31 +5941,54 @@
       <c r="P68" s="37"/>
       <c r="Q68" s="37"/>
       <c r="R68" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE68" s="56" t="s">
-        <v>69</v>
+        <v>97</v>
+      </c>
+      <c r="U68" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE68" s="56">
+        <v>8</v>
       </c>
       <c r="AF68" s="37"/>
       <c r="AG68" s="37"/>
       <c r="AH68" s="37"/>
       <c r="AI68" s="37"/>
       <c r="AJ68" s="37"/>
-      <c r="AK68" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA68" s="18"/>
-      <c r="BB68" s="19"/>
-      <c r="BC68" s="19"/>
-      <c r="BD68" s="19"/>
-      <c r="BE68" s="19"/>
-      <c r="BF68" s="19"/>
-      <c r="BG68" s="19"/>
-      <c r="BH68" s="20"/>
-    </row>
-    <row r="69" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="AK68" s="38">
+        <v>16</v>
+      </c>
+      <c r="AO68" s="56">
+        <v>8</v>
+      </c>
+      <c r="AP68" s="37"/>
+      <c r="AQ68" s="37"/>
+      <c r="AR68" s="37"/>
+      <c r="AS68" s="37"/>
+      <c r="AT68" s="37"/>
+      <c r="AU68" s="38">
+        <v>11</v>
+      </c>
+      <c r="AY68" s="56"/>
+      <c r="AZ68" s="37"/>
+      <c r="BA68" s="37"/>
+      <c r="BB68" s="37"/>
+      <c r="BC68" s="37"/>
+      <c r="BD68" s="37"/>
+      <c r="BE68" s="38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L69" s="56" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="M69" s="37"/>
       <c r="N69" s="37"/>
@@ -4971,908 +5996,1341 @@
       <c r="P69" s="37"/>
       <c r="Q69" s="37"/>
       <c r="R69" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="U69" s="26"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="31"/>
+      <c r="AE69" s="59">
+        <v>9</v>
+      </c>
+      <c r="AF69" s="60"/>
+      <c r="AG69" s="60"/>
+      <c r="AH69" s="60"/>
+      <c r="AI69" s="60"/>
+      <c r="AJ69" s="60"/>
+      <c r="AK69" s="61">
+        <v>10</v>
+      </c>
+      <c r="AO69" s="59">
+        <v>9</v>
+      </c>
+      <c r="AP69" s="60"/>
+      <c r="AQ69" s="60"/>
+      <c r="AR69" s="60"/>
+      <c r="AS69" s="60"/>
+      <c r="AT69" s="60"/>
+      <c r="AU69" s="61">
+        <v>10</v>
+      </c>
+      <c r="AY69" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ69" s="37"/>
+      <c r="BA69" s="37"/>
+      <c r="BB69" s="37"/>
+      <c r="BC69" s="37"/>
+      <c r="BD69" s="37"/>
+      <c r="BE69" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="59">
+        <v>2</v>
+      </c>
+      <c r="M70" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="N70" s="62"/>
+      <c r="O70" s="62"/>
+      <c r="P70" s="62">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="62">
+        <v>4</v>
+      </c>
+      <c r="R70" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE70" s="63"/>
+      <c r="AF70" s="58"/>
+      <c r="AG70" s="58"/>
+      <c r="AH70" s="58"/>
+      <c r="AI70" s="58"/>
+      <c r="AJ70" s="58"/>
+      <c r="AK70" s="64"/>
+      <c r="AY70" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ70" s="37"/>
+      <c r="BA70" s="37"/>
+      <c r="BB70" s="37"/>
+      <c r="BC70" s="37"/>
+      <c r="BD70" s="37"/>
+      <c r="BE70" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY71" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ71" s="37"/>
+      <c r="BA71" s="37"/>
+      <c r="BB71" s="37"/>
+      <c r="BC71" s="37"/>
+      <c r="BD71" s="37"/>
+      <c r="BE71" s="38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY72" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ72" s="37"/>
+      <c r="BA72" s="37"/>
+      <c r="BB72" s="37"/>
+      <c r="BC72" s="37"/>
+      <c r="BD72" s="37"/>
+      <c r="BE72" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY73" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ73" s="37"/>
+      <c r="BA73" s="37"/>
+      <c r="BB73" s="37"/>
+      <c r="BC73" s="37"/>
+      <c r="BD73" s="37"/>
+      <c r="BE73" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="AY74" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ74" s="37"/>
+      <c r="BA74" s="37"/>
+      <c r="BB74" s="37"/>
+      <c r="BC74" s="37"/>
+      <c r="BD74" s="37"/>
+      <c r="BE74" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AY75" s="66"/>
+      <c r="AZ75" s="60"/>
+      <c r="BA75" s="60"/>
+      <c r="BB75" s="60"/>
+      <c r="BC75" s="60"/>
+      <c r="BD75" s="60"/>
+      <c r="BE75" s="61"/>
+    </row>
+    <row r="76" spans="12:57" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L77" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="M77" s="47">
+        <v>1</v>
+      </c>
+      <c r="N77" s="47">
+        <v>3</v>
+      </c>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="R77" s="55">
+        <v>2</v>
+      </c>
+      <c r="AE77" s="51">
+        <v>10</v>
+      </c>
+      <c r="AF77" s="47"/>
+      <c r="AG77" s="47"/>
+      <c r="AH77" s="47"/>
+      <c r="AI77" s="47"/>
+      <c r="AJ77" s="47"/>
+      <c r="AK77" s="55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L78" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE78" s="56">
+        <v>16</v>
+      </c>
+      <c r="AF78" s="37"/>
+      <c r="AG78" s="37"/>
+      <c r="AH78" s="37"/>
+      <c r="AI78" s="37"/>
+      <c r="AJ78" s="37"/>
+      <c r="AK78" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L79" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE79" s="56">
+        <v>14</v>
+      </c>
+      <c r="AF79" s="37"/>
+      <c r="AG79" s="37"/>
+      <c r="AH79" s="37"/>
+      <c r="AI79" s="37"/>
+      <c r="AJ79" s="37"/>
+      <c r="AK79" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="12:57" x14ac:dyDescent="0.2">
+      <c r="L80" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE80" s="56">
+        <v>15</v>
+      </c>
+      <c r="AF80" s="37"/>
+      <c r="AG80" s="37"/>
+      <c r="AH80" s="37"/>
+      <c r="AI80" s="37"/>
+      <c r="AJ80" s="37"/>
+      <c r="AK80" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L81" s="56">
+        <v>5</v>
+      </c>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE81" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF81" s="37"/>
+      <c r="AG81" s="37"/>
+      <c r="AH81" s="57"/>
+      <c r="AI81" s="37"/>
+      <c r="AJ81" s="37"/>
+      <c r="AK81" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L82" s="56">
+        <v>7</v>
+      </c>
+      <c r="M82" s="37"/>
+      <c r="O82" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE82" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF82" s="37"/>
+      <c r="AG82" s="22"/>
+      <c r="AH82" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI82" s="37"/>
+      <c r="AJ82" s="37"/>
+      <c r="AK82" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L83" s="56">
+        <v>9</v>
+      </c>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE83" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF83" s="37"/>
+      <c r="AG83" s="37"/>
+      <c r="AH83" s="57"/>
+      <c r="AI83" s="37"/>
+      <c r="AJ83" s="37"/>
+      <c r="AK83" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L84" s="56">
+        <v>10</v>
+      </c>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE84" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF84" s="37"/>
+      <c r="AG84" s="37"/>
+      <c r="AH84" s="57"/>
+      <c r="AI84" s="37"/>
+      <c r="AJ84" s="37"/>
+      <c r="AK84" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L85" s="56">
+        <v>11</v>
+      </c>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE85" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF85" s="37"/>
+      <c r="AG85" s="37"/>
+      <c r="AH85" s="37"/>
+      <c r="AI85" s="37"/>
+      <c r="AJ85" s="37"/>
+      <c r="AK85" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L86" s="56">
+        <v>12</v>
+      </c>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE86" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF86" s="37"/>
+      <c r="AG86" s="37"/>
+      <c r="AH86" s="37"/>
+      <c r="AI86" s="37"/>
+      <c r="AJ86" s="37"/>
+      <c r="AK86" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L87" s="56">
+        <v>13</v>
+      </c>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE87" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF87" s="37"/>
+      <c r="AG87" s="37"/>
+      <c r="AH87" s="37"/>
+      <c r="AI87" s="37"/>
+      <c r="AJ87" s="37"/>
+      <c r="AK87" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA87" s="18"/>
+      <c r="BB87" s="19"/>
+      <c r="BC87" s="19"/>
+      <c r="BD87" s="19"/>
+      <c r="BE87" s="19"/>
+      <c r="BF87" s="19"/>
+      <c r="BG87" s="19"/>
+      <c r="BH87" s="20"/>
+    </row>
+    <row r="88" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="L88" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="AE69" s="56" t="s">
+      <c r="AE88" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="AF69" s="37"/>
-      <c r="AG69" s="37"/>
-      <c r="AH69" s="37"/>
-      <c r="AI69" s="37"/>
-      <c r="AJ69" s="37"/>
-      <c r="AK69" s="38" t="s">
+      <c r="AF88" s="37"/>
+      <c r="AG88" s="37"/>
+      <c r="AH88" s="37"/>
+      <c r="AI88" s="37"/>
+      <c r="AJ88" s="37"/>
+      <c r="AK88" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="BA69" s="21"/>
-      <c r="BB69" s="22"/>
-      <c r="BC69" s="22"/>
-      <c r="BD69" s="22"/>
-      <c r="BE69" s="22"/>
-      <c r="BF69" s="22"/>
-      <c r="BG69" s="37"/>
-      <c r="BH69" s="38" t="s">
+      <c r="BA88" s="21"/>
+      <c r="BB88" s="22"/>
+      <c r="BC88" s="22"/>
+      <c r="BD88" s="22"/>
+      <c r="BE88" s="22"/>
+      <c r="BF88" s="22"/>
+      <c r="BG88" s="37"/>
+      <c r="BH88" s="38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L70" s="56" t="s">
+    <row r="89" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L89" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="38" t="s">
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="AE70" s="59"/>
-      <c r="AF70" s="60"/>
-      <c r="AG70" s="60"/>
-      <c r="AH70" s="60"/>
-      <c r="AI70" s="60"/>
-      <c r="AJ70" s="60"/>
-      <c r="AK70" s="61"/>
-      <c r="BA70" s="21"/>
-      <c r="BB70" s="22"/>
-      <c r="BC70" s="22"/>
-      <c r="BD70" s="22"/>
-      <c r="BE70" s="22"/>
-      <c r="BF70" s="22"/>
-      <c r="BG70" s="37"/>
-      <c r="BH70" s="38" t="s">
+      <c r="AE89" s="59"/>
+      <c r="AF89" s="60"/>
+      <c r="AG89" s="60"/>
+      <c r="AH89" s="60"/>
+      <c r="AI89" s="60"/>
+      <c r="AJ89" s="60"/>
+      <c r="AK89" s="61"/>
+      <c r="BA89" s="21"/>
+      <c r="BB89" s="22"/>
+      <c r="BC89" s="22"/>
+      <c r="BD89" s="22"/>
+      <c r="BE89" s="22"/>
+      <c r="BF89" s="22"/>
+      <c r="BG89" s="37"/>
+      <c r="BH89" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L71" s="59" t="s">
+    <row r="90" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L90" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="M71" s="62"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="53" t="s">
+      <c r="M90" s="62"/>
+      <c r="N90" s="52"/>
+      <c r="O90" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="61" t="s">
+      <c r="P90" s="54"/>
+      <c r="Q90" s="62"/>
+      <c r="R90" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AG71" s="52"/>
-      <c r="AH71" s="53" t="s">
+      <c r="AG90" s="52"/>
+      <c r="AH90" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="AI71" s="54"/>
-      <c r="BA71" s="21"/>
-      <c r="BB71" s="22"/>
-      <c r="BC71" s="22"/>
-      <c r="BD71" s="22" t="s">
+      <c r="AI90" s="54"/>
+      <c r="BA90" s="21"/>
+      <c r="BB90" s="22"/>
+      <c r="BC90" s="22"/>
+      <c r="BD90" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="BE71" s="22"/>
-      <c r="BF71" s="22"/>
-      <c r="BG71" s="37"/>
-      <c r="BH71" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="8:60" x14ac:dyDescent="0.2">
-      <c r="BA72" s="21"/>
-      <c r="BB72" s="22"/>
-      <c r="BC72" s="22"/>
-      <c r="BD72" s="22"/>
-      <c r="BE72" s="22"/>
-      <c r="BF72" s="22"/>
-      <c r="BG72" s="37"/>
-      <c r="BH72" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="BA73" s="21"/>
-      <c r="BB73" s="22"/>
-      <c r="BC73" s="22"/>
-      <c r="BD73" s="22"/>
-      <c r="BE73" s="22"/>
-      <c r="BF73" s="22"/>
-      <c r="BG73" s="37"/>
-      <c r="BH73" s="38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="8:60" x14ac:dyDescent="0.2">
-      <c r="H74" s="80">
-        <v>2</v>
-      </c>
-      <c r="I74" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="J74" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="K74" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="L74" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="M74" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="N74" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O74" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="P74" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q74" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="R74" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="S74" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="T74" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="U74" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA74" s="21"/>
-      <c r="BB74" s="22"/>
-      <c r="BC74" s="22"/>
-      <c r="BD74" s="22"/>
-      <c r="BE74" s="22"/>
-      <c r="BF74" s="22"/>
-      <c r="BG74" s="37"/>
-      <c r="BH74" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H75" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="58"/>
-      <c r="P75" s="58"/>
-      <c r="Q75" s="58"/>
-      <c r="R75" s="58"/>
-      <c r="S75" s="58"/>
-      <c r="T75" s="58"/>
-      <c r="U75" s="84"/>
-      <c r="BA75" s="21"/>
-      <c r="BB75" s="22"/>
-      <c r="BC75" s="22"/>
-      <c r="BD75" s="22"/>
-      <c r="BE75" s="22"/>
-      <c r="BF75" s="22"/>
-      <c r="BG75" s="37"/>
-      <c r="BH75" s="38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H76" s="83"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="58"/>
-      <c r="P76" s="58"/>
-      <c r="Q76" s="58"/>
-      <c r="R76" s="58"/>
-      <c r="S76" s="58"/>
-      <c r="T76" s="58"/>
-      <c r="U76" s="85"/>
-      <c r="BA76" s="26"/>
-      <c r="BB76" s="27"/>
-      <c r="BC76" s="27"/>
-      <c r="BD76" s="27"/>
-      <c r="BE76" s="27"/>
-      <c r="BF76" s="27"/>
-      <c r="BG76" s="27"/>
-      <c r="BH76" s="39"/>
-    </row>
-    <row r="77" spans="8:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H77" s="83"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="58"/>
-      <c r="L77" s="58"/>
-      <c r="M77" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="N77" s="58"/>
-      <c r="O77" s="58"/>
-      <c r="P77" s="58"/>
-      <c r="Q77" s="58"/>
-      <c r="R77" s="58"/>
-      <c r="S77" s="58"/>
-      <c r="T77" s="58"/>
-      <c r="U77" s="86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H78" s="83">
-        <v>3</v>
-      </c>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="58"/>
-      <c r="M78" s="58"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="58"/>
-      <c r="P78" s="58"/>
-      <c r="Q78" s="58"/>
-      <c r="R78" s="58"/>
-      <c r="S78" s="58"/>
-      <c r="T78" s="58"/>
-      <c r="U78" s="87"/>
-    </row>
-    <row r="79" spans="8:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H79" s="83">
-        <v>1</v>
-      </c>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="58"/>
-      <c r="O79" s="58"/>
-      <c r="P79" s="58"/>
-      <c r="Q79" s="58"/>
-      <c r="R79" s="58"/>
-      <c r="S79" s="58"/>
-      <c r="T79" s="58"/>
-      <c r="U79" s="84"/>
-      <c r="AY79" s="18"/>
-      <c r="AZ79" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA79" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB79" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC79" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD79" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE79" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF79" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG79" s="20"/>
-    </row>
-    <row r="80" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H80" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="I80" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="J80" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="K80" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="L80" s="62">
-        <v>5</v>
-      </c>
-      <c r="M80" s="62">
-        <v>7</v>
-      </c>
-      <c r="N80" s="62">
-        <v>9</v>
-      </c>
-      <c r="O80" s="62">
-        <v>10</v>
-      </c>
-      <c r="P80" s="62">
-        <v>11</v>
-      </c>
-      <c r="Q80" s="62">
-        <v>12</v>
-      </c>
-      <c r="R80" s="62">
-        <v>13</v>
-      </c>
-      <c r="S80" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="T80" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="U80" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC80" s="14"/>
-      <c r="AD80" s="14"/>
-      <c r="AE80" s="14"/>
-      <c r="AF80" s="14"/>
-      <c r="AG80" s="14"/>
-      <c r="AH80" s="14"/>
-      <c r="AI80" s="14"/>
-      <c r="AJ80" s="14"/>
-      <c r="AK80" s="14"/>
-      <c r="AL80" s="14"/>
-      <c r="AM80" s="14"/>
-      <c r="AN80" s="14"/>
-      <c r="AO80" s="14"/>
-      <c r="AP80" s="14"/>
-      <c r="AQ80" s="14"/>
-      <c r="AR80" s="14"/>
-      <c r="AY80" s="21"/>
-      <c r="AZ80" s="22"/>
-      <c r="BA80" s="22"/>
-      <c r="BB80" s="22"/>
-      <c r="BC80" s="22"/>
-      <c r="BD80" s="22"/>
-      <c r="BE80" s="22"/>
-      <c r="BF80" s="22"/>
-      <c r="BG80" s="25"/>
-    </row>
-    <row r="81" spans="8:61" x14ac:dyDescent="0.2">
-      <c r="AC81" s="14"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="93"/>
-      <c r="AF81" s="93"/>
-      <c r="AG81" s="93"/>
-      <c r="AH81" s="93"/>
-      <c r="AI81" s="93"/>
-      <c r="AJ81" s="93"/>
-      <c r="AK81" s="93"/>
-      <c r="AL81" s="93"/>
-      <c r="AM81" s="93"/>
-      <c r="AN81" s="93"/>
-      <c r="AO81" s="93"/>
-      <c r="AP81" s="93"/>
-      <c r="AQ81" s="93"/>
-      <c r="AR81" s="93"/>
-      <c r="AY81" s="21"/>
-      <c r="AZ81" s="22"/>
-      <c r="BA81" s="22"/>
-      <c r="BB81" s="22"/>
-      <c r="BC81" s="22"/>
-      <c r="BD81" s="22"/>
-      <c r="BE81" s="22"/>
-      <c r="BF81" s="22"/>
-      <c r="BG81" s="25"/>
-    </row>
-    <row r="82" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AC82" s="14"/>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="45"/>
-      <c r="AF82" s="45"/>
-      <c r="AG82" s="45"/>
-      <c r="AH82" s="45"/>
-      <c r="AI82" s="45"/>
-      <c r="AJ82" s="45"/>
-      <c r="AK82" s="45"/>
-      <c r="AL82" s="45"/>
-      <c r="AM82" s="45"/>
-      <c r="AN82" s="45"/>
-      <c r="AO82" s="45"/>
-      <c r="AP82" s="45"/>
-      <c r="AQ82" s="45"/>
-      <c r="AR82" s="90"/>
-      <c r="AY82" s="21"/>
-      <c r="AZ82" s="22"/>
-      <c r="BA82" s="22"/>
-      <c r="BB82" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC82" s="22"/>
-      <c r="BD82" s="22"/>
-      <c r="BE82" s="22"/>
-      <c r="BF82" s="22"/>
-      <c r="BG82" s="25"/>
-    </row>
-    <row r="83" spans="8:61" x14ac:dyDescent="0.2">
-      <c r="H83" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="I83" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="J83" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="K83" s="81">
-        <v>13</v>
-      </c>
-      <c r="L83" s="81">
-        <v>12</v>
-      </c>
-      <c r="M83" s="81">
-        <v>11</v>
-      </c>
-      <c r="N83" s="81">
-        <v>10</v>
-      </c>
-      <c r="O83" s="81">
-        <v>9</v>
-      </c>
-      <c r="P83" s="81">
-        <v>7</v>
-      </c>
-      <c r="Q83" s="81">
-        <v>5</v>
-      </c>
-      <c r="R83" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="S83" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="T83" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="U83" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC83" s="14"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="14"/>
-      <c r="AF83" s="45"/>
-      <c r="AG83" s="45"/>
-      <c r="AH83" s="45"/>
-      <c r="AI83" s="45"/>
-      <c r="AJ83" s="14"/>
-      <c r="AK83" s="45"/>
-      <c r="AL83" s="45"/>
-      <c r="AM83" s="45"/>
-      <c r="AN83" s="45"/>
-      <c r="AO83" s="45"/>
-      <c r="AP83" s="45"/>
-      <c r="AQ83" s="45"/>
-      <c r="AR83" s="90"/>
-      <c r="AY83" s="21"/>
-      <c r="AZ83" s="22"/>
-      <c r="BA83" s="22"/>
-      <c r="BB83" s="22"/>
-      <c r="BC83" s="22"/>
-      <c r="BD83" s="22"/>
-      <c r="BE83" s="22"/>
-      <c r="BF83" s="22"/>
-      <c r="BG83" s="25"/>
-    </row>
-    <row r="84" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H84" s="83"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="58"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="58"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="58"/>
-      <c r="P84" s="58"/>
-      <c r="Q84" s="58"/>
-      <c r="R84" s="58"/>
-      <c r="S84" s="58"/>
-      <c r="T84" s="58"/>
-      <c r="U84" s="84">
-        <v>4</v>
-      </c>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22"/>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="14"/>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="29"/>
-      <c r="AF84" s="45"/>
-      <c r="AG84" s="45"/>
-      <c r="AH84" s="45"/>
-      <c r="AI84" s="45"/>
-      <c r="AJ84" s="94"/>
-      <c r="AK84" s="45"/>
-      <c r="AL84" s="45"/>
-      <c r="AM84" s="45"/>
-      <c r="AN84" s="45"/>
-      <c r="AO84" s="45"/>
-      <c r="AP84" s="45"/>
-      <c r="AQ84" s="45"/>
-      <c r="AR84" s="90"/>
-      <c r="AY84" s="21"/>
-      <c r="AZ84" s="22"/>
-      <c r="BA84" s="22"/>
-      <c r="BB84" s="22"/>
-      <c r="BC84" s="22"/>
-      <c r="BD84" s="22"/>
-      <c r="BE84" s="22"/>
-      <c r="BF84" s="22"/>
-      <c r="BG84" s="25"/>
-    </row>
-    <row r="85" spans="8:61" x14ac:dyDescent="0.2">
-      <c r="H85" s="85"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="58"/>
-      <c r="L85" s="58"/>
-      <c r="M85" s="58"/>
-      <c r="N85" s="58"/>
-      <c r="O85" s="58"/>
-      <c r="P85" s="58"/>
-      <c r="Q85" s="58"/>
-      <c r="R85" s="58"/>
-      <c r="S85" s="58"/>
-      <c r="T85" s="58"/>
-      <c r="U85" s="91">
-        <v>3</v>
-      </c>
-      <c r="V85" s="22"/>
-      <c r="W85" s="63"/>
-      <c r="X85" s="63"/>
-      <c r="Y85" s="63"/>
-      <c r="Z85" s="63"/>
-      <c r="AA85" s="63"/>
-      <c r="AB85" s="63"/>
-      <c r="AC85" s="93"/>
-      <c r="AD85" s="93"/>
-      <c r="AE85" s="14"/>
-      <c r="AF85" s="45"/>
-      <c r="AG85" s="45"/>
-      <c r="AH85" s="45"/>
-      <c r="AI85" s="45"/>
-      <c r="AJ85" s="45"/>
-      <c r="AK85" s="45"/>
-      <c r="AL85" s="45"/>
-      <c r="AM85" s="45"/>
-      <c r="AN85" s="45"/>
-      <c r="AO85" s="45"/>
-      <c r="AP85" s="45"/>
-      <c r="AQ85" s="45"/>
-      <c r="AR85" s="90"/>
-      <c r="AY85" s="21"/>
-      <c r="AZ85" s="22"/>
-      <c r="BA85" s="22"/>
-      <c r="BB85" s="22"/>
-      <c r="BC85" s="22"/>
-      <c r="BD85" s="22"/>
-      <c r="BE85" s="22"/>
-      <c r="BF85" s="22"/>
-      <c r="BG85" s="25"/>
-    </row>
-    <row r="86" spans="8:61" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H86" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="58"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="N86" s="58"/>
-      <c r="O86" s="58"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="58"/>
-      <c r="R86" s="58"/>
-      <c r="S86" s="58"/>
-      <c r="T86" s="58"/>
-      <c r="U86" s="92"/>
-      <c r="V86" s="22"/>
-      <c r="W86" s="22"/>
-      <c r="X86" s="22"/>
-      <c r="Y86" s="22"/>
-      <c r="Z86" s="22"/>
-      <c r="AA86" s="22"/>
-      <c r="AB86" s="22"/>
-      <c r="AC86" s="14"/>
-      <c r="AD86" s="14"/>
-      <c r="AE86" s="45"/>
-      <c r="AF86" s="45"/>
-      <c r="AG86" s="45"/>
-      <c r="AH86" s="45"/>
-      <c r="AI86" s="45"/>
-      <c r="AJ86" s="45"/>
-      <c r="AK86" s="45"/>
-      <c r="AL86" s="45"/>
-      <c r="AM86" s="45"/>
-      <c r="AN86" s="45"/>
-      <c r="AO86" s="45"/>
-      <c r="AP86" s="45"/>
-      <c r="AQ86" s="45"/>
-      <c r="AR86" s="90"/>
-      <c r="AY86" s="26"/>
-      <c r="AZ86" s="27"/>
-      <c r="BA86" s="27"/>
-      <c r="BB86" s="27"/>
-      <c r="BC86" s="27"/>
-      <c r="BD86" s="27"/>
-      <c r="BE86" s="27"/>
-      <c r="BF86" s="27"/>
-      <c r="BG86" s="31"/>
-    </row>
-    <row r="87" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H87" s="87"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="58"/>
-      <c r="L87" s="58"/>
-      <c r="M87" s="58"/>
-      <c r="N87" s="58"/>
-      <c r="O87" s="58"/>
-      <c r="P87" s="58"/>
-      <c r="Q87" s="58"/>
-      <c r="R87" s="58"/>
-      <c r="S87" s="58"/>
-      <c r="T87" s="58"/>
-      <c r="U87" s="91"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
-      <c r="Z87" s="22"/>
-      <c r="AA87" s="22"/>
-      <c r="AB87" s="22"/>
-      <c r="AC87" s="14"/>
-      <c r="AD87" s="14"/>
-      <c r="AE87" s="68"/>
-      <c r="AF87" s="68"/>
-      <c r="AG87" s="68"/>
-      <c r="AH87" s="68"/>
-      <c r="AI87" s="68"/>
-      <c r="AJ87" s="68"/>
-      <c r="AK87" s="68"/>
-      <c r="AL87" s="68"/>
-      <c r="AM87" s="68"/>
-      <c r="AN87" s="68"/>
-      <c r="AO87" s="68"/>
-      <c r="AP87" s="68"/>
-      <c r="AQ87" s="68"/>
-      <c r="AR87" s="68"/>
-    </row>
-    <row r="88" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H88" s="83"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="58"/>
-      <c r="P88" s="58"/>
-      <c r="Q88" s="58"/>
-      <c r="R88" s="58"/>
-      <c r="S88" s="58"/>
-      <c r="T88" s="58"/>
-      <c r="U88" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="V88" s="22"/>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
-      <c r="Z88" s="22"/>
-      <c r="AA88" s="22"/>
-      <c r="AB88" s="22"/>
-      <c r="AC88" s="14"/>
-      <c r="AD88" s="14"/>
-      <c r="AE88" s="14"/>
-      <c r="AF88" s="14"/>
-      <c r="AG88" s="14"/>
-      <c r="AH88" s="14"/>
-      <c r="AI88" s="14"/>
-      <c r="AJ88" s="14"/>
-      <c r="AK88" s="14"/>
-      <c r="AL88" s="14"/>
-      <c r="AM88" s="14"/>
-      <c r="AN88" s="14"/>
-      <c r="AO88" s="14"/>
-      <c r="AP88" s="14"/>
-      <c r="AQ88" s="14"/>
-      <c r="AR88" s="14"/>
-    </row>
-    <row r="89" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H89" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="I89" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="J89" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="K89" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="L89" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="M89" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="N89" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="O89" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="P89" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q89" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="R89" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="S89" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="T89" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="U89" s="89">
-        <v>2</v>
-      </c>
-      <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-      <c r="X89" s="22"/>
-      <c r="Y89" s="22"/>
-      <c r="Z89" s="22"/>
-      <c r="AA89" s="22"/>
-      <c r="AB89" s="22"/>
-      <c r="AC89" s="22"/>
-      <c r="AD89" s="22"/>
-      <c r="AE89" s="22"/>
-      <c r="AF89" s="22"/>
-      <c r="AG89" s="22"/>
-      <c r="AH89" s="22"/>
-      <c r="AI89" s="22"/>
-      <c r="AJ89" s="22"/>
-      <c r="AK89" s="22"/>
-      <c r="AL89" s="22"/>
-      <c r="BB89" s="18"/>
-      <c r="BC89" s="19"/>
-      <c r="BD89" s="19"/>
-      <c r="BE89" s="19"/>
-      <c r="BF89" s="19"/>
-      <c r="BG89" s="19"/>
-      <c r="BH89" s="19"/>
-      <c r="BI89" s="20"/>
-    </row>
-    <row r="90" spans="8:61" x14ac:dyDescent="0.2">
-      <c r="V90" s="22"/>
-      <c r="W90" s="64"/>
-      <c r="X90" s="64"/>
-      <c r="Y90" s="64"/>
-      <c r="Z90" s="64"/>
-      <c r="AA90" s="64"/>
-      <c r="AB90" s="64"/>
-      <c r="AC90" s="64"/>
-      <c r="AD90" s="64"/>
-      <c r="AE90" s="64"/>
-      <c r="AF90" s="64"/>
-      <c r="AG90" s="64"/>
-      <c r="AH90" s="64"/>
-      <c r="AI90" s="64"/>
-      <c r="AJ90" s="64"/>
-      <c r="AK90" s="22"/>
-      <c r="AL90" s="22"/>
-      <c r="BB90" s="21"/>
-      <c r="BC90" s="22"/>
-      <c r="BD90" s="22"/>
       <c r="BE90" s="22"/>
       <c r="BF90" s="22"/>
-      <c r="BG90" s="22"/>
-      <c r="BH90" s="37"/>
-      <c r="BI90" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="8:61" x14ac:dyDescent="0.2">
-      <c r="BB91" s="21"/>
+      <c r="BG90" s="37"/>
+      <c r="BH90" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="BA91" s="21"/>
+      <c r="BB91" s="22"/>
       <c r="BC91" s="22"/>
       <c r="BD91" s="22"/>
       <c r="BE91" s="22"/>
       <c r="BF91" s="22"/>
-      <c r="BG91" s="22"/>
-      <c r="BH91" s="37"/>
-      <c r="BI91" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="8:61" x14ac:dyDescent="0.2">
-      <c r="BB92" s="21"/>
+      <c r="BG91" s="37"/>
+      <c r="BH91" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="8:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BA92" s="21"/>
+      <c r="BB92" s="22"/>
       <c r="BC92" s="22"/>
       <c r="BD92" s="22"/>
-      <c r="BE92" s="22" t="s">
-        <v>79</v>
-      </c>
+      <c r="BE92" s="22"/>
       <c r="BF92" s="22"/>
-      <c r="BG92" s="22"/>
-      <c r="BH92" s="37"/>
-      <c r="BI92" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93" spans="8:61" x14ac:dyDescent="0.2">
-      <c r="BB93" s="21"/>
+      <c r="BG92" s="37"/>
+      <c r="BH92" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="8:60" x14ac:dyDescent="0.2">
+      <c r="H93" s="80">
+        <v>2</v>
+      </c>
+      <c r="I93" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="J93" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="K93" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="L93" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="M93" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="N93" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O93" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q93" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="R93" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="S93" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="T93" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="U93" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA93" s="21"/>
+      <c r="BB93" s="22"/>
       <c r="BC93" s="22"/>
       <c r="BD93" s="22"/>
       <c r="BE93" s="22"/>
       <c r="BF93" s="22"/>
-      <c r="BG93" s="22"/>
-      <c r="BH93" s="37"/>
-      <c r="BI93" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="8:61" x14ac:dyDescent="0.2">
-      <c r="BB94" s="21"/>
+      <c r="BG93" s="37"/>
+      <c r="BH93" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="58"/>
+      <c r="O94" s="58"/>
+      <c r="P94" s="58"/>
+      <c r="Q94" s="58"/>
+      <c r="R94" s="58"/>
+      <c r="S94" s="58"/>
+      <c r="T94" s="58"/>
+      <c r="U94" s="84"/>
+      <c r="BA94" s="21"/>
+      <c r="BB94" s="22"/>
       <c r="BC94" s="22"/>
       <c r="BD94" s="22"/>
       <c r="BE94" s="22"/>
       <c r="BF94" s="22"/>
-      <c r="BG94" s="22"/>
-      <c r="BH94" s="37"/>
-      <c r="BI94" s="38" t="s">
+      <c r="BG94" s="37"/>
+      <c r="BH94" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="8:60" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="83"/>
+      <c r="I95" s="58"/>
+      <c r="J95" s="58"/>
+      <c r="K95" s="58"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="58"/>
+      <c r="N95" s="58"/>
+      <c r="O95" s="58"/>
+      <c r="P95" s="58"/>
+      <c r="Q95" s="58"/>
+      <c r="R95" s="58"/>
+      <c r="S95" s="58"/>
+      <c r="T95" s="58"/>
+      <c r="U95" s="85"/>
+      <c r="BA95" s="26"/>
+      <c r="BB95" s="27"/>
+      <c r="BC95" s="27"/>
+      <c r="BD95" s="27"/>
+      <c r="BE95" s="27"/>
+      <c r="BF95" s="27"/>
+      <c r="BG95" s="27"/>
+      <c r="BH95" s="39"/>
+    </row>
+    <row r="96" spans="8:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H96" s="83"/>
+      <c r="I96" s="58"/>
+      <c r="J96" s="58"/>
+      <c r="K96" s="58"/>
+      <c r="L96" s="58"/>
+      <c r="M96" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="N96" s="58"/>
+      <c r="O96" s="58"/>
+      <c r="P96" s="58"/>
+      <c r="Q96" s="58"/>
+      <c r="R96" s="58"/>
+      <c r="S96" s="58"/>
+      <c r="T96" s="58"/>
+      <c r="U96" s="86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="8:61" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="83">
+        <v>3</v>
+      </c>
+      <c r="I97" s="58"/>
+      <c r="J97" s="58"/>
+      <c r="K97" s="58"/>
+      <c r="L97" s="58"/>
+      <c r="M97" s="58"/>
+      <c r="N97" s="58"/>
+      <c r="O97" s="58"/>
+      <c r="P97" s="58"/>
+      <c r="Q97" s="58"/>
+      <c r="R97" s="58"/>
+      <c r="S97" s="58"/>
+      <c r="T97" s="58"/>
+      <c r="U97" s="87"/>
+    </row>
+    <row r="98" spans="8:61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H98" s="83">
+        <v>1</v>
+      </c>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="58"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="58"/>
+      <c r="N98" s="58"/>
+      <c r="O98" s="58"/>
+      <c r="P98" s="58"/>
+      <c r="Q98" s="58"/>
+      <c r="R98" s="58"/>
+      <c r="S98" s="58"/>
+      <c r="T98" s="58"/>
+      <c r="U98" s="84"/>
+      <c r="AY98" s="18"/>
+      <c r="AZ98" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA98" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB98" s="47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="95" spans="8:61" x14ac:dyDescent="0.2">
-      <c r="BB95" s="21"/>
-      <c r="BC95" s="22"/>
-      <c r="BD95" s="22"/>
-      <c r="BE95" s="22"/>
-      <c r="BF95" s="22"/>
-      <c r="BG95" s="22"/>
-      <c r="BH95" s="37"/>
-      <c r="BI95" s="38" t="s">
+      <c r="BC98" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD98" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE98" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF98" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG98" s="20"/>
+    </row>
+    <row r="99" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="I99" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J99" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="K99" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="L99" s="62">
+        <v>5</v>
+      </c>
+      <c r="M99" s="62">
+        <v>7</v>
+      </c>
+      <c r="N99" s="62">
+        <v>9</v>
+      </c>
+      <c r="O99" s="62">
+        <v>10</v>
+      </c>
+      <c r="P99" s="62">
+        <v>11</v>
+      </c>
+      <c r="Q99" s="62">
+        <v>12</v>
+      </c>
+      <c r="R99" s="62">
+        <v>13</v>
+      </c>
+      <c r="S99" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="T99" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="U99" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC99" s="14"/>
+      <c r="AD99" s="14"/>
+      <c r="AE99" s="14"/>
+      <c r="AF99" s="14"/>
+      <c r="AG99" s="14"/>
+      <c r="AH99" s="14"/>
+      <c r="AI99" s="14"/>
+      <c r="AJ99" s="14"/>
+      <c r="AK99" s="14"/>
+      <c r="AL99" s="14"/>
+      <c r="AM99" s="14"/>
+      <c r="AN99" s="14"/>
+      <c r="AO99" s="14"/>
+      <c r="AP99" s="14"/>
+      <c r="AQ99" s="14"/>
+      <c r="AR99" s="14"/>
+      <c r="AY99" s="21"/>
+      <c r="AZ99" s="22"/>
+      <c r="BA99" s="22"/>
+      <c r="BB99" s="22"/>
+      <c r="BC99" s="22"/>
+      <c r="BD99" s="22"/>
+      <c r="BE99" s="22"/>
+      <c r="BF99" s="22"/>
+      <c r="BG99" s="25"/>
+    </row>
+    <row r="100" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="AC100" s="14"/>
+      <c r="AD100" s="14"/>
+      <c r="AE100" s="93"/>
+      <c r="AF100" s="93"/>
+      <c r="AG100" s="93"/>
+      <c r="AH100" s="93"/>
+      <c r="AI100" s="93"/>
+      <c r="AJ100" s="93"/>
+      <c r="AK100" s="93"/>
+      <c r="AL100" s="93"/>
+      <c r="AM100" s="93"/>
+      <c r="AN100" s="93"/>
+      <c r="AO100" s="93"/>
+      <c r="AP100" s="93"/>
+      <c r="AQ100" s="93"/>
+      <c r="AR100" s="93"/>
+      <c r="AY100" s="21"/>
+      <c r="AZ100" s="22"/>
+      <c r="BA100" s="22"/>
+      <c r="BB100" s="22"/>
+      <c r="BC100" s="22"/>
+      <c r="BD100" s="22"/>
+      <c r="BE100" s="22"/>
+      <c r="BF100" s="22"/>
+      <c r="BG100" s="25"/>
+    </row>
+    <row r="101" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AC101" s="14"/>
+      <c r="AD101" s="14"/>
+      <c r="AE101" s="45"/>
+      <c r="AF101" s="45"/>
+      <c r="AG101" s="45"/>
+      <c r="AH101" s="45"/>
+      <c r="AI101" s="45"/>
+      <c r="AJ101" s="45"/>
+      <c r="AK101" s="45"/>
+      <c r="AL101" s="45"/>
+      <c r="AM101" s="45"/>
+      <c r="AN101" s="45"/>
+      <c r="AO101" s="45"/>
+      <c r="AP101" s="45"/>
+      <c r="AQ101" s="45"/>
+      <c r="AR101" s="90"/>
+      <c r="AY101" s="21"/>
+      <c r="AZ101" s="22"/>
+      <c r="BA101" s="22"/>
+      <c r="BB101" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC101" s="22"/>
+      <c r="BD101" s="22"/>
+      <c r="BE101" s="22"/>
+      <c r="BF101" s="22"/>
+      <c r="BG101" s="25"/>
+    </row>
+    <row r="102" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="H102" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="I102" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="J102" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="K102" s="81">
+        <v>13</v>
+      </c>
+      <c r="L102" s="81">
+        <v>12</v>
+      </c>
+      <c r="M102" s="81">
+        <v>11</v>
+      </c>
+      <c r="N102" s="81">
+        <v>10</v>
+      </c>
+      <c r="O102" s="81">
+        <v>9</v>
+      </c>
+      <c r="P102" s="81">
+        <v>7</v>
+      </c>
+      <c r="Q102" s="81">
+        <v>5</v>
+      </c>
+      <c r="R102" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="S102" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="T102" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="U102" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC102" s="14"/>
+      <c r="AD102" s="14"/>
+      <c r="AE102" s="14"/>
+      <c r="AF102" s="45"/>
+      <c r="AG102" s="45"/>
+      <c r="AH102" s="45"/>
+      <c r="AI102" s="45"/>
+      <c r="AJ102" s="14"/>
+      <c r="AK102" s="45"/>
+      <c r="AL102" s="45"/>
+      <c r="AM102" s="45"/>
+      <c r="AN102" s="45"/>
+      <c r="AO102" s="45"/>
+      <c r="AP102" s="45"/>
+      <c r="AQ102" s="45"/>
+      <c r="AR102" s="90"/>
+      <c r="AY102" s="21"/>
+      <c r="AZ102" s="22"/>
+      <c r="BA102" s="22"/>
+      <c r="BB102" s="22"/>
+      <c r="BC102" s="22"/>
+      <c r="BD102" s="22"/>
+      <c r="BE102" s="22"/>
+      <c r="BF102" s="22"/>
+      <c r="BG102" s="25"/>
+    </row>
+    <row r="103" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="83"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
+      <c r="P103" s="58"/>
+      <c r="Q103" s="58"/>
+      <c r="R103" s="58"/>
+      <c r="S103" s="58"/>
+      <c r="T103" s="58"/>
+      <c r="U103" s="84">
+        <v>4</v>
+      </c>
+      <c r="V103" s="22"/>
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="22"/>
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="14"/>
+      <c r="AD103" s="14"/>
+      <c r="AE103" s="29"/>
+      <c r="AF103" s="45"/>
+      <c r="AG103" s="45"/>
+      <c r="AH103" s="45"/>
+      <c r="AI103" s="45"/>
+      <c r="AJ103" s="94"/>
+      <c r="AK103" s="45"/>
+      <c r="AL103" s="45"/>
+      <c r="AM103" s="45"/>
+      <c r="AN103" s="45"/>
+      <c r="AO103" s="45"/>
+      <c r="AP103" s="45"/>
+      <c r="AQ103" s="45"/>
+      <c r="AR103" s="90"/>
+      <c r="AY103" s="21"/>
+      <c r="AZ103" s="22"/>
+      <c r="BA103" s="22"/>
+      <c r="BB103" s="22"/>
+      <c r="BC103" s="22"/>
+      <c r="BD103" s="22"/>
+      <c r="BE103" s="22"/>
+      <c r="BF103" s="22"/>
+      <c r="BG103" s="25"/>
+    </row>
+    <row r="104" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="H104" s="85"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
+      <c r="P104" s="58"/>
+      <c r="Q104" s="58"/>
+      <c r="R104" s="58"/>
+      <c r="S104" s="58"/>
+      <c r="T104" s="58"/>
+      <c r="U104" s="91">
+        <v>3</v>
+      </c>
+      <c r="V104" s="22"/>
+      <c r="W104" s="63"/>
+      <c r="X104" s="63"/>
+      <c r="Y104" s="63"/>
+      <c r="Z104" s="63"/>
+      <c r="AA104" s="63"/>
+      <c r="AB104" s="63"/>
+      <c r="AC104" s="93"/>
+      <c r="AD104" s="93"/>
+      <c r="AE104" s="14"/>
+      <c r="AF104" s="45"/>
+      <c r="AG104" s="45"/>
+      <c r="AH104" s="45"/>
+      <c r="AI104" s="45"/>
+      <c r="AJ104" s="45"/>
+      <c r="AK104" s="45"/>
+      <c r="AL104" s="45"/>
+      <c r="AM104" s="45"/>
+      <c r="AN104" s="45"/>
+      <c r="AO104" s="45"/>
+      <c r="AP104" s="45"/>
+      <c r="AQ104" s="45"/>
+      <c r="AR104" s="90"/>
+      <c r="AY104" s="21"/>
+      <c r="AZ104" s="22"/>
+      <c r="BA104" s="22"/>
+      <c r="BB104" s="22"/>
+      <c r="BC104" s="22"/>
+      <c r="BD104" s="22"/>
+      <c r="BE104" s="22"/>
+      <c r="BF104" s="22"/>
+      <c r="BG104" s="25"/>
+    </row>
+    <row r="105" spans="8:61" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="I105" s="58"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="58"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="N105" s="58"/>
+      <c r="O105" s="58"/>
+      <c r="P105" s="58"/>
+      <c r="Q105" s="58"/>
+      <c r="R105" s="58"/>
+      <c r="S105" s="58"/>
+      <c r="T105" s="58"/>
+      <c r="U105" s="92"/>
+      <c r="V105" s="22"/>
+      <c r="W105" s="22"/>
+      <c r="X105" s="22"/>
+      <c r="Y105" s="22"/>
+      <c r="Z105" s="22"/>
+      <c r="AA105" s="22"/>
+      <c r="AB105" s="22"/>
+      <c r="AC105" s="14"/>
+      <c r="AD105" s="14"/>
+      <c r="AE105" s="45"/>
+      <c r="AF105" s="45"/>
+      <c r="AG105" s="45"/>
+      <c r="AH105" s="45"/>
+      <c r="AI105" s="45"/>
+      <c r="AJ105" s="45"/>
+      <c r="AK105" s="45"/>
+      <c r="AL105" s="45"/>
+      <c r="AM105" s="45"/>
+      <c r="AN105" s="45"/>
+      <c r="AO105" s="45"/>
+      <c r="AP105" s="45"/>
+      <c r="AQ105" s="45"/>
+      <c r="AR105" s="90"/>
+      <c r="AY105" s="26"/>
+      <c r="AZ105" s="27"/>
+      <c r="BA105" s="27"/>
+      <c r="BB105" s="27"/>
+      <c r="BC105" s="27"/>
+      <c r="BD105" s="27"/>
+      <c r="BE105" s="27"/>
+      <c r="BF105" s="27"/>
+      <c r="BG105" s="31"/>
+    </row>
+    <row r="106" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="87"/>
+      <c r="I106" s="58"/>
+      <c r="J106" s="58"/>
+      <c r="K106" s="58"/>
+      <c r="L106" s="58"/>
+      <c r="M106" s="58"/>
+      <c r="N106" s="58"/>
+      <c r="O106" s="58"/>
+      <c r="P106" s="58"/>
+      <c r="Q106" s="58"/>
+      <c r="R106" s="58"/>
+      <c r="S106" s="58"/>
+      <c r="T106" s="58"/>
+      <c r="U106" s="91"/>
+      <c r="V106" s="22"/>
+      <c r="W106" s="22"/>
+      <c r="X106" s="22"/>
+      <c r="Y106" s="22"/>
+      <c r="Z106" s="22"/>
+      <c r="AA106" s="22"/>
+      <c r="AB106" s="22"/>
+      <c r="AC106" s="14"/>
+      <c r="AD106" s="14"/>
+      <c r="AE106" s="68"/>
+      <c r="AF106" s="68"/>
+      <c r="AG106" s="68"/>
+      <c r="AH106" s="68"/>
+      <c r="AI106" s="68"/>
+      <c r="AJ106" s="68"/>
+      <c r="AK106" s="68"/>
+      <c r="AL106" s="68"/>
+      <c r="AM106" s="68"/>
+      <c r="AN106" s="68"/>
+      <c r="AO106" s="68"/>
+      <c r="AP106" s="68"/>
+      <c r="AQ106" s="68"/>
+      <c r="AR106" s="68"/>
+    </row>
+    <row r="107" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="83"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="58"/>
+      <c r="L107" s="58"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="58"/>
+      <c r="O107" s="58"/>
+      <c r="P107" s="58"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="58"/>
+      <c r="S107" s="58"/>
+      <c r="T107" s="58"/>
+      <c r="U107" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="V107" s="22"/>
+      <c r="W107" s="22"/>
+      <c r="X107" s="22"/>
+      <c r="Y107" s="22"/>
+      <c r="Z107" s="22"/>
+      <c r="AA107" s="22"/>
+      <c r="AB107" s="22"/>
+      <c r="AC107" s="14"/>
+      <c r="AD107" s="14"/>
+      <c r="AE107" s="14"/>
+      <c r="AF107" s="14"/>
+      <c r="AG107" s="14"/>
+      <c r="AH107" s="14"/>
+      <c r="AI107" s="14"/>
+      <c r="AJ107" s="14"/>
+      <c r="AK107" s="14"/>
+      <c r="AL107" s="14"/>
+      <c r="AM107" s="14"/>
+      <c r="AN107" s="14"/>
+      <c r="AO107" s="14"/>
+      <c r="AP107" s="14"/>
+      <c r="AQ107" s="14"/>
+      <c r="AR107" s="14"/>
+    </row>
+    <row r="108" spans="8:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="I108" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="J108" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="K108" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="L108" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="M108" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="N108" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="O108" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="P108" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q108" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="R108" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="S108" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="T108" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="U108" s="89">
+        <v>2</v>
+      </c>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="22"/>
+      <c r="AA108" s="22"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="22"/>
+      <c r="AD108" s="22"/>
+      <c r="AE108" s="22"/>
+      <c r="AF108" s="22"/>
+      <c r="AG108" s="22"/>
+      <c r="AH108" s="22"/>
+      <c r="AI108" s="22"/>
+      <c r="AJ108" s="22"/>
+      <c r="AK108" s="22"/>
+      <c r="AL108" s="22"/>
+      <c r="BB108" s="18"/>
+      <c r="BC108" s="19"/>
+      <c r="BD108" s="19"/>
+      <c r="BE108" s="19"/>
+      <c r="BF108" s="19"/>
+      <c r="BG108" s="19"/>
+      <c r="BH108" s="19"/>
+      <c r="BI108" s="20"/>
+    </row>
+    <row r="109" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="V109" s="22"/>
+      <c r="W109" s="64"/>
+      <c r="X109" s="64"/>
+      <c r="Y109" s="64"/>
+      <c r="Z109" s="64"/>
+      <c r="AA109" s="64"/>
+      <c r="AB109" s="64"/>
+      <c r="AC109" s="64"/>
+      <c r="AD109" s="64"/>
+      <c r="AE109" s="64"/>
+      <c r="AF109" s="64"/>
+      <c r="AG109" s="64"/>
+      <c r="AH109" s="64"/>
+      <c r="AI109" s="64"/>
+      <c r="AJ109" s="64"/>
+      <c r="AK109" s="22"/>
+      <c r="AL109" s="22"/>
+      <c r="BB109" s="21"/>
+      <c r="BC109" s="22"/>
+      <c r="BD109" s="22"/>
+      <c r="BE109" s="22"/>
+      <c r="BF109" s="22"/>
+      <c r="BG109" s="22"/>
+      <c r="BH109" s="37"/>
+      <c r="BI109" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="BB110" s="21"/>
+      <c r="BC110" s="22"/>
+      <c r="BD110" s="22"/>
+      <c r="BE110" s="22"/>
+      <c r="BF110" s="22"/>
+      <c r="BG110" s="22"/>
+      <c r="BH110" s="37"/>
+      <c r="BI110" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="BB111" s="21"/>
+      <c r="BC111" s="22"/>
+      <c r="BD111" s="22"/>
+      <c r="BE111" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF111" s="22"/>
+      <c r="BG111" s="22"/>
+      <c r="BH111" s="37"/>
+      <c r="BI111" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="8:61" x14ac:dyDescent="0.2">
+      <c r="BB112" s="21"/>
+      <c r="BC112" s="22"/>
+      <c r="BD112" s="22"/>
+      <c r="BE112" s="22"/>
+      <c r="BF112" s="22"/>
+      <c r="BG112" s="22"/>
+      <c r="BH112" s="37"/>
+      <c r="BI112" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="54:61" x14ac:dyDescent="0.2">
+      <c r="BB113" s="21"/>
+      <c r="BC113" s="22"/>
+      <c r="BD113" s="22"/>
+      <c r="BE113" s="22"/>
+      <c r="BF113" s="22"/>
+      <c r="BG113" s="22"/>
+      <c r="BH113" s="37"/>
+      <c r="BI113" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="54:61" x14ac:dyDescent="0.2">
+      <c r="BB114" s="21"/>
+      <c r="BC114" s="22"/>
+      <c r="BD114" s="22"/>
+      <c r="BE114" s="22"/>
+      <c r="BF114" s="22"/>
+      <c r="BG114" s="22"/>
+      <c r="BH114" s="37"/>
+      <c r="BI114" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="8:61" x14ac:dyDescent="0.2">
-      <c r="BB96" s="21"/>
-      <c r="BC96" s="22"/>
-      <c r="BD96" s="22"/>
-      <c r="BE96" s="22"/>
-      <c r="BF96" s="22"/>
-      <c r="BG96" s="22"/>
-      <c r="BH96" s="37"/>
-      <c r="BI96" s="38" t="s">
+    <row r="115" spans="54:61" x14ac:dyDescent="0.2">
+      <c r="BB115" s="21"/>
+      <c r="BC115" s="22"/>
+      <c r="BD115" s="22"/>
+      <c r="BE115" s="22"/>
+      <c r="BF115" s="22"/>
+      <c r="BG115" s="22"/>
+      <c r="BH115" s="37"/>
+      <c r="BI115" s="38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="54:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="BB97" s="26"/>
-      <c r="BC97" s="27"/>
-      <c r="BD97" s="27"/>
-      <c r="BE97" s="27"/>
-      <c r="BF97" s="27"/>
-      <c r="BG97" s="27"/>
-      <c r="BH97" s="27"/>
-      <c r="BI97" s="39"/>
+    <row r="116" spans="54:61" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BB116" s="26"/>
+      <c r="BC116" s="27"/>
+      <c r="BD116" s="27"/>
+      <c r="BE116" s="27"/>
+      <c r="BF116" s="27"/>
+      <c r="BG116" s="27"/>
+      <c r="BH116" s="27"/>
+      <c r="BI116" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5884,7 +7342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -6009,39 +7467,39 @@
     </row>
     <row r="11" spans="3:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="3:22" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P12" s="108"/>
+      <c r="P12" s="107"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="N13" s="109">
+      <c r="N13" s="108">
         <v>1</v>
       </c>
-      <c r="O13" s="110">
+      <c r="O13" s="109">
         <v>3</v>
       </c>
-      <c r="P13" s="110">
+      <c r="P13" s="109">
         <v>5</v>
       </c>
-      <c r="Q13" s="110">
+      <c r="Q13" s="109">
         <v>7</v>
       </c>
-      <c r="R13" s="111">
+      <c r="R13" s="110">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N14" s="112">
+      <c r="N14" s="111">
         <v>2</v>
       </c>
-      <c r="O14" s="113">
+      <c r="O14" s="112">
         <v>4</v>
       </c>
-      <c r="P14" s="113">
+      <c r="P14" s="112">
         <v>6</v>
       </c>
-      <c r="Q14" s="113">
+      <c r="Q14" s="112">
         <v>8</v>
       </c>
-      <c r="R14" s="114">
+      <c r="R14" s="113">
         <v>10</v>
       </c>
     </row>
@@ -6060,7 +7518,7 @@
       </c>
     </row>
     <row r="17" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S17" s="115">
+      <c r="S17" s="114">
         <v>1</v>
       </c>
       <c r="T17" t="s">
@@ -6071,7 +7529,7 @@
       </c>
     </row>
     <row r="18" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S18" s="115">
+      <c r="S18" s="114">
         <v>2</v>
       </c>
       <c r="T18" t="s">
@@ -6082,7 +7540,7 @@
       </c>
     </row>
     <row r="19" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S19" s="115">
+      <c r="S19" s="114">
         <v>3</v>
       </c>
       <c r="T19" t="s">
@@ -6093,7 +7551,7 @@
       </c>
     </row>
     <row r="20" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S20" s="115">
+      <c r="S20" s="114">
         <v>4</v>
       </c>
       <c r="T20" t="s">
@@ -6107,7 +7565,7 @@
       </c>
     </row>
     <row r="21" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S21" s="115">
+      <c r="S21" s="114">
         <v>5</v>
       </c>
       <c r="T21" t="s">
@@ -6121,7 +7579,7 @@
       </c>
     </row>
     <row r="22" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S22" s="115">
+      <c r="S22" s="114">
         <v>6</v>
       </c>
       <c r="T22" t="s">
@@ -6135,7 +7593,7 @@
       </c>
     </row>
     <row r="23" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S23" s="115">
+      <c r="S23" s="114">
         <v>7</v>
       </c>
       <c r="T23" t="s">
@@ -6149,7 +7607,7 @@
       </c>
     </row>
     <row r="24" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S24" s="115">
+      <c r="S24" s="114">
         <v>8</v>
       </c>
       <c r="T24" t="s">
@@ -6163,7 +7621,7 @@
       </c>
     </row>
     <row r="25" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S25" s="115">
+      <c r="S25" s="114">
         <v>9</v>
       </c>
       <c r="T25" t="s">
@@ -6177,7 +7635,7 @@
       </c>
     </row>
     <row r="26" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S26" s="115">
+      <c r="S26" s="114">
         <v>10</v>
       </c>
       <c r="T26" t="s">
